--- a/output/aggregrated.xlsx
+++ b/output/aggregrated.xlsx
@@ -8,19 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giant\Desktop\features\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E2548A-DDB4-419C-A3FB-ADDCC5C56102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031F3513-404F-4CC4-A3BA-36E96091BFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="82">
   <si>
     <t>code</t>
   </si>
@@ -31,7 +45,7 @@
     <t>0. Crop production index</t>
   </si>
   <si>
-    <t>4. Agriculture land area (% of land area)</t>
+    <t>3. Agricultural land area (sq. km)</t>
   </si>
   <si>
     <t>5. Average precipitation (mm per year)</t>
@@ -195,12 +209,84 @@
   <si>
     <t>ZWE</t>
   </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +299,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -222,7 +316,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -245,14 +339,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -555,11 +677,353 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{004B760B-A666-4C5A-B9F5-3B42AF1BFAE4}">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.15077762330763766</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2.2733891690299882E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.0300480643102678E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="2">
+        <v>17.51331970150261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="3">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="2">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2804.0803283193964</v>
+      </c>
+      <c r="D12" s="2">
+        <v>560.81606566387927</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1.8284517099935067</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.10622967818320607</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="2">
+        <v>393</v>
+      </c>
+      <c r="C13" s="2">
+        <v>120539.53221804652</v>
+      </c>
+      <c r="D13" s="2">
+        <v>306.71636696703951</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="3">
+        <v>398</v>
+      </c>
+      <c r="C14" s="3">
+        <v>123343.61254636591</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="2">
+        <v>112.8373751191149</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2.8604611601722416</v>
+      </c>
+      <c r="D17" s="2">
+        <v>39.447266996738541</v>
+      </c>
+      <c r="E17" s="2">
+        <v>9.9860781624454662E-139</v>
+      </c>
+      <c r="F17" s="2">
+        <v>107.21365523099193</v>
+      </c>
+      <c r="G17" s="2">
+        <v>118.46109500723786</v>
+      </c>
+      <c r="H17" s="2">
+        <v>107.21365523099193</v>
+      </c>
+      <c r="I17" s="2">
+        <v>118.46109500723786</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2">
+        <v>-2.5745325064096095E-6</v>
+      </c>
+      <c r="C18" s="2">
+        <v>4.7825190141298663E-6</v>
+      </c>
+      <c r="D18" s="2">
+        <v>-0.53832143663270327</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.59065990427351611</v>
+      </c>
+      <c r="F18" s="2">
+        <v>-1.1977053914345404E-5</v>
+      </c>
+      <c r="G18" s="2">
+        <v>6.8279889015261853E-6</v>
+      </c>
+      <c r="H18" s="2">
+        <v>-1.1977053914345404E-5</v>
+      </c>
+      <c r="I18" s="2">
+        <v>6.8279889015261853E-6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2">
+        <v>-3.3739346995845859E-3</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1.4297577349454732E-3</v>
+      </c>
+      <c r="D19" s="2">
+        <v>-2.35979468207826</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1.8773143776260354E-2</v>
+      </c>
+      <c r="F19" s="2">
+        <v>-6.1848650212975856E-3</v>
+      </c>
+      <c r="G19" s="2">
+        <v>-5.6300437787158621E-4</v>
+      </c>
+      <c r="H19" s="2">
+        <v>-6.1848650212975856E-3</v>
+      </c>
+      <c r="I19" s="2">
+        <v>-5.6300437787158621E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="2">
+        <v>-2.386095519156459E-2</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1.2878288998494818E-2</v>
+      </c>
+      <c r="D20" s="2">
+        <v>-1.8528047626787532</v>
+      </c>
+      <c r="E20" s="2">
+        <v>6.4659816026239866E-2</v>
+      </c>
+      <c r="F20" s="2">
+        <v>-4.9179911090783832E-2</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1.4580007076546476E-3</v>
+      </c>
+      <c r="H20" s="2">
+        <v>-4.9179911090783832E-2</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1.4580007076546476E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2.6293031698798673E-8</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3.269221953487297E-8</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.80425960894921045</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.42173328918603548</v>
+      </c>
+      <c r="F21" s="2">
+        <v>-3.7980480469454863E-8</v>
+      </c>
+      <c r="G21" s="2">
+        <v>9.0566543867052216E-8</v>
+      </c>
+      <c r="H21" s="2">
+        <v>-3.7980480469454863E-8</v>
+      </c>
+      <c r="I21" s="2">
+        <v>9.0566543867052216E-8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="3">
+        <v>-8.4449934919714319E-3</v>
+      </c>
+      <c r="C22" s="3">
+        <v>4.3290734442587638E-2</v>
+      </c>
+      <c r="D22" s="3">
+        <v>-0.19507623515076233</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.84543407737460752</v>
+      </c>
+      <c r="F22" s="3">
+        <v>-9.3555383259183084E-2</v>
+      </c>
+      <c r="G22" s="3">
+        <v>7.6665396275240216E-2</v>
+      </c>
+      <c r="H22" s="3">
+        <v>-9.3555383259183084E-2</v>
+      </c>
+      <c r="I22" s="3">
+        <v>7.6665396275240216E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H400"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -601,7 +1065,7 @@
         <v>94</v>
       </c>
       <c r="D2">
-        <v>36.635918830000001</v>
+        <v>456740.00005361001</v>
       </c>
       <c r="E2">
         <v>1010</v>
@@ -627,7 +1091,7 @@
         <v>100.89</v>
       </c>
       <c r="D3">
-        <v>36.728162349999998</v>
+        <v>457890.00001745002</v>
       </c>
       <c r="E3">
         <v>1010</v>
@@ -653,7 +1117,7 @@
         <v>105.11</v>
       </c>
       <c r="D4">
-        <v>36.756236459999997</v>
+        <v>458239.99994682003</v>
       </c>
       <c r="E4">
         <v>1010</v>
@@ -679,7 +1143,7 @@
         <v>104.58</v>
       </c>
       <c r="D5">
-        <v>36.71452635</v>
+        <v>457720.00000544998</v>
       </c>
       <c r="E5">
         <v>1010</v>
@@ -705,7 +1169,7 @@
         <v>107.34</v>
       </c>
       <c r="D6">
-        <v>36.730568699999999</v>
+        <v>457919.99998289999</v>
       </c>
       <c r="E6">
         <v>1010</v>
@@ -731,7 +1195,7 @@
         <v>109.43</v>
       </c>
       <c r="D7">
-        <v>36.798748699999997</v>
+        <v>458770.00004289998</v>
       </c>
       <c r="E7">
         <v>1010</v>
@@ -757,7 +1221,7 @@
         <v>115.08</v>
       </c>
       <c r="D8">
-        <v>36.810780459999997</v>
+        <v>458919.99999481998</v>
       </c>
       <c r="E8">
         <v>1010</v>
@@ -783,7 +1247,7 @@
         <v>116.22</v>
       </c>
       <c r="D9">
-        <v>36.814791049999997</v>
+        <v>458970.00002034998</v>
       </c>
       <c r="E9">
         <v>1010</v>
@@ -809,7 +1273,7 @@
         <v>101.22</v>
       </c>
       <c r="D10">
-        <v>74.532710280000003</v>
+        <v>19139.999999904001</v>
       </c>
       <c r="E10">
         <v>1274</v>
@@ -835,7 +1299,7 @@
         <v>95.57</v>
       </c>
       <c r="D11">
-        <v>75.584112149999996</v>
+        <v>19410.000000119999</v>
       </c>
       <c r="E11">
         <v>1274</v>
@@ -861,7 +1325,7 @@
         <v>103.21</v>
       </c>
       <c r="D12">
-        <v>76.635514020000002</v>
+        <v>19680.000000336</v>
       </c>
       <c r="E12">
         <v>1274</v>
@@ -887,7 +1351,7 @@
         <v>97.88</v>
       </c>
       <c r="D13">
-        <v>77.686915889999995</v>
+        <v>19950.000000552001</v>
       </c>
       <c r="E13">
         <v>1274</v>
@@ -913,7 +1377,7 @@
         <v>116.23</v>
       </c>
       <c r="D14">
-        <v>78.738317760000001</v>
+        <v>20220.000000767999</v>
       </c>
       <c r="E14">
         <v>1274</v>
@@ -939,7 +1403,7 @@
         <v>127.71</v>
       </c>
       <c r="D15">
-        <v>79.789719629999993</v>
+        <v>20490.000000984001</v>
       </c>
       <c r="E15">
         <v>1274</v>
@@ -965,7 +1429,7 @@
         <v>115.26</v>
       </c>
       <c r="D16">
-        <v>80.8411215</v>
+        <v>20760.000001199998</v>
       </c>
       <c r="E16">
         <v>1274</v>
@@ -991,7 +1455,7 @@
         <v>118.07</v>
       </c>
       <c r="D17">
-        <v>81.892523359999998</v>
+        <v>21029.999998848001</v>
       </c>
       <c r="E17">
         <v>1274</v>
@@ -1017,7 +1481,7 @@
         <v>103.67</v>
       </c>
       <c r="D18">
-        <v>35.030152540000003</v>
+        <v>39500.000004103997</v>
       </c>
       <c r="E18">
         <v>1039</v>
@@ -1043,7 +1507,7 @@
         <v>92.24</v>
       </c>
       <c r="D19">
-        <v>35.030152540000003</v>
+        <v>39500.000004103997</v>
       </c>
       <c r="E19">
         <v>1039</v>
@@ -1069,7 +1533,7 @@
         <v>104.08</v>
       </c>
       <c r="D20">
-        <v>35.030152540000003</v>
+        <v>39500.000004103997</v>
       </c>
       <c r="E20">
         <v>1039</v>
@@ -1095,7 +1559,7 @@
         <v>110.4</v>
       </c>
       <c r="D21">
-        <v>35.030152540000003</v>
+        <v>39500.000004103997</v>
       </c>
       <c r="E21">
         <v>1039</v>
@@ -1121,7 +1585,7 @@
         <v>117.28</v>
       </c>
       <c r="D22">
-        <v>35.030152540000003</v>
+        <v>39500.000004103997</v>
       </c>
       <c r="E22">
         <v>1039</v>
@@ -1147,7 +1611,7 @@
         <v>124.87</v>
       </c>
       <c r="D23">
-        <v>35.030152540000003</v>
+        <v>39500.000004103997</v>
       </c>
       <c r="E23">
         <v>1039</v>
@@ -1173,7 +1637,7 @@
         <v>122.58</v>
       </c>
       <c r="D24">
-        <v>35.030152540000003</v>
+        <v>39500.000004103997</v>
       </c>
       <c r="E24">
         <v>1039</v>
@@ -1199,7 +1663,7 @@
         <v>129.62</v>
       </c>
       <c r="D25">
-        <v>35.030152540000003</v>
+        <v>39500.000004103997</v>
       </c>
       <c r="E25">
         <v>1039</v>
@@ -1225,7 +1689,7 @@
         <v>99.64</v>
       </c>
       <c r="D26">
-        <v>43.311403509999998</v>
+        <v>118500.00000335999</v>
       </c>
       <c r="E26">
         <v>748</v>
@@ -1251,7 +1715,7 @@
         <v>98.08</v>
       </c>
       <c r="D27">
-        <v>43.80847953</v>
+        <v>119859.99999408</v>
       </c>
       <c r="E27">
         <v>748</v>
@@ -1277,7 +1741,7 @@
         <v>102.28</v>
       </c>
       <c r="D28">
-        <v>44.232456139999996</v>
+        <v>121019.99999904</v>
       </c>
       <c r="E28">
         <v>748</v>
@@ -1303,7 +1767,7 @@
         <v>95.51</v>
       </c>
       <c r="D29">
-        <v>44.652777780000001</v>
+        <v>122170.00000607999</v>
       </c>
       <c r="E29">
         <v>748</v>
@@ -1329,7 +1793,7 @@
         <v>107.71</v>
       </c>
       <c r="D30">
-        <v>45.369152049999997</v>
+        <v>124130.00000879999</v>
       </c>
       <c r="E30">
         <v>748</v>
@@ -1355,7 +1819,7 @@
         <v>116.48</v>
       </c>
       <c r="D31">
-        <v>45.756578949999998</v>
+        <v>125190.0000072</v>
       </c>
       <c r="E31">
         <v>748</v>
@@ -1381,7 +1845,7 @@
         <v>123.49</v>
       </c>
       <c r="D32">
-        <v>46.103801169999997</v>
+        <v>126140.00000112</v>
       </c>
       <c r="E32">
         <v>748</v>
@@ -1407,7 +1871,7 @@
         <v>111.24</v>
       </c>
       <c r="D33">
-        <v>46.564327489999997</v>
+        <v>127400.00001264</v>
       </c>
       <c r="E33">
         <v>748</v>
@@ -1433,7 +1897,7 @@
         <v>93.14</v>
       </c>
       <c r="D34">
-        <v>45.884283519999997</v>
+        <v>260039.99999289599</v>
       </c>
       <c r="E34">
         <v>416</v>
@@ -1459,7 +1923,7 @@
         <v>104.08</v>
       </c>
       <c r="D35">
-        <v>45.63301749</v>
+        <v>258616.00002107699</v>
       </c>
       <c r="E35">
         <v>416</v>
@@ -1485,7 +1949,7 @@
         <v>102.78</v>
       </c>
       <c r="D36">
-        <v>45.63301749</v>
+        <v>258616.00002107699</v>
       </c>
       <c r="E36">
         <v>416</v>
@@ -1511,7 +1975,7 @@
         <v>101.74</v>
       </c>
       <c r="D37">
-        <v>45.63301749</v>
+        <v>258616.00002107699</v>
       </c>
       <c r="E37">
         <v>416</v>
@@ -1537,7 +2001,7 @@
         <v>135.06</v>
       </c>
       <c r="D38">
-        <v>45.63301749</v>
+        <v>258616.00002107699</v>
       </c>
       <c r="E38">
         <v>416</v>
@@ -1563,7 +2027,7 @@
         <v>115.41</v>
       </c>
       <c r="D39">
-        <v>45.633723289999999</v>
+        <v>258620.00000141701</v>
       </c>
       <c r="E39">
         <v>416</v>
@@ -1589,7 +2053,7 @@
         <v>179.04</v>
       </c>
       <c r="D40">
-        <v>45.633723289999999</v>
+        <v>258620.00000141701</v>
       </c>
       <c r="E40">
         <v>416</v>
@@ -1615,7 +2079,7 @@
         <v>147.63</v>
       </c>
       <c r="D41">
-        <v>45.633723289999999</v>
+        <v>258620.00000141701</v>
       </c>
       <c r="E41">
         <v>416</v>
@@ -1641,7 +2105,7 @@
         <v>93.04</v>
       </c>
       <c r="D42">
-        <v>7.876657357</v>
+        <v>49070.000002638597</v>
       </c>
       <c r="E42">
         <v>1343</v>
@@ -1667,7 +2131,7 @@
         <v>96.07</v>
       </c>
       <c r="D43">
-        <v>7.876657357</v>
+        <v>49070.000002638597</v>
       </c>
       <c r="E43">
         <v>1343</v>
@@ -1693,7 +2157,7 @@
         <v>110.89</v>
       </c>
       <c r="D44">
-        <v>7.876657357</v>
+        <v>49070.000002638597</v>
       </c>
       <c r="E44">
         <v>1343</v>
@@ -1719,7 +2183,7 @@
         <v>111.84</v>
       </c>
       <c r="D45">
-        <v>7.876657357</v>
+        <v>49070.000002638597</v>
       </c>
       <c r="E45">
         <v>1343</v>
@@ -1745,7 +2209,7 @@
         <v>130.54</v>
       </c>
       <c r="D46">
-        <v>7.8798677330000002</v>
+        <v>49090.000003043402</v>
       </c>
       <c r="E46">
         <v>1343</v>
@@ -1771,7 +2235,7 @@
         <v>153.47</v>
       </c>
       <c r="D47">
-        <v>7.8798677330000002</v>
+        <v>49090.000003043402</v>
       </c>
       <c r="E47">
         <v>1343</v>
@@ -1797,7 +2261,7 @@
         <v>165.58</v>
       </c>
       <c r="D48">
-        <v>7.8798677330000002</v>
+        <v>49090.000003043402</v>
       </c>
       <c r="E48">
         <v>1343</v>
@@ -1823,7 +2287,7 @@
         <v>169.35</v>
       </c>
       <c r="D49">
-        <v>7.8814729200000002</v>
+        <v>49099.999997016013</v>
       </c>
       <c r="E49">
         <v>1343</v>
@@ -1849,7 +2313,7 @@
         <v>96.08</v>
       </c>
       <c r="D50">
-        <v>20.625753629999998</v>
+        <v>97499.999984372989</v>
       </c>
       <c r="E50">
         <v>1604</v>
@@ -1875,7 +2339,7 @@
         <v>101.61</v>
       </c>
       <c r="D51">
-        <v>20.625753629999998</v>
+        <v>97499.999984372989</v>
       </c>
       <c r="E51">
         <v>1604</v>
@@ -1901,7 +2365,7 @@
         <v>102.31</v>
       </c>
       <c r="D52">
-        <v>20.625753629999998</v>
+        <v>97499.999984372989</v>
       </c>
       <c r="E52">
         <v>1604</v>
@@ -1927,7 +2391,7 @@
         <v>102.55</v>
       </c>
       <c r="D53">
-        <v>20.625753629999998</v>
+        <v>97499.999984372989</v>
       </c>
       <c r="E53">
         <v>1604</v>
@@ -1953,7 +2417,7 @@
         <v>106.74</v>
       </c>
       <c r="D54">
-        <v>20.625753629999998</v>
+        <v>97499.999984372989</v>
       </c>
       <c r="E54">
         <v>1604</v>
@@ -1979,7 +2443,7 @@
         <v>106.22</v>
       </c>
       <c r="D55">
-        <v>20.625753629999998</v>
+        <v>97499.999984372989</v>
       </c>
       <c r="E55">
         <v>1604</v>
@@ -2005,7 +2469,7 @@
         <v>108.86</v>
       </c>
       <c r="D56">
-        <v>20.625753629999998</v>
+        <v>97499.999984372989</v>
       </c>
       <c r="E56">
         <v>1604</v>
@@ -2031,7 +2495,7 @@
         <v>106.66</v>
       </c>
       <c r="D57">
-        <v>20.625753629999998</v>
+        <v>97499.999984372989</v>
       </c>
       <c r="E57">
         <v>1604</v>
@@ -2057,7 +2521,7 @@
         <v>100.98</v>
       </c>
       <c r="D58">
-        <v>31.118594439999999</v>
+        <v>106270.00001259999</v>
       </c>
       <c r="E58">
         <v>1646</v>
@@ -2083,7 +2547,7 @@
         <v>100.53</v>
       </c>
       <c r="D59">
-        <v>31.118594439999999</v>
+        <v>106270.00001259999</v>
       </c>
       <c r="E59">
         <v>1646</v>
@@ -2109,7 +2573,7 @@
         <v>98.49</v>
       </c>
       <c r="D60">
-        <v>31.118594439999999</v>
+        <v>106270.00001259999</v>
       </c>
       <c r="E60">
         <v>1646</v>
@@ -2135,7 +2599,7 @@
         <v>99.12</v>
       </c>
       <c r="D61">
-        <v>31.121522689999999</v>
+        <v>106279.99998635</v>
       </c>
       <c r="E61">
         <v>1646</v>
@@ -2161,7 +2625,7 @@
         <v>100.7</v>
       </c>
       <c r="D62">
-        <v>31.130307470000002</v>
+        <v>106310.00001005</v>
       </c>
       <c r="E62">
         <v>1646</v>
@@ -2187,7 +2651,7 @@
         <v>100.5</v>
       </c>
       <c r="D63">
-        <v>31.136163979999999</v>
+        <v>106329.9999917</v>
       </c>
       <c r="E63">
         <v>1646</v>
@@ -2213,7 +2677,7 @@
         <v>101.45</v>
       </c>
       <c r="D64">
-        <v>31.15373353</v>
+        <v>106390.00000494999</v>
       </c>
       <c r="E64">
         <v>1646</v>
@@ -2239,7 +2703,7 @@
         <v>104.78</v>
       </c>
       <c r="D65">
-        <v>31.26793558</v>
+        <v>106780.0000057</v>
       </c>
       <c r="E65">
         <v>1646</v>
@@ -2265,7 +2729,7 @@
         <v>98.72</v>
       </c>
       <c r="D66">
-        <v>71.466953250000003</v>
+        <v>1329.9999999825</v>
       </c>
       <c r="E66">
         <v>900</v>
@@ -2291,7 +2755,7 @@
         <v>98.58</v>
       </c>
       <c r="D67">
-        <v>71.466953250000003</v>
+        <v>1329.9999999825</v>
       </c>
       <c r="E67">
         <v>900</v>
@@ -2317,7 +2781,7 @@
         <v>102.7</v>
       </c>
       <c r="D68">
-        <v>71.466953250000003</v>
+        <v>1329.9999999825</v>
       </c>
       <c r="E68">
         <v>900</v>
@@ -2343,7 +2807,7 @@
         <v>103.12</v>
       </c>
       <c r="D69">
-        <v>71.466953250000003</v>
+        <v>1329.9999999825</v>
       </c>
       <c r="E69">
         <v>900</v>
@@ -2369,7 +2833,7 @@
         <v>105.43</v>
       </c>
       <c r="D70">
-        <v>71.466953250000003</v>
+        <v>1329.9999999825</v>
       </c>
       <c r="E70">
         <v>900</v>
@@ -2395,7 +2859,7 @@
         <v>105.74</v>
       </c>
       <c r="D71">
-        <v>71.466953250000003</v>
+        <v>1329.9999999825</v>
       </c>
       <c r="E71">
         <v>900</v>
@@ -2421,7 +2885,7 @@
         <v>106.46</v>
       </c>
       <c r="D72">
-        <v>71.466953250000003</v>
+        <v>1329.9999999825</v>
       </c>
       <c r="E72">
         <v>900</v>
@@ -2447,7 +2911,7 @@
         <v>107.72</v>
       </c>
       <c r="D73">
-        <v>71.466953250000003</v>
+        <v>1329.9999999825</v>
       </c>
       <c r="E73">
         <v>900</v>
@@ -2473,7 +2937,7 @@
         <v>98.53</v>
       </c>
       <c r="D74">
-        <v>73.459879209999997</v>
+        <v>17028.000000878001</v>
       </c>
       <c r="E74">
         <v>220</v>
@@ -2499,7 +2963,7 @@
         <v>101.23</v>
       </c>
       <c r="D75">
-        <v>73.459879209999997</v>
+        <v>17028.000000878001</v>
       </c>
       <c r="E75">
         <v>220</v>
@@ -2525,7 +2989,7 @@
         <v>100.24</v>
       </c>
       <c r="D76">
-        <v>73.459879209999997</v>
+        <v>17028.000000878001</v>
       </c>
       <c r="E76">
         <v>220</v>
@@ -2551,7 +3015,7 @@
         <v>123.49</v>
       </c>
       <c r="D77">
-        <v>73.459879209999997</v>
+        <v>17028.000000878001</v>
       </c>
       <c r="E77">
         <v>220</v>
@@ -2577,7 +3041,7 @@
         <v>137.16</v>
       </c>
       <c r="D78">
-        <v>73.459879209999997</v>
+        <v>17028.000000878001</v>
       </c>
       <c r="E78">
         <v>220</v>
@@ -2603,7 +3067,7 @@
         <v>160.68</v>
       </c>
       <c r="D79">
-        <v>73.464193269999996</v>
+        <v>17028.999999986001</v>
       </c>
       <c r="E79">
         <v>220</v>
@@ -2629,7 +3093,7 @@
         <v>169.14</v>
       </c>
       <c r="D80">
-        <v>73.50733391</v>
+        <v>17039.000000338001</v>
       </c>
       <c r="E80">
         <v>220</v>
@@ -2655,7 +3119,7 @@
         <v>150.47</v>
       </c>
       <c r="D81">
-        <v>73.50733391</v>
+        <v>17039.000000338001</v>
       </c>
       <c r="E81">
         <v>220</v>
@@ -2681,7 +3145,7 @@
         <v>94.93</v>
       </c>
       <c r="D82">
-        <v>17.395265649999999</v>
+        <v>414310.00009231002</v>
       </c>
       <c r="E82">
         <v>89</v>
@@ -2707,7 +3171,7 @@
         <v>101.74</v>
       </c>
       <c r="D83">
-        <v>17.40592281</v>
+        <v>414563.99999412207</v>
       </c>
       <c r="E83">
         <v>89</v>
@@ -2733,7 +3197,7 @@
         <v>103.33</v>
       </c>
       <c r="D84">
-        <v>17.36553219</v>
+        <v>413602.00003742788</v>
       </c>
       <c r="E84">
         <v>89</v>
@@ -2759,7 +3223,7 @@
         <v>104.4</v>
       </c>
       <c r="D85">
-        <v>17.35501081</v>
+        <v>413351.4080162021</v>
       </c>
       <c r="E85">
         <v>89</v>
@@ -2785,7 +3249,7 @@
         <v>115.36</v>
       </c>
       <c r="D86">
-        <v>17.356567989999999</v>
+        <v>413388.49601070583</v>
       </c>
       <c r="E86">
         <v>89</v>
@@ -2811,7 +3275,7 @@
         <v>121.01</v>
       </c>
       <c r="D87">
-        <v>17.34700415</v>
+        <v>413160.71011225152</v>
       </c>
       <c r="E87">
         <v>89</v>
@@ -2837,7 +3301,7 @@
         <v>120.95</v>
       </c>
       <c r="D88">
-        <v>17.34700415</v>
+        <v>413160.71011225152</v>
       </c>
       <c r="E88">
         <v>89</v>
@@ -2863,7 +3327,7 @@
         <v>108.76</v>
       </c>
       <c r="D89">
-        <v>17.34700415</v>
+        <v>413160.71011225152</v>
       </c>
       <c r="E89">
         <v>89</v>
@@ -2889,7 +3353,7 @@
         <v>99.07</v>
       </c>
       <c r="D90">
-        <v>3.73217138</v>
+        <v>37151.900002210001</v>
       </c>
       <c r="E90">
         <v>18.100000000000001</v>
@@ -2915,7 +3379,7 @@
         <v>101.99</v>
       </c>
       <c r="D91">
-        <v>3.8071998589999998</v>
+        <v>37898.7709964155</v>
       </c>
       <c r="E91">
         <v>18.100000000000001</v>
@@ -2941,7 +3405,7 @@
         <v>98.94</v>
       </c>
       <c r="D92">
-        <v>3.750831684</v>
+        <v>37337.653998377988</v>
       </c>
       <c r="E92">
         <v>18.100000000000001</v>
@@ -2967,7 +3431,7 @@
         <v>100.63</v>
       </c>
       <c r="D93">
-        <v>3.8545068059999998</v>
+        <v>38369.688000326998</v>
       </c>
       <c r="E93">
         <v>18.100000000000001</v>
@@ -2993,7 +3457,7 @@
         <v>96.26</v>
       </c>
       <c r="D94">
-        <v>3.8806569889999998</v>
+        <v>38629.999997000501</v>
       </c>
       <c r="E94">
         <v>18.100000000000001</v>
@@ -3019,7 +3483,7 @@
         <v>101.22</v>
       </c>
       <c r="D95">
-        <v>3.9399266659999999</v>
+        <v>39219.999996696999</v>
       </c>
       <c r="E95">
         <v>18.100000000000001</v>
@@ -3045,7 +3509,7 @@
         <v>101.83</v>
       </c>
       <c r="D96">
-        <v>3.9891506350000001</v>
+        <v>39709.999996107501</v>
       </c>
       <c r="E96">
         <v>18.100000000000001</v>
@@ -3071,7 +3535,7 @@
         <v>104.17</v>
       </c>
       <c r="D97">
-        <v>4.0494248830000004</v>
+        <v>40309.999997823506</v>
       </c>
       <c r="E97">
         <v>18.100000000000001</v>
@@ -3097,7 +3561,7 @@
         <v>100.72</v>
       </c>
       <c r="D98">
-        <v>62.725043749999998</v>
+        <v>75919.999994580925</v>
       </c>
       <c r="E98">
         <v>384</v>
@@ -3123,7 +3587,7 @@
         <v>99.32</v>
       </c>
       <c r="D99">
-        <v>62.697801669999997</v>
+        <v>75919.999994132537</v>
       </c>
       <c r="E99">
         <v>384</v>
@@ -3149,7 +3613,7 @@
         <v>99.96</v>
       </c>
       <c r="D100">
-        <v>62.703661459999999</v>
+        <v>75919.999995730308</v>
       </c>
       <c r="E100">
         <v>384</v>
@@ -3175,7 +3639,7 @@
         <v>100.67</v>
       </c>
       <c r="D101">
-        <v>62.70688595</v>
+        <v>75919.999995568753</v>
       </c>
       <c r="E101">
         <v>384</v>
@@ -3201,7 +3665,7 @@
         <v>100.48</v>
       </c>
       <c r="D102">
-        <v>62.703529400000001</v>
+        <v>75919.999994837926</v>
       </c>
       <c r="E102">
         <v>384</v>
@@ -3227,7 +3691,7 @@
         <v>100.24</v>
       </c>
       <c r="D103">
-        <v>62.702062810000001</v>
+        <v>75920.000003610941</v>
       </c>
       <c r="E103">
         <v>384</v>
@@ -3253,7 +3717,7 @@
         <v>100.42</v>
       </c>
       <c r="D104">
-        <v>62.722637169999999</v>
+        <v>75920.000001230132</v>
       </c>
       <c r="E104">
         <v>384</v>
@@ -3279,7 +3743,7 @@
         <v>100.35</v>
       </c>
       <c r="D105">
-        <v>62.722637169999999</v>
+        <v>75920.000001230132</v>
       </c>
       <c r="E105">
         <v>384</v>
@@ -3305,7 +3769,7 @@
         <v>95.98</v>
       </c>
       <c r="D106">
-        <v>32.706023879999996</v>
+        <v>369100.00000586169</v>
       </c>
       <c r="E106">
         <v>848</v>
@@ -3331,7 +3795,7 @@
         <v>100.99</v>
       </c>
       <c r="D107">
-        <v>32.892960180000003</v>
+        <v>371209.99999791972</v>
       </c>
       <c r="E107">
         <v>848</v>
@@ -3357,7 +3821,7 @@
         <v>103.03</v>
       </c>
       <c r="D108">
-        <v>33.079366030000003</v>
+        <v>373320.00005482062</v>
       </c>
       <c r="E108">
         <v>848</v>
@@ -3383,7 +3847,7 @@
         <v>106.37</v>
       </c>
       <c r="D109">
-        <v>33.263928219999997</v>
+        <v>375400.99996958568</v>
       </c>
       <c r="E109">
         <v>848</v>
@@ -3409,7 +3873,7 @@
         <v>105.88</v>
       </c>
       <c r="D110">
-        <v>33.585234290000002</v>
+        <v>379030.00003622199</v>
       </c>
       <c r="E110">
         <v>848</v>
@@ -3435,7 +3899,7 @@
         <v>108.07</v>
       </c>
       <c r="D111">
-        <v>33.839257609999997</v>
+        <v>381899.9999500073</v>
       </c>
       <c r="E111">
         <v>848</v>
@@ -3461,7 +3925,7 @@
         <v>116.89</v>
       </c>
       <c r="D112">
-        <v>34.09275178</v>
+        <v>384761.00003685598</v>
       </c>
       <c r="E112">
         <v>848</v>
@@ -3487,7 +3951,7 @@
         <v>114.29</v>
       </c>
       <c r="D113">
-        <v>34.19810622</v>
+        <v>385949.99997309758</v>
       </c>
       <c r="E113">
         <v>848</v>
@@ -3513,7 +3977,7 @@
         <v>99.09</v>
       </c>
       <c r="D114">
-        <v>8.3565645980000003</v>
+        <v>21532.359999666602</v>
       </c>
       <c r="E114">
         <v>1831</v>
@@ -3539,7 +4003,7 @@
         <v>100.09</v>
       </c>
       <c r="D115">
-        <v>8.3565645980000003</v>
+        <v>21532.359999666602</v>
       </c>
       <c r="E115">
         <v>1831</v>
@@ -3565,7 +4029,7 @@
         <v>100.82</v>
       </c>
       <c r="D116">
-        <v>8.3565645980000003</v>
+        <v>21532.359999666602</v>
       </c>
       <c r="E116">
         <v>1831</v>
@@ -3591,7 +4055,7 @@
         <v>102.14</v>
       </c>
       <c r="D117">
-        <v>8.3565645980000003</v>
+        <v>21532.359999666602</v>
       </c>
       <c r="E117">
         <v>1831</v>
@@ -3617,7 +4081,7 @@
         <v>102.92</v>
       </c>
       <c r="D118">
-        <v>8.3565645980000003</v>
+        <v>21532.359999666602</v>
       </c>
       <c r="E118">
         <v>1831</v>
@@ -3643,7 +4107,7 @@
         <v>104.09</v>
       </c>
       <c r="D119">
-        <v>8.3565645980000003</v>
+        <v>21532.359999666602</v>
       </c>
       <c r="E119">
         <v>1831</v>
@@ -3669,7 +4133,7 @@
         <v>104.02</v>
       </c>
       <c r="D120">
-        <v>8.3565645980000003</v>
+        <v>21532.359999666602</v>
       </c>
       <c r="E120">
         <v>1831</v>
@@ -3695,7 +4159,7 @@
         <v>105.3</v>
       </c>
       <c r="D121">
-        <v>8.3565645980000003</v>
+        <v>21532.359999666602</v>
       </c>
       <c r="E121">
         <v>1831</v>
@@ -3721,7 +4185,7 @@
         <v>99.33</v>
       </c>
       <c r="D122">
-        <v>54.384524919999997</v>
+        <v>123746.548002968</v>
       </c>
       <c r="E122">
         <v>1187</v>
@@ -3747,7 +4211,7 @@
         <v>99.62</v>
       </c>
       <c r="D123">
-        <v>54.564096419999998</v>
+        <v>124155.144994068</v>
       </c>
       <c r="E123">
         <v>1187</v>
@@ -3773,7 +4237,7 @@
         <v>101.05</v>
       </c>
       <c r="D124">
-        <v>54.311075850000002</v>
+        <v>123579.42198909</v>
       </c>
       <c r="E124">
         <v>1187</v>
@@ -3799,7 +4263,7 @@
         <v>108.02</v>
       </c>
       <c r="D125">
-        <v>53.106987340000003</v>
+        <v>120839.638993436</v>
       </c>
       <c r="E125">
         <v>1187</v>
@@ -3825,7 +4289,7 @@
         <v>113.29</v>
       </c>
       <c r="D126">
-        <v>53.694038849999998</v>
+        <v>122175.41599928999</v>
       </c>
       <c r="E126">
         <v>1187</v>
@@ -3851,7 +4315,7 @@
         <v>119.88</v>
       </c>
       <c r="D127">
-        <v>54.847386389999997</v>
+        <v>124799.74299180599</v>
       </c>
       <c r="E127">
         <v>1187</v>
@@ -3877,7 +4341,7 @@
         <v>123.03</v>
       </c>
       <c r="D128">
-        <v>55.39301991</v>
+        <v>126037.3999918203</v>
       </c>
       <c r="E128">
         <v>1187</v>
@@ -3903,7 +4367,7 @@
         <v>131.72999999999999</v>
       </c>
       <c r="D129">
-        <v>55.39301991</v>
+        <v>126037.3999918203</v>
       </c>
       <c r="E129">
         <v>1187</v>
@@ -3929,7 +4393,7 @@
         <v>95.56</v>
       </c>
       <c r="D130">
-        <v>59.14455478</v>
+        <v>145330.00000541599</v>
       </c>
       <c r="E130">
         <v>1651</v>
@@ -3955,7 +4419,7 @@
         <v>100.14</v>
       </c>
       <c r="D131">
-        <v>59.19339085</v>
+        <v>145449.99999662</v>
       </c>
       <c r="E131">
         <v>1651</v>
@@ -3981,7 +4445,7 @@
         <v>104.3</v>
       </c>
       <c r="D132">
-        <v>59.274784310000001</v>
+        <v>145650.00000653201</v>
       </c>
       <c r="E132">
         <v>1651</v>
@@ -4007,7 +4471,7 @@
         <v>110.06</v>
       </c>
       <c r="D133">
-        <v>59.396874490000002</v>
+        <v>145949.999996828</v>
       </c>
       <c r="E133">
         <v>1651</v>
@@ -4033,7 +4497,7 @@
         <v>115.09</v>
       </c>
       <c r="D134">
-        <v>59.506755660000003</v>
+        <v>146220.00000775201</v>
       </c>
       <c r="E134">
         <v>1651</v>
@@ -4059,7 +4523,7 @@
         <v>124.24</v>
       </c>
       <c r="D135">
-        <v>59.539313040000003</v>
+        <v>146300.00000188799</v>
       </c>
       <c r="E135">
         <v>1651</v>
@@ -4085,7 +4549,7 @@
         <v>136.83000000000001</v>
       </c>
       <c r="D136">
-        <v>59.559661400000003</v>
+        <v>146349.99999208</v>
       </c>
       <c r="E136">
         <v>1651</v>
@@ -4111,7 +4575,7 @@
         <v>143.63</v>
       </c>
       <c r="D137">
-        <v>59.571870420000003</v>
+        <v>146379.99999602401</v>
       </c>
       <c r="E137">
         <v>1651</v>
@@ -4137,7 +4601,7 @@
         <v>97.31</v>
       </c>
       <c r="D138">
-        <v>63.636363639999999</v>
+        <v>6440.0000003680007</v>
       </c>
       <c r="E138">
         <v>836</v>
@@ -4163,7 +4627,7 @@
         <v>110.52</v>
       </c>
       <c r="D139">
-        <v>63.636363639999999</v>
+        <v>6440.0000003680007</v>
       </c>
       <c r="E139">
         <v>836</v>
@@ -4189,7 +4653,7 @@
         <v>92.17</v>
       </c>
       <c r="D140">
-        <v>63.636363639999999</v>
+        <v>6440.0000003680007</v>
       </c>
       <c r="E140">
         <v>836</v>
@@ -4215,7 +4679,7 @@
         <v>76.03</v>
       </c>
       <c r="D141">
-        <v>62.648221339999999</v>
+        <v>6339.9999996079996</v>
       </c>
       <c r="E141">
         <v>836</v>
@@ -4241,7 +4705,7 @@
         <v>46.9</v>
       </c>
       <c r="D142">
-        <v>62.648221339999999</v>
+        <v>6339.9999996079996</v>
       </c>
       <c r="E142">
         <v>836</v>
@@ -4267,7 +4731,7 @@
         <v>56.47</v>
       </c>
       <c r="D143">
-        <v>62.648221339999999</v>
+        <v>6339.9999996079996</v>
       </c>
       <c r="E143">
         <v>836</v>
@@ -4293,7 +4757,7 @@
         <v>59.57</v>
       </c>
       <c r="D144">
-        <v>62.648221339999999</v>
+        <v>6339.9999996079996</v>
       </c>
       <c r="E144">
         <v>836</v>
@@ -4319,7 +4783,7 @@
         <v>63.04</v>
       </c>
       <c r="D145">
-        <v>62.648221339999999</v>
+        <v>6339.9999996079996</v>
       </c>
       <c r="E145">
         <v>836</v>
@@ -4345,7 +4809,7 @@
         <v>93.88</v>
       </c>
       <c r="D146">
-        <v>27.786130870000001</v>
+        <v>7813.4600006440014</v>
       </c>
       <c r="E146">
         <v>1577</v>
@@ -4371,7 +4835,7 @@
         <v>101.55</v>
       </c>
       <c r="D147">
-        <v>28.08641536</v>
+        <v>7897.8999992319996</v>
       </c>
       <c r="E147">
         <v>1577</v>
@@ -4397,7 +4861,7 @@
         <v>104.57</v>
       </c>
       <c r="D148">
-        <v>28.386557610000001</v>
+        <v>7982.2999999320009</v>
       </c>
       <c r="E148">
         <v>1577</v>
@@ -4423,7 +4887,7 @@
         <v>105.68</v>
       </c>
       <c r="D149">
-        <v>28.686699860000001</v>
+        <v>8066.7000006320004</v>
       </c>
       <c r="E149">
         <v>1577</v>
@@ -4449,7 +4913,7 @@
         <v>109.52</v>
       </c>
       <c r="D150">
-        <v>28.986842110000001</v>
+        <v>8151.1000013320008</v>
       </c>
       <c r="E150">
         <v>1577</v>
@@ -4475,7 +4939,7 @@
         <v>115.72</v>
       </c>
       <c r="D151">
-        <v>28.986842110000001</v>
+        <v>8151.1000013320008</v>
       </c>
       <c r="E151">
         <v>1577</v>
@@ -4501,7 +4965,7 @@
         <v>121.08</v>
       </c>
       <c r="D152">
-        <v>28.986842110000001</v>
+        <v>8151.1000013320008</v>
       </c>
       <c r="E152">
         <v>1577</v>
@@ -4527,7 +4991,7 @@
         <v>126.14</v>
       </c>
       <c r="D153">
-        <v>28.986842110000001</v>
+        <v>8151.1000013320008</v>
       </c>
       <c r="E153">
         <v>1577</v>
@@ -4553,7 +5017,7 @@
         <v>97.57</v>
       </c>
       <c r="D154">
-        <v>3.713012478</v>
+        <v>1041.5000000790001</v>
       </c>
       <c r="E154">
         <v>2156</v>
@@ -4579,7 +5043,7 @@
         <v>102.64</v>
       </c>
       <c r="D155">
-        <v>3.7176470589999999</v>
+        <v>1042.8000000495001</v>
       </c>
       <c r="E155">
         <v>2156</v>
@@ -4605,7 +5069,7 @@
         <v>99.78</v>
       </c>
       <c r="D156">
-        <v>3.7222816399999998</v>
+        <v>1044.1000000199999</v>
       </c>
       <c r="E156">
         <v>2156</v>
@@ -4631,7 +5095,7 @@
         <v>101.97</v>
       </c>
       <c r="D157">
-        <v>3.7269162210000002</v>
+        <v>1045.3999999905</v>
       </c>
       <c r="E157">
         <v>2156</v>
@@ -4657,7 +5121,7 @@
         <v>103.27</v>
       </c>
       <c r="D158">
-        <v>3.7315508020000001</v>
+        <v>1046.699999961</v>
       </c>
       <c r="E158">
         <v>2156</v>
@@ -4683,7 +5147,7 @@
         <v>105.27</v>
       </c>
       <c r="D159">
-        <v>3.736185383</v>
+        <v>1047.9999999315</v>
       </c>
       <c r="E159">
         <v>2156</v>
@@ -4709,7 +5173,7 @@
         <v>103.98</v>
       </c>
       <c r="D160">
-        <v>3.7404634579999998</v>
+        <v>1049.1999999689999</v>
       </c>
       <c r="E160">
         <v>2156</v>
@@ -4735,7 +5199,7 @@
         <v>103.56</v>
       </c>
       <c r="D161">
-        <v>3.7404634579999998</v>
+        <v>1049.1999999689999</v>
       </c>
       <c r="E161">
         <v>2156</v>
@@ -4761,7 +5225,7 @@
         <v>101.59</v>
       </c>
       <c r="D162">
-        <v>48.589099339999997</v>
+        <v>276539.99998367601</v>
       </c>
       <c r="E162">
         <v>630</v>
@@ -4787,7 +5251,7 @@
         <v>98.27</v>
       </c>
       <c r="D163">
-        <v>48.610183790000001</v>
+        <v>276660.00002240599</v>
       </c>
       <c r="E163">
         <v>630</v>
@@ -4813,7 +5277,7 @@
         <v>100.15</v>
       </c>
       <c r="D164">
-        <v>48.629511190000002</v>
+        <v>276769.99998676602</v>
       </c>
       <c r="E164">
         <v>630</v>
@@ -4839,7 +5303,7 @@
         <v>97.26</v>
       </c>
       <c r="D165">
-        <v>48.648838599999998</v>
+        <v>276880.00000803999</v>
       </c>
       <c r="E165">
         <v>630</v>
@@ -4865,7 +5329,7 @@
         <v>108.89</v>
       </c>
       <c r="D166">
-        <v>48.668165999999999</v>
+        <v>276989.99997240002</v>
       </c>
       <c r="E166">
         <v>630</v>
@@ -4891,7 +5355,7 @@
         <v>108.66</v>
       </c>
       <c r="D167">
-        <v>48.687493410000002</v>
+        <v>277099.99999367399</v>
       </c>
       <c r="E167">
         <v>630</v>
@@ -4917,7 +5381,7 @@
         <v>137.6</v>
       </c>
       <c r="D168">
-        <v>48.687493410000002</v>
+        <v>277099.99999367399</v>
       </c>
       <c r="E168">
         <v>630</v>
@@ -4943,7 +5407,7 @@
         <v>133.91</v>
       </c>
       <c r="D169">
-        <v>48.687493410000002</v>
+        <v>277099.99999367399</v>
       </c>
       <c r="E169">
         <v>630</v>
@@ -4969,7 +5433,7 @@
         <v>90.47</v>
       </c>
       <c r="D170">
-        <v>18.546234429999998</v>
+        <v>17863.733002976001</v>
       </c>
       <c r="E170">
         <v>2391</v>
@@ -4995,7 +5459,7 @@
         <v>97.33</v>
       </c>
       <c r="D171">
-        <v>18.858525749999998</v>
+        <v>18164.532002399999</v>
       </c>
       <c r="E171">
         <v>2391</v>
@@ -5021,7 +5485,7 @@
         <v>112.21</v>
       </c>
       <c r="D172">
-        <v>19.17029381</v>
+        <v>18464.826997791999</v>
       </c>
       <c r="E172">
         <v>2391</v>
@@ -5047,7 +5511,7 @@
         <v>94.53</v>
       </c>
       <c r="D173">
-        <v>19.483890160000001</v>
+        <v>18766.883002112001</v>
       </c>
       <c r="E173">
         <v>2391</v>
@@ -5073,7 +5537,7 @@
         <v>99.78</v>
       </c>
       <c r="D174">
-        <v>19.797589290000001</v>
+        <v>19069.038004128</v>
       </c>
       <c r="E174">
         <v>2391</v>
@@ -5099,7 +5563,7 @@
         <v>106.06</v>
       </c>
       <c r="D175">
-        <v>19.96511628</v>
+        <v>19230.400000895999</v>
       </c>
       <c r="E175">
         <v>2391</v>
@@ -5125,7 +5589,7 @@
         <v>108.58</v>
       </c>
       <c r="D176">
-        <v>19.96511628</v>
+        <v>19230.400000895999</v>
       </c>
       <c r="E176">
         <v>2391</v>
@@ -5151,7 +5615,7 @@
         <v>111.76</v>
       </c>
       <c r="D177">
-        <v>19.96511628</v>
+        <v>19230.400000895999</v>
       </c>
       <c r="E177">
         <v>2391</v>
@@ -5177,7 +5641,7 @@
         <v>100.06</v>
       </c>
       <c r="D178">
-        <v>8.723871012</v>
+        <v>153500.0000045448</v>
       </c>
       <c r="E178">
         <v>56</v>
@@ -5203,7 +5667,7 @@
         <v>98.5</v>
       </c>
       <c r="D179">
-        <v>8.723871012</v>
+        <v>153500.0000045448</v>
       </c>
       <c r="E179">
         <v>56</v>
@@ -5229,7 +5693,7 @@
         <v>101.44</v>
       </c>
       <c r="D180">
-        <v>8.723871012</v>
+        <v>153500.0000045448</v>
       </c>
       <c r="E180">
         <v>56</v>
@@ -5255,7 +5719,7 @@
         <v>99.31</v>
       </c>
       <c r="D181">
-        <v>8.723871012</v>
+        <v>153500.0000045448</v>
       </c>
       <c r="E181">
         <v>56</v>
@@ -5281,7 +5745,7 @@
         <v>99.17</v>
       </c>
       <c r="D182">
-        <v>8.723871012</v>
+        <v>153500.0000045448</v>
       </c>
       <c r="E182">
         <v>56</v>
@@ -5307,7 +5771,7 @@
         <v>96.44</v>
       </c>
       <c r="D183">
-        <v>8.723871012</v>
+        <v>153500.0000045448</v>
       </c>
       <c r="E183">
         <v>56</v>
@@ -5333,7 +5797,7 @@
         <v>99.85</v>
       </c>
       <c r="D184">
-        <v>8.723871012</v>
+        <v>153500.0000045448</v>
       </c>
       <c r="E184">
         <v>56</v>
@@ -5359,7 +5823,7 @@
         <v>98.85</v>
       </c>
       <c r="D185">
-        <v>8.723871012</v>
+        <v>153500.0000045448</v>
       </c>
       <c r="E185">
         <v>56</v>
@@ -5385,7 +5849,7 @@
         <v>102.87</v>
       </c>
       <c r="D186">
-        <v>73.221343869999998</v>
+        <v>22229.999998931999</v>
       </c>
       <c r="E186">
         <v>788</v>
@@ -5411,7 +5875,7 @@
         <v>82.89</v>
       </c>
       <c r="D187">
-        <v>77.602108040000005</v>
+        <v>23560.000000944001</v>
       </c>
       <c r="E187">
         <v>788</v>
@@ -5437,7 +5901,7 @@
         <v>149.5</v>
       </c>
       <c r="D188">
-        <v>79.644268769999996</v>
+        <v>24179.999998571999</v>
       </c>
       <c r="E188">
         <v>788</v>
@@ -5463,7 +5927,7 @@
         <v>132.65</v>
       </c>
       <c r="D189">
-        <v>80.148221340000006</v>
+        <v>24332.999998824002</v>
       </c>
       <c r="E189">
         <v>788</v>
@@ -5489,7 +5953,7 @@
         <v>86.25</v>
       </c>
       <c r="D190">
-        <v>80.138339920000007</v>
+        <v>24329.999999711999</v>
       </c>
       <c r="E190">
         <v>788</v>
@@ -5515,7 +5979,7 @@
         <v>87.47</v>
       </c>
       <c r="D191">
-        <v>80.138339920000007</v>
+        <v>24329.999999711999</v>
       </c>
       <c r="E191">
         <v>788</v>
@@ -5541,7 +6005,7 @@
         <v>119.14</v>
       </c>
       <c r="D192">
-        <v>80.138339920000007</v>
+        <v>24329.999999711999</v>
       </c>
       <c r="E192">
         <v>788</v>
@@ -5567,7 +6031,7 @@
         <v>101.96</v>
       </c>
       <c r="D193">
-        <v>67.40421241</v>
+        <v>300824.99998582999</v>
       </c>
       <c r="E193">
         <v>346</v>
@@ -5593,7 +6057,7 @@
         <v>110.39</v>
       </c>
       <c r="D194">
-        <v>67.324669499999999</v>
+        <v>300469.99997850001</v>
       </c>
       <c r="E194">
         <v>346</v>
@@ -5619,7 +6083,7 @@
         <v>87.66</v>
       </c>
       <c r="D195">
-        <v>69.179923819999999</v>
+        <v>308750.00000866002</v>
       </c>
       <c r="E195">
         <v>346</v>
@@ -5645,7 +6109,7 @@
         <v>107.35</v>
       </c>
       <c r="D196">
-        <v>69.564302490000003</v>
+        <v>310465.48201287002</v>
       </c>
       <c r="E196">
         <v>346</v>
@@ -5671,7 +6135,7 @@
         <v>117.05</v>
       </c>
       <c r="D197">
-        <v>68.397506609999994</v>
+        <v>305258.07200043002</v>
       </c>
       <c r="E197">
         <v>346</v>
@@ -5697,7 +6161,7 @@
         <v>108.12</v>
       </c>
       <c r="D198">
-        <v>66.349780420000002</v>
+        <v>296119.07001446001</v>
       </c>
       <c r="E198">
         <v>346</v>
@@ -5723,7 +6187,7 @@
         <v>93.14</v>
       </c>
       <c r="D199">
-        <v>68.021510190000001</v>
+        <v>303579.99997796997</v>
       </c>
       <c r="E199">
         <v>346</v>
@@ -5749,7 +6213,7 @@
         <v>118.58</v>
       </c>
       <c r="D200">
-        <v>67.871386959999995</v>
+        <v>302910.00000247988</v>
       </c>
       <c r="E200">
         <v>346</v>
@@ -5775,7 +6239,7 @@
         <v>101.75</v>
       </c>
       <c r="D201">
-        <v>70.29047783</v>
+        <v>408950.00001493999</v>
       </c>
       <c r="E201">
         <v>1513</v>
@@ -5801,7 +6265,7 @@
         <v>98.43</v>
       </c>
       <c r="D202">
-        <v>70.29047783</v>
+        <v>408950.00001493999</v>
       </c>
       <c r="E202">
         <v>1513</v>
@@ -5827,7 +6291,7 @@
         <v>99.82</v>
       </c>
       <c r="D203">
-        <v>70.29047783</v>
+        <v>408950.00001493999</v>
       </c>
       <c r="E203">
         <v>1513</v>
@@ -5853,7 +6317,7 @@
         <v>97.24</v>
       </c>
       <c r="D204">
-        <v>70.29047783</v>
+        <v>408950.00001493999</v>
       </c>
       <c r="E204">
         <v>1513</v>
@@ -5879,7 +6343,7 @@
         <v>101.87</v>
       </c>
       <c r="D205">
-        <v>70.29047783</v>
+        <v>408950.00001493999</v>
       </c>
       <c r="E205">
         <v>1513</v>
@@ -5905,7 +6369,7 @@
         <v>102.83</v>
       </c>
       <c r="D206">
-        <v>70.29047783</v>
+        <v>408950.00001493999</v>
       </c>
       <c r="E206">
         <v>1513</v>
@@ -5931,7 +6395,7 @@
         <v>103.99</v>
       </c>
       <c r="D207">
-        <v>70.29047783</v>
+        <v>408950.00001493999</v>
       </c>
       <c r="E207">
         <v>1513</v>
@@ -5957,7 +6421,7 @@
         <v>105.75</v>
       </c>
       <c r="D208">
-        <v>70.29047783</v>
+        <v>408950.00001493999</v>
       </c>
       <c r="E208">
         <v>1513</v>
@@ -5983,7 +6447,7 @@
         <v>89.18</v>
       </c>
       <c r="D209">
-        <v>34.26269679</v>
+        <v>418069.99996190099</v>
       </c>
       <c r="E209">
         <v>282</v>
@@ -6009,7 +6473,7 @@
         <v>96.9</v>
       </c>
       <c r="D210">
-        <v>34.417590699999998</v>
+        <v>419959.99996232998</v>
       </c>
       <c r="E210">
         <v>282</v>
@@ -6035,7 +6499,7 @@
         <v>113.91</v>
       </c>
       <c r="D211">
-        <v>34.573304159999999</v>
+        <v>421860.00002990401</v>
       </c>
       <c r="E211">
         <v>282</v>
@@ -6061,7 +6525,7 @@
         <v>115.23</v>
       </c>
       <c r="D212">
-        <v>34.728198069999998</v>
+        <v>423750.00003033289</v>
       </c>
       <c r="E212">
         <v>282</v>
@@ -6087,7 +6551,7 @@
         <v>125.08</v>
       </c>
       <c r="D213">
-        <v>34.883091980000003</v>
+        <v>425640.00003076211</v>
       </c>
       <c r="E213">
         <v>282</v>
@@ -6113,7 +6577,7 @@
         <v>128.69</v>
       </c>
       <c r="D214">
-        <v>35.037985890000002</v>
+        <v>427530.00003119098</v>
       </c>
       <c r="E214">
         <v>282</v>
@@ -6139,7 +6603,7 @@
         <v>126.5</v>
       </c>
       <c r="D215">
-        <v>35.1928798</v>
+        <v>429420.00003161997</v>
       </c>
       <c r="E215">
         <v>282</v>
@@ -6165,7 +6629,7 @@
         <v>126.74</v>
       </c>
       <c r="D216">
-        <v>35.347773709999998</v>
+        <v>431310.00003204902</v>
       </c>
       <c r="E216">
         <v>282</v>
@@ -6191,7 +6655,7 @@
         <v>102.31</v>
       </c>
       <c r="D217">
-        <v>51.49110099</v>
+        <v>404915.71996516199</v>
       </c>
       <c r="E217">
         <v>1032</v>
@@ -6217,7 +6681,7 @@
         <v>95.65</v>
       </c>
       <c r="D218">
-        <v>51.753605129999997</v>
+        <v>406980.00002129399</v>
       </c>
       <c r="E218">
         <v>1032</v>
@@ -6243,7 +6707,7 @@
         <v>102.04</v>
       </c>
       <c r="D219">
-        <v>52.149991100000001</v>
+        <v>410097.10001217999</v>
       </c>
       <c r="E219">
         <v>1032</v>
@@ -6269,7 +6733,7 @@
         <v>115.68</v>
       </c>
       <c r="D220">
-        <v>52.431903149999997</v>
+        <v>412313.99999097001</v>
       </c>
       <c r="E220">
         <v>1032</v>
@@ -6295,7 +6759,7 @@
         <v>135.99</v>
       </c>
       <c r="D221">
-        <v>52.663892769999997</v>
+        <v>414138.31996472599</v>
       </c>
       <c r="E221">
         <v>1032</v>
@@ -6321,7 +6785,7 @@
         <v>144.9</v>
       </c>
       <c r="D222">
-        <v>52.663892769999997</v>
+        <v>414138.31996472599</v>
       </c>
       <c r="E222">
         <v>1032</v>
@@ -6347,7 +6811,7 @@
         <v>139.32</v>
       </c>
       <c r="D223">
-        <v>52.663892769999997</v>
+        <v>414138.31996472599</v>
       </c>
       <c r="E223">
         <v>1032</v>
@@ -6373,7 +6837,7 @@
         <v>151.16999999999999</v>
       </c>
       <c r="D224">
-        <v>52.663892769999997</v>
+        <v>414138.31996472599</v>
       </c>
       <c r="E224">
         <v>1032</v>
@@ -6399,7 +6863,7 @@
         <v>108.91</v>
       </c>
       <c r="D225">
-        <v>38.52721451</v>
+        <v>397099.99995457003</v>
       </c>
       <c r="E225">
         <v>92</v>
@@ -6425,7 +6889,7 @@
         <v>96.41</v>
       </c>
       <c r="D226">
-        <v>38.52721451</v>
+        <v>397099.99995457003</v>
       </c>
       <c r="E226">
         <v>92</v>
@@ -6451,7 +6915,7 @@
         <v>94.67</v>
       </c>
       <c r="D227">
-        <v>38.52721451</v>
+        <v>397099.99995457003</v>
       </c>
       <c r="E227">
         <v>92</v>
@@ -6477,7 +6941,7 @@
         <v>111.63</v>
       </c>
       <c r="D228">
-        <v>38.52721451</v>
+        <v>397099.99995457003</v>
       </c>
       <c r="E228">
         <v>92</v>
@@ -6503,7 +6967,7 @@
         <v>122.02</v>
       </c>
       <c r="D229">
-        <v>38.52721451</v>
+        <v>397099.99995457003</v>
       </c>
       <c r="E229">
         <v>92</v>
@@ -6529,7 +6993,7 @@
         <v>105.19</v>
       </c>
       <c r="D230">
-        <v>38.52721451</v>
+        <v>397099.99995457003</v>
       </c>
       <c r="E230">
         <v>92</v>
@@ -6555,7 +7019,7 @@
         <v>116.02</v>
       </c>
       <c r="D231">
-        <v>38.52721451</v>
+        <v>397099.99995457003</v>
       </c>
       <c r="E231">
         <v>92</v>
@@ -6581,7 +7045,7 @@
         <v>140.69999999999999</v>
       </c>
       <c r="D232">
-        <v>38.52721451</v>
+        <v>397099.99995457003</v>
       </c>
       <c r="E232">
         <v>92</v>
@@ -6607,7 +7071,7 @@
         <v>103.38</v>
       </c>
       <c r="D233">
-        <v>43.064596899999998</v>
+        <v>860.00000009299993</v>
       </c>
       <c r="E233">
         <v>2041</v>
@@ -6633,7 +7097,7 @@
         <v>99.95</v>
       </c>
       <c r="D234">
-        <v>43.064596899999998</v>
+        <v>860.00000009299993</v>
       </c>
       <c r="E234">
         <v>2041</v>
@@ -6659,7 +7123,7 @@
         <v>96.67</v>
       </c>
       <c r="D235">
-        <v>43.064596899999998</v>
+        <v>860.00000009299993</v>
       </c>
       <c r="E235">
         <v>2041</v>
@@ -6685,7 +7149,7 @@
         <v>95.77</v>
       </c>
       <c r="D236">
-        <v>43.064596899999998</v>
+        <v>860.00000009299993</v>
       </c>
       <c r="E236">
         <v>2041</v>
@@ -6711,7 +7175,7 @@
         <v>83.33</v>
       </c>
       <c r="D237">
-        <v>43.064596899999998</v>
+        <v>860.00000009299993</v>
       </c>
       <c r="E237">
         <v>2041</v>
@@ -6737,7 +7201,7 @@
         <v>88.44</v>
       </c>
       <c r="D238">
-        <v>43.064596899999998</v>
+        <v>860.00000009299993</v>
       </c>
       <c r="E238">
         <v>2041</v>
@@ -6763,7 +7227,7 @@
         <v>70.56</v>
       </c>
       <c r="D239">
-        <v>43.064596899999998</v>
+        <v>860.00000009299993</v>
       </c>
       <c r="E239">
         <v>2041</v>
@@ -6789,7 +7253,7 @@
         <v>74.099999999999994</v>
       </c>
       <c r="D240">
-        <v>43.064596899999998</v>
+        <v>860.00000009299993</v>
       </c>
       <c r="E240">
         <v>2041</v>
@@ -6815,7 +7279,7 @@
         <v>105.77</v>
       </c>
       <c r="D241">
-        <v>59.938481119999999</v>
+        <v>56509.999999936001</v>
       </c>
       <c r="E241">
         <v>1181</v>
@@ -6841,7 +7305,7 @@
         <v>98.75</v>
       </c>
       <c r="D242">
-        <v>60.521849809999999</v>
+        <v>57060.000000868</v>
       </c>
       <c r="E242">
         <v>1181</v>
@@ -6867,7 +7331,7 @@
         <v>95.49</v>
       </c>
       <c r="D243">
-        <v>61.115825200000003</v>
+        <v>57619.999998560008</v>
       </c>
       <c r="E243">
         <v>1181</v>
@@ -6893,7 +7357,7 @@
         <v>111.86</v>
       </c>
       <c r="D244">
-        <v>61.699193889999997</v>
+        <v>58169.999999492</v>
       </c>
       <c r="E244">
         <v>1181</v>
@@ -6919,7 +7383,7 @@
         <v>114.83</v>
       </c>
       <c r="D245">
-        <v>62.293169280000001</v>
+        <v>58729.999997184001</v>
       </c>
       <c r="E245">
         <v>1181</v>
@@ -6945,7 +7409,7 @@
         <v>121.09</v>
       </c>
       <c r="D246">
-        <v>62.876537970000001</v>
+        <v>59279.999998116</v>
       </c>
       <c r="E246">
         <v>1181</v>
@@ -6971,7 +7435,7 @@
         <v>128.16999999999999</v>
       </c>
       <c r="D247">
-        <v>63.470513359999998</v>
+        <v>59839.999995807993</v>
       </c>
       <c r="E247">
         <v>1181</v>
@@ -6997,7 +7461,7 @@
         <v>134.07</v>
       </c>
       <c r="D248">
-        <v>64.170555789999995</v>
+        <v>60499.999998812003</v>
       </c>
       <c r="E248">
         <v>1181</v>
@@ -7023,7 +7487,7 @@
         <v>100.72</v>
       </c>
       <c r="D249">
-        <v>47.138918240000002</v>
+        <v>388089.99997809599</v>
       </c>
       <c r="E249">
         <v>285</v>
@@ -7049,7 +7513,7 @@
         <v>103.3</v>
       </c>
       <c r="D250">
-        <v>47.140132880000003</v>
+        <v>388099.999987752</v>
       </c>
       <c r="E250">
         <v>285</v>
@@ -7075,7 +7539,7 @@
         <v>95.98</v>
       </c>
       <c r="D251">
-        <v>47.140132880000003</v>
+        <v>388099.999987752</v>
       </c>
       <c r="E251">
         <v>285</v>
@@ -7101,7 +7565,7 @@
         <v>108.31</v>
       </c>
       <c r="D252">
-        <v>47.141347519999997</v>
+        <v>388109.99999740801</v>
       </c>
       <c r="E252">
         <v>285</v>
@@ -7127,7 +7591,7 @@
         <v>111.76</v>
       </c>
       <c r="D253">
-        <v>47.141347519999997</v>
+        <v>388109.99999740801</v>
       </c>
       <c r="E253">
         <v>285</v>
@@ -7153,7 +7617,7 @@
         <v>99.04</v>
       </c>
       <c r="D254">
-        <v>47.141347519999997</v>
+        <v>388109.99999740801</v>
       </c>
       <c r="E254">
         <v>285</v>
@@ -7179,7 +7643,7 @@
         <v>116.68</v>
       </c>
       <c r="D255">
-        <v>47.141347519999997</v>
+        <v>388109.99999740801</v>
       </c>
       <c r="E255">
         <v>285</v>
@@ -7205,7 +7669,7 @@
         <v>116.61</v>
       </c>
       <c r="D256">
-        <v>47.142562159999997</v>
+        <v>388120.00000706402</v>
       </c>
       <c r="E256">
         <v>285</v>
@@ -7231,7 +7695,7 @@
         <v>90.03</v>
       </c>
       <c r="D257">
-        <v>36.0637878</v>
+        <v>456820.00006260001</v>
       </c>
       <c r="E257">
         <v>151</v>
@@ -7257,7 +7721,7 @@
         <v>100.23</v>
       </c>
       <c r="D258">
-        <v>36.074050679999999</v>
+        <v>456949.99996356003</v>
       </c>
       <c r="E258">
         <v>151</v>
@@ -7283,7 +7747,7 @@
         <v>109.74</v>
       </c>
       <c r="D259">
-        <v>36.62666772</v>
+        <v>463950.00000924</v>
       </c>
       <c r="E259">
         <v>151</v>
@@ -7309,7 +7773,7 @@
         <v>110.28</v>
       </c>
       <c r="D260">
-        <v>36.7845583</v>
+        <v>465949.99998610001</v>
       </c>
       <c r="E260">
         <v>151</v>
@@ -7335,7 +7799,7 @@
         <v>121.82</v>
       </c>
       <c r="D261">
-        <v>36.7845583</v>
+        <v>465949.99998610001</v>
       </c>
       <c r="E261">
         <v>151</v>
@@ -7361,7 +7825,7 @@
         <v>120.12</v>
       </c>
       <c r="D262">
-        <v>36.7845583</v>
+        <v>465949.99998610001</v>
       </c>
       <c r="E262">
         <v>151</v>
@@ -7387,7 +7851,7 @@
         <v>130.08000000000001</v>
       </c>
       <c r="D263">
-        <v>36.7845583</v>
+        <v>465949.99998610001</v>
       </c>
       <c r="E263">
         <v>151</v>
@@ -7413,7 +7877,7 @@
         <v>103.52</v>
       </c>
       <c r="D264">
-        <v>36.7845583</v>
+        <v>465949.99998610001</v>
       </c>
       <c r="E264">
         <v>151</v>
@@ -7439,7 +7903,7 @@
         <v>95.08</v>
       </c>
       <c r="D265">
-        <v>74.215224480000003</v>
+        <v>675929.99999649602</v>
       </c>
       <c r="E265">
         <v>1150</v>
@@ -7465,7 +7929,7 @@
         <v>97.29</v>
       </c>
       <c r="D266">
-        <v>74.373332450000007</v>
+        <v>677369.99995486508</v>
       </c>
       <c r="E266">
         <v>1150</v>
@@ -7491,7 +7955,7 @@
         <v>107.64</v>
       </c>
       <c r="D267">
-        <v>74.542420149999998</v>
+        <v>678910.00000015495</v>
       </c>
       <c r="E267">
         <v>1150</v>
@@ -7517,7 +7981,7 @@
         <v>109.74</v>
       </c>
       <c r="D268">
-        <v>74.704920009999995</v>
+        <v>680389.99997507688</v>
       </c>
       <c r="E268">
         <v>1150</v>
@@ -7543,7 +8007,7 @@
         <v>114.88</v>
       </c>
       <c r="D269">
-        <v>74.872909739999997</v>
+        <v>681920.00003899797</v>
       </c>
       <c r="E269">
         <v>1150</v>
@@ -7569,7 +8033,7 @@
         <v>109.64</v>
       </c>
       <c r="D270">
-        <v>75.037605540000001</v>
+        <v>683419.99997665803</v>
       </c>
       <c r="E270">
         <v>1150</v>
@@ -7595,7 +8059,7 @@
         <v>112.71</v>
       </c>
       <c r="D271">
-        <v>75.203399320000003</v>
+        <v>684929.99998676404</v>
       </c>
       <c r="E271">
         <v>1150</v>
@@ -7621,7 +8085,7 @@
         <v>118.31</v>
       </c>
       <c r="D272">
-        <v>75.369193100000004</v>
+        <v>686439.99999687006</v>
       </c>
       <c r="E272">
         <v>1150</v>
@@ -7647,7 +8111,7 @@
         <v>97.24</v>
       </c>
       <c r="D273">
-        <v>81.313336039999996</v>
+        <v>20060.000001068001</v>
       </c>
       <c r="E273">
         <v>1212</v>
@@ -7673,7 +8137,7 @@
         <v>100.32</v>
       </c>
       <c r="D274">
-        <v>81.353871100000006</v>
+        <v>20070.000000370001</v>
       </c>
       <c r="E274">
         <v>1212</v>
@@ -7699,7 +8163,7 @@
         <v>102.45</v>
       </c>
       <c r="D275">
-        <v>81.272800970000006</v>
+        <v>20049.999999299002</v>
       </c>
       <c r="E275">
         <v>1212</v>
@@ -7725,7 +8189,7 @@
         <v>106.03</v>
       </c>
       <c r="D276">
-        <v>81.272800970000006</v>
+        <v>20049.999999299002</v>
       </c>
       <c r="E276">
         <v>1212</v>
@@ -7751,7 +8215,7 @@
         <v>111.58</v>
       </c>
       <c r="D277">
-        <v>79.002837450000001</v>
+        <v>19489.999998914998</v>
       </c>
       <c r="E277">
         <v>1212</v>
@@ -7777,7 +8241,7 @@
         <v>114.9</v>
       </c>
       <c r="D278">
-        <v>77.178759630000002</v>
+        <v>19040.000000721</v>
       </c>
       <c r="E278">
         <v>1212</v>
@@ -7803,7 +8267,7 @@
         <v>116.33</v>
       </c>
       <c r="D279">
-        <v>79.391974059999995</v>
+        <v>19586.000000601998</v>
       </c>
       <c r="E279">
         <v>1212</v>
@@ -7829,7 +8293,7 @@
         <v>122.56</v>
       </c>
       <c r="D280">
-        <v>81.250912040000003</v>
+        <v>20044.600000268001</v>
       </c>
       <c r="E280">
         <v>1212</v>
@@ -7855,7 +8319,7 @@
         <v>106.91</v>
       </c>
       <c r="D281">
-        <v>59.660042830000002</v>
+        <v>1114449.6000643999</v>
       </c>
       <c r="E281">
         <v>250</v>
@@ -7881,7 +8345,7 @@
         <v>85.38</v>
       </c>
       <c r="D282">
-        <v>59.823276229999998</v>
+        <v>1117498.7999764001</v>
       </c>
       <c r="E282">
         <v>250</v>
@@ -7907,7 +8371,7 @@
         <v>107.7</v>
       </c>
       <c r="D283">
-        <v>59.986509640000001</v>
+        <v>1120548.0000752001</v>
       </c>
       <c r="E283">
         <v>250</v>
@@ -7933,7 +8397,7 @@
         <v>103.42</v>
       </c>
       <c r="D284">
-        <v>60.149743039999997</v>
+        <v>1123597.1999872001</v>
       </c>
       <c r="E284">
         <v>250</v>
@@ -7959,7 +8423,7 @@
         <v>130.94</v>
       </c>
       <c r="D285">
-        <v>60.312976450000001</v>
+        <v>1126646.4000860001</v>
       </c>
       <c r="E285">
         <v>250</v>
@@ -7985,7 +8449,7 @@
         <v>122.21</v>
       </c>
       <c r="D286">
-        <v>60.312976450000001</v>
+        <v>1126646.4000860001</v>
       </c>
       <c r="E286">
         <v>250</v>
@@ -8011,7 +8475,7 @@
         <v>128.05000000000001</v>
       </c>
       <c r="D287">
-        <v>60.313083509999998</v>
+        <v>1126648.3999667999</v>
       </c>
       <c r="E287">
         <v>250</v>
@@ -8037,7 +8501,7 @@
         <v>116.62</v>
       </c>
       <c r="D288">
-        <v>60.313083509999998</v>
+        <v>1126648.3999667999</v>
       </c>
       <c r="E288">
         <v>250</v>
@@ -8063,7 +8527,7 @@
         <v>80.069999999999993</v>
       </c>
       <c r="D289">
-        <v>46.600529790000003</v>
+        <v>89720.000004687012</v>
       </c>
       <c r="E289">
         <v>686</v>
@@ -8089,7 +8553,7 @@
         <v>114.05</v>
       </c>
       <c r="D290">
-        <v>48.449592269999997</v>
+        <v>93279.999997431005</v>
       </c>
       <c r="E290">
         <v>686</v>
@@ -8115,7 +8579,7 @@
         <v>105.88</v>
       </c>
       <c r="D291">
-        <v>48.241832440000003</v>
+        <v>92879.999996732004</v>
       </c>
       <c r="E291">
         <v>686</v>
@@ -8141,7 +8605,7 @@
         <v>141.51</v>
       </c>
       <c r="D292">
-        <v>48.423622289999997</v>
+        <v>93229.999994936996</v>
       </c>
       <c r="E292">
         <v>686</v>
@@ -8167,7 +8631,7 @@
         <v>166.28</v>
       </c>
       <c r="D293">
-        <v>48.605412139999999</v>
+        <v>93579.999993142002</v>
       </c>
       <c r="E293">
         <v>686</v>
@@ -8193,7 +8657,7 @@
         <v>165.89</v>
       </c>
       <c r="D294">
-        <v>48.797589989999999</v>
+        <v>93950.000007747003</v>
       </c>
       <c r="E294">
         <v>686</v>
@@ -8219,7 +8683,7 @@
         <v>203.82</v>
       </c>
       <c r="D295">
-        <v>48.97937984</v>
+        <v>94300.00000595201</v>
       </c>
       <c r="E295">
         <v>686</v>
@@ -8245,7 +8709,7 @@
         <v>198.07</v>
       </c>
       <c r="D296">
-        <v>49.400093490000003</v>
+        <v>95109.999996297003</v>
       </c>
       <c r="E296">
         <v>686</v>
@@ -8271,7 +8735,7 @@
         <v>110.39</v>
       </c>
       <c r="D297">
-        <v>54.710446109999999</v>
+        <v>39490.000002198001</v>
       </c>
       <c r="E297">
         <v>2526</v>
@@ -8297,7 +8761,7 @@
         <v>96.14</v>
       </c>
       <c r="D298">
-        <v>54.710446109999999</v>
+        <v>39490.000002198001</v>
       </c>
       <c r="E298">
         <v>2526</v>
@@ -8323,7 +8787,7 @@
         <v>93.47</v>
       </c>
       <c r="D299">
-        <v>54.710446109999999</v>
+        <v>39490.000002198001</v>
       </c>
       <c r="E299">
         <v>2526</v>
@@ -8349,7 +8813,7 @@
         <v>83.94</v>
       </c>
       <c r="D300">
-        <v>54.710446109999999</v>
+        <v>39490.000002198001</v>
       </c>
       <c r="E300">
         <v>2526</v>
@@ -8375,7 +8839,7 @@
         <v>89</v>
       </c>
       <c r="D301">
-        <v>54.710446109999999</v>
+        <v>39490.000002198001</v>
       </c>
       <c r="E301">
         <v>2526</v>
@@ -8401,7 +8865,7 @@
         <v>77.42</v>
       </c>
       <c r="D302">
-        <v>54.710446109999999</v>
+        <v>39490.000002198001</v>
       </c>
       <c r="E302">
         <v>2526</v>
@@ -8427,7 +8891,7 @@
         <v>91.15</v>
       </c>
       <c r="D303">
-        <v>54.710446109999999</v>
+        <v>39490.000002198001</v>
       </c>
       <c r="E303">
         <v>2526</v>
@@ -8453,7 +8917,7 @@
         <v>133.47</v>
       </c>
       <c r="D304">
-        <v>54.710446109999999</v>
+        <v>39490.000002198001</v>
       </c>
       <c r="E304">
         <v>2526</v>
@@ -8479,7 +8943,7 @@
         <v>101.08</v>
       </c>
       <c r="D305">
-        <v>70.33825358</v>
+        <v>441260.00000877201</v>
       </c>
       <c r="E305">
         <v>282</v>
@@ -8505,7 +8969,7 @@
         <v>105.5</v>
       </c>
       <c r="D306">
-        <v>70.33825358</v>
+        <v>441260.00000877201</v>
       </c>
       <c r="E306">
         <v>282</v>
@@ -8531,7 +8995,7 @@
         <v>93.42</v>
       </c>
       <c r="D307">
-        <v>70.33825358</v>
+        <v>441260.00000877201</v>
       </c>
       <c r="E307">
         <v>282</v>
@@ -8557,7 +9021,7 @@
         <v>101.67</v>
       </c>
       <c r="D308">
-        <v>70.33825358</v>
+        <v>441260.00000877201</v>
       </c>
       <c r="E308">
         <v>282</v>
@@ -8583,7 +9047,7 @@
         <v>105.58</v>
       </c>
       <c r="D309">
-        <v>70.33825358</v>
+        <v>441260.00000877201</v>
       </c>
       <c r="E309">
         <v>282</v>
@@ -8609,7 +9073,7 @@
         <v>102.53</v>
       </c>
       <c r="D310">
-        <v>70.339847610000007</v>
+        <v>441269.99999657407</v>
       </c>
       <c r="E310">
         <v>282</v>
@@ -8635,7 +9099,7 @@
         <v>100.95</v>
       </c>
       <c r="D311">
-        <v>70.341441639999999</v>
+        <v>441279.99998437602</v>
       </c>
       <c r="E311">
         <v>282</v>
@@ -8661,7 +9125,7 @@
         <v>101.06</v>
       </c>
       <c r="D312">
-        <v>70.343035670000006</v>
+        <v>441289.99997217802</v>
       </c>
       <c r="E312">
         <v>282</v>
@@ -8687,7 +9151,7 @@
         <v>98.25</v>
       </c>
       <c r="D313">
-        <v>44.984946909999998</v>
+        <v>284273.37500836299</v>
       </c>
       <c r="E313">
         <v>900</v>
@@ -8713,7 +9177,7 @@
         <v>103.33</v>
       </c>
       <c r="D314">
-        <v>44.929106070000003</v>
+        <v>283920.49998815102</v>
       </c>
       <c r="E314">
         <v>900</v>
@@ -8739,7 +9203,7 @@
         <v>98.41</v>
       </c>
       <c r="D315">
-        <v>44.873265240000002</v>
+        <v>283567.62503113202</v>
       </c>
       <c r="E315">
         <v>900</v>
@@ -8765,7 +9229,7 @@
         <v>96.58</v>
       </c>
       <c r="D316">
-        <v>44.8174244</v>
+        <v>283214.75001091999</v>
       </c>
       <c r="E316">
         <v>900</v>
@@ -8791,7 +9255,7 @@
         <v>101.12</v>
       </c>
       <c r="D317">
-        <v>44.705742720000003</v>
+        <v>282508.99997049611</v>
       </c>
       <c r="E317">
         <v>900</v>
@@ -8817,7 +9281,7 @@
         <v>106.95</v>
       </c>
       <c r="D318">
-        <v>44.705742720000003</v>
+        <v>282508.99997049611</v>
       </c>
       <c r="E318">
         <v>900</v>
@@ -8843,7 +9307,7 @@
         <v>110.85</v>
       </c>
       <c r="D319">
-        <v>44.70542623</v>
+        <v>282506.99997523898</v>
       </c>
       <c r="E319">
         <v>900</v>
@@ -8869,7 +9333,7 @@
         <v>112.4</v>
       </c>
       <c r="D320">
-        <v>44.708591140000003</v>
+        <v>282526.99999100203</v>
       </c>
       <c r="E320">
         <v>900</v>
@@ -8895,7 +9359,7 @@
         <v>106.54</v>
       </c>
       <c r="D321">
-        <v>38.541666669999998</v>
+        <v>370.00000003199989</v>
       </c>
       <c r="E321">
         <v>3200</v>
@@ -8921,7 +9385,7 @@
         <v>88.87</v>
       </c>
       <c r="D322">
-        <v>38.541666669999998</v>
+        <v>370.00000003199989</v>
       </c>
       <c r="E322">
         <v>3200</v>
@@ -8947,7 +9411,7 @@
         <v>104.59</v>
       </c>
       <c r="D323">
-        <v>41.666666669999998</v>
+        <v>400.00000003199989</v>
       </c>
       <c r="E323">
         <v>3200</v>
@@ -8973,7 +9437,7 @@
         <v>110.39</v>
       </c>
       <c r="D324">
-        <v>42.708333330000002</v>
+        <v>409.99999996800011</v>
       </c>
       <c r="E324">
         <v>3200</v>
@@ -8999,7 +9463,7 @@
         <v>106.57</v>
       </c>
       <c r="D325">
-        <v>43.75</v>
+        <v>420</v>
       </c>
       <c r="E325">
         <v>3200</v>
@@ -9025,7 +9489,7 @@
         <v>106.22</v>
       </c>
       <c r="D326">
-        <v>43.75</v>
+        <v>420</v>
       </c>
       <c r="E326">
         <v>3200</v>
@@ -9051,7 +9515,7 @@
         <v>105.73</v>
       </c>
       <c r="D327">
-        <v>43.75</v>
+        <v>420</v>
       </c>
       <c r="E327">
         <v>3200</v>
@@ -9077,7 +9541,7 @@
         <v>106.25</v>
       </c>
       <c r="D328">
-        <v>43.75</v>
+        <v>420</v>
       </c>
       <c r="E328">
         <v>3200</v>
@@ -9103,7 +9567,7 @@
         <v>101.71</v>
       </c>
       <c r="D329">
-        <v>70.697674419999998</v>
+        <v>12160.000000239999</v>
       </c>
       <c r="E329">
         <v>788</v>
@@ -9129,7 +9593,7 @@
         <v>100.11</v>
       </c>
       <c r="D330">
-        <v>70.465116280000004</v>
+        <v>12120.00000016</v>
       </c>
       <c r="E330">
         <v>788</v>
@@ -9155,7 +9619,7 @@
         <v>98.18</v>
       </c>
       <c r="D331">
-        <v>70.232558139999995</v>
+        <v>12080.000000079999</v>
       </c>
       <c r="E331">
         <v>788</v>
@@ -9181,7 +9645,7 @@
         <v>102.14</v>
       </c>
       <c r="D332">
-        <v>70</v>
+        <v>12040</v>
       </c>
       <c r="E332">
         <v>788</v>
@@ -9207,7 +9671,7 @@
         <v>104.89</v>
       </c>
       <c r="D333">
-        <v>69.825581400000004</v>
+        <v>12010.000000800001</v>
       </c>
       <c r="E333">
         <v>788</v>
@@ -9233,7 +9697,7 @@
         <v>106.06</v>
       </c>
       <c r="D334">
-        <v>69.593023259999995</v>
+        <v>11970.00000072</v>
       </c>
       <c r="E334">
         <v>788</v>
@@ -9259,7 +9723,7 @@
         <v>105.5</v>
       </c>
       <c r="D335">
-        <v>69.476744190000005</v>
+        <v>11950.00000068</v>
       </c>
       <c r="E335">
         <v>788</v>
@@ -9285,7 +9749,7 @@
         <v>105.66</v>
       </c>
       <c r="D336">
-        <v>69.476744190000005</v>
+        <v>11950.00000068</v>
       </c>
       <c r="E336">
         <v>788</v>
@@ -9311,7 +9775,7 @@
         <v>100.74</v>
       </c>
       <c r="D337">
-        <v>39.89517154</v>
+        <v>502360.00003167999</v>
       </c>
       <c r="E337">
         <v>322</v>
@@ -9337,7 +9801,7 @@
         <v>92.45</v>
       </c>
       <c r="D338">
-        <v>39.895965689999997</v>
+        <v>502369.99996848003</v>
       </c>
       <c r="E338">
         <v>322</v>
@@ -9363,7 +9827,7 @@
         <v>106.81</v>
       </c>
       <c r="D339">
-        <v>39.976175349999998</v>
+        <v>503380.00000719988</v>
       </c>
       <c r="E339">
         <v>322</v>
@@ -9389,7 +9853,7 @@
         <v>98.37</v>
       </c>
       <c r="D340">
-        <v>39.976175349999998</v>
+        <v>503380.00000719988</v>
       </c>
       <c r="E340">
         <v>322</v>
@@ -9415,7 +9879,7 @@
         <v>103.38</v>
       </c>
       <c r="D341">
-        <v>39.976175349999998</v>
+        <v>503380.00000719988</v>
       </c>
       <c r="E341">
         <v>322</v>
@@ -9441,7 +9905,7 @@
         <v>109.83</v>
       </c>
       <c r="D342">
-        <v>39.976175349999998</v>
+        <v>503380.00000719988</v>
       </c>
       <c r="E342">
         <v>322</v>
@@ -9467,7 +9931,7 @@
         <v>105.9</v>
       </c>
       <c r="D343">
-        <v>39.976175349999998</v>
+        <v>503380.00000719988</v>
       </c>
       <c r="E343">
         <v>322</v>
@@ -9493,7 +9957,7 @@
         <v>101.49</v>
       </c>
       <c r="D344">
-        <v>39.976175349999998</v>
+        <v>503380.00000719988</v>
       </c>
       <c r="E344">
         <v>322</v>
@@ -9519,7 +9983,7 @@
         <v>102.38</v>
       </c>
       <c r="D345">
-        <v>70.233498800000007</v>
+        <v>38199.999997320003</v>
       </c>
       <c r="E345">
         <v>1168</v>
@@ -9545,7 +10009,7 @@
         <v>97.1</v>
       </c>
       <c r="D346">
-        <v>70.233498800000007</v>
+        <v>38199.999997320003</v>
       </c>
       <c r="E346">
         <v>1168</v>
@@ -9571,7 +10035,7 @@
         <v>100.52</v>
       </c>
       <c r="D347">
-        <v>70.233498800000007</v>
+        <v>38199.999997320003</v>
       </c>
       <c r="E347">
         <v>1168</v>
@@ -9597,7 +10061,7 @@
         <v>105.63</v>
       </c>
       <c r="D348">
-        <v>70.233498800000007</v>
+        <v>38199.999997320003</v>
       </c>
       <c r="E348">
         <v>1168</v>
@@ -9623,7 +10087,7 @@
         <v>111.28</v>
       </c>
       <c r="D349">
-        <v>70.233498800000007</v>
+        <v>38199.999997320003</v>
       </c>
       <c r="E349">
         <v>1168</v>
@@ -9649,7 +10113,7 @@
         <v>112.96</v>
       </c>
       <c r="D350">
-        <v>70.233498800000007</v>
+        <v>38199.999997320003</v>
       </c>
       <c r="E350">
         <v>1168</v>
@@ -9675,7 +10139,7 @@
         <v>112.72</v>
       </c>
       <c r="D351">
-        <v>70.233498800000007</v>
+        <v>38199.999997320003</v>
       </c>
       <c r="E351">
         <v>1168</v>
@@ -9701,7 +10165,7 @@
         <v>115.76</v>
       </c>
       <c r="D352">
-        <v>70.233498800000007</v>
+        <v>38199.999997320003</v>
       </c>
       <c r="E352">
         <v>1168</v>
@@ -9727,7 +10191,7 @@
         <v>86.95</v>
       </c>
       <c r="D353">
-        <v>62.828269820000003</v>
+        <v>97609.999992351994</v>
       </c>
       <c r="E353">
         <v>207</v>
@@ -9753,7 +10217,7 @@
         <v>119.87</v>
       </c>
       <c r="D354">
-        <v>63.298146240000001</v>
+        <v>98339.999998464002</v>
       </c>
       <c r="E354">
         <v>207</v>
@@ -9779,7 +10243,7 @@
         <v>93.18</v>
       </c>
       <c r="D355">
-        <v>62.45236869</v>
+        <v>97025.999996783998</v>
       </c>
       <c r="E355">
         <v>207</v>
@@ -9805,7 +10269,7 @@
         <v>90.71</v>
       </c>
       <c r="D356">
-        <v>62.711766220000001</v>
+        <v>97428.999999391992</v>
       </c>
       <c r="E356">
         <v>207</v>
@@ -9831,7 +10295,7 @@
         <v>118.98</v>
       </c>
       <c r="D357">
-        <v>62.438851700000001</v>
+        <v>97005.000001120003</v>
       </c>
       <c r="E357">
         <v>207</v>
@@ -9857,7 +10321,7 @@
         <v>106.36</v>
       </c>
       <c r="D358">
-        <v>62.438851700000001</v>
+        <v>97005.000001120003</v>
       </c>
       <c r="E358">
         <v>207</v>
@@ -9883,7 +10347,7 @@
         <v>131.04</v>
       </c>
       <c r="D359">
-        <v>62.438851700000001</v>
+        <v>97005.000001120003</v>
       </c>
       <c r="E359">
         <v>207</v>
@@ -9909,7 +10373,7 @@
         <v>102.89</v>
       </c>
       <c r="D360">
-        <v>62.438851700000001</v>
+        <v>97005.000001120003</v>
       </c>
       <c r="E360">
         <v>207</v>
@@ -9935,7 +10399,7 @@
         <v>99.52</v>
       </c>
       <c r="D361">
-        <v>43.17927297</v>
+        <v>382481.99996826</v>
       </c>
       <c r="E361">
         <v>1071</v>
@@ -9961,7 +10425,7 @@
         <v>104.21</v>
       </c>
       <c r="D362">
-        <v>43.418943329999998</v>
+        <v>384605.00001714</v>
       </c>
       <c r="E362">
         <v>1071</v>
@@ -9987,7 +10451,7 @@
         <v>96.27</v>
       </c>
       <c r="D363">
-        <v>43.658613680000002</v>
+        <v>386727.99997743999</v>
       </c>
       <c r="E363">
         <v>1071</v>
@@ -10013,7 +10477,7 @@
         <v>93.64</v>
       </c>
       <c r="D364">
-        <v>43.89828404</v>
+        <v>388851.00002631999</v>
       </c>
       <c r="E364">
         <v>1071</v>
@@ -10039,7 +10503,7 @@
         <v>99.97</v>
       </c>
       <c r="D365">
-        <v>44.137954389999997</v>
+        <v>390973.99998661992</v>
       </c>
       <c r="E365">
         <v>1071</v>
@@ -10065,7 +10529,7 @@
         <v>101.22</v>
       </c>
       <c r="D366">
-        <v>44.377624750000003</v>
+        <v>393097.00003549998</v>
       </c>
       <c r="E366">
         <v>1071</v>
@@ -10091,7 +10555,7 @@
         <v>106.51</v>
       </c>
       <c r="D367">
-        <v>44.616391960000001</v>
+        <v>395211.99998168001</v>
       </c>
       <c r="E367">
         <v>1071</v>
@@ -10117,7 +10581,7 @@
         <v>104.72</v>
       </c>
       <c r="D368">
-        <v>44.616391960000001</v>
+        <v>395211.99998168001</v>
       </c>
       <c r="E368">
         <v>1071</v>
@@ -10143,7 +10607,7 @@
         <v>103.15</v>
       </c>
       <c r="D369">
-        <v>71.88809096</v>
+        <v>144149.999992992</v>
       </c>
       <c r="E369">
         <v>1180</v>
@@ -10169,7 +10633,7 @@
         <v>104.94</v>
       </c>
       <c r="D370">
-        <v>71.88809096</v>
+        <v>144149.999992992</v>
       </c>
       <c r="E370">
         <v>1180</v>
@@ -10195,7 +10659,7 @@
         <v>91.92</v>
       </c>
       <c r="D371">
-        <v>71.88809096</v>
+        <v>144149.999992992</v>
       </c>
       <c r="E371">
         <v>1180</v>
@@ -10221,7 +10685,7 @@
         <v>105.08</v>
       </c>
       <c r="D372">
-        <v>71.88809096</v>
+        <v>144149.999992992</v>
       </c>
       <c r="E372">
         <v>1180</v>
@@ -10247,7 +10711,7 @@
         <v>103.86</v>
       </c>
       <c r="D373">
-        <v>71.88809096</v>
+        <v>144149.999992992</v>
       </c>
       <c r="E373">
         <v>1180</v>
@@ -10273,7 +10737,7 @@
         <v>122.78</v>
       </c>
       <c r="D374">
-        <v>71.88809096</v>
+        <v>144149.999992992</v>
       </c>
       <c r="E374">
         <v>1180</v>
@@ -10299,7 +10763,7 @@
         <v>153.38</v>
       </c>
       <c r="D375">
-        <v>71.88809096</v>
+        <v>144149.999992992</v>
       </c>
       <c r="E375">
         <v>1180</v>
@@ -10325,7 +10789,7 @@
         <v>169.72</v>
       </c>
       <c r="D376">
-        <v>71.88809096</v>
+        <v>144149.999992992</v>
       </c>
       <c r="E376">
         <v>1180</v>
@@ -10351,7 +10815,7 @@
         <v>107.89</v>
       </c>
       <c r="D377">
-        <v>79.417850279999996</v>
+        <v>963409.99996165198</v>
       </c>
       <c r="E377">
         <v>495</v>
@@ -10377,7 +10841,7 @@
         <v>100.68</v>
       </c>
       <c r="D378">
-        <v>79.417850279999996</v>
+        <v>963409.99996165198</v>
       </c>
       <c r="E378">
         <v>495</v>
@@ -10403,7 +10867,7 @@
         <v>91.43</v>
       </c>
       <c r="D379">
-        <v>79.417850279999996</v>
+        <v>963409.99996165198</v>
       </c>
       <c r="E379">
         <v>495</v>
@@ -10429,7 +10893,7 @@
         <v>117.28</v>
       </c>
       <c r="D380">
-        <v>79.417850279999996</v>
+        <v>963409.99996165198</v>
       </c>
       <c r="E380">
         <v>495</v>
@@ -10455,7 +10919,7 @@
         <v>111.94</v>
       </c>
       <c r="D381">
-        <v>79.417850279999996</v>
+        <v>963409.99996165198</v>
       </c>
       <c r="E381">
         <v>495</v>
@@ -10481,7 +10945,7 @@
         <v>106.95</v>
       </c>
       <c r="D382">
-        <v>79.417850279999996</v>
+        <v>963409.99996165198</v>
       </c>
       <c r="E382">
         <v>495</v>
@@ -10507,7 +10971,7 @@
         <v>119.28</v>
       </c>
       <c r="D383">
-        <v>79.417850279999996</v>
+        <v>963409.99996165198</v>
       </c>
       <c r="E383">
         <v>495</v>
@@ -10533,7 +10997,7 @@
         <v>125.16</v>
       </c>
       <c r="D384">
-        <v>79.417850279999996</v>
+        <v>963409.99996165198</v>
       </c>
       <c r="E384">
         <v>495</v>
@@ -10559,7 +11023,7 @@
         <v>102.67</v>
       </c>
       <c r="D385">
-        <v>31.932094859999999</v>
+        <v>237379.99997975401</v>
       </c>
       <c r="E385">
         <v>1020</v>
@@ -10585,7 +11049,7 @@
         <v>91.35</v>
       </c>
       <c r="D386">
-        <v>31.933440050000002</v>
+        <v>237389.99998769499</v>
       </c>
       <c r="E386">
         <v>1020</v>
@@ -10611,7 +11075,7 @@
         <v>105.97</v>
       </c>
       <c r="D387">
-        <v>31.933440050000002</v>
+        <v>237389.99998769499</v>
       </c>
       <c r="E387">
         <v>1020</v>
@@ -10637,7 +11101,7 @@
         <v>128.94</v>
       </c>
       <c r="D388">
-        <v>32.067958939999997</v>
+        <v>238389.999964066</v>
       </c>
       <c r="E388">
         <v>1020</v>
@@ -10663,7 +11127,7 @@
         <v>117.61</v>
       </c>
       <c r="D389">
-        <v>32.067958939999997</v>
+        <v>238389.999964066</v>
       </c>
       <c r="E389">
         <v>1020</v>
@@ -10689,7 +11153,7 @@
         <v>107.69</v>
       </c>
       <c r="D390">
-        <v>32.067958939999997</v>
+        <v>238389.999964066</v>
       </c>
       <c r="E390">
         <v>1020</v>
@@ -10715,7 +11179,7 @@
         <v>129.22</v>
       </c>
       <c r="D391">
-        <v>32.067958939999997</v>
+        <v>238389.999964066</v>
       </c>
       <c r="E391">
         <v>1020</v>
@@ -10741,7 +11205,7 @@
         <v>136.31</v>
       </c>
       <c r="D392">
-        <v>32.067958939999997</v>
+        <v>238389.999964066</v>
       </c>
       <c r="E392">
         <v>1020</v>
@@ -10767,7 +11231,7 @@
         <v>109.52</v>
       </c>
       <c r="D393">
-        <v>41.876696389999999</v>
+        <v>161999.99998471499</v>
       </c>
       <c r="E393">
         <v>657</v>
@@ -10793,7 +11257,7 @@
         <v>96.35</v>
       </c>
       <c r="D394">
-        <v>41.876696389999999</v>
+        <v>161999.99998471499</v>
       </c>
       <c r="E394">
         <v>657</v>
@@ -10819,7 +11283,7 @@
         <v>94.14</v>
       </c>
       <c r="D395">
-        <v>41.876696389999999</v>
+        <v>161999.99998471499</v>
       </c>
       <c r="E395">
         <v>657</v>
@@ -10845,7 +11309,7 @@
         <v>107.07</v>
       </c>
       <c r="D396">
-        <v>41.876696389999999</v>
+        <v>161999.99998471499</v>
       </c>
       <c r="E396">
         <v>657</v>
@@ -10871,7 +11335,7 @@
         <v>135.97999999999999</v>
       </c>
       <c r="D397">
-        <v>41.876696389999999</v>
+        <v>161999.99998471499</v>
       </c>
       <c r="E397">
         <v>657</v>
@@ -10897,7 +11361,7 @@
         <v>104.29</v>
       </c>
       <c r="D398">
-        <v>41.876696389999999</v>
+        <v>161999.99998471499</v>
       </c>
       <c r="E398">
         <v>657</v>
@@ -10923,7 +11387,7 @@
         <v>127.77</v>
       </c>
       <c r="D399">
-        <v>41.876696389999999</v>
+        <v>161999.99998471499</v>
       </c>
       <c r="E399">
         <v>657</v>
@@ -10949,7 +11413,7 @@
         <v>129.97</v>
       </c>
       <c r="D400">
-        <v>41.876696389999999</v>
+        <v>161999.99998471499</v>
       </c>
       <c r="E400">
         <v>657</v>

--- a/output/aggregrated.xlsx
+++ b/output/aggregrated.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I194"/>
+  <dimension ref="A1:G161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6016 +451,4023 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2. Energy use in agriculture</t>
+          <t>5. Average precipitation in depth (mm per year)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>5. Average precipitation in depth (mm per year)</t>
+          <t>13. Population</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>13. Population</t>
+          <t>19. Fertilizers by Nutrient (nitrogen N)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>15. GDP per capita, PPP (current international $)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
           <t>20. Agriculture land area (sq. km)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>22. Fertilizer consumption (kilograms)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BDI</t>
+          <t>AGO</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>2014</v>
       </c>
       <c r="C2" t="n">
-        <v>5628</v>
+        <v>7638880</v>
       </c>
       <c r="D2" t="n">
-        <v>42.2185</v>
+        <v>1010</v>
       </c>
       <c r="E2" t="n">
-        <v>1274</v>
+        <v>27128337</v>
       </c>
       <c r="F2" t="n">
-        <v>10494913</v>
+        <v>27612.52</v>
       </c>
       <c r="G2" t="n">
-        <v>745.402665408479</v>
-      </c>
-      <c r="H2" t="n">
-        <v>19139.999999904</v>
-      </c>
-      <c r="I2" t="n">
-        <v>12978170.00208</v>
+        <v>456740.00005361</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BDI</t>
+          <t>AGO</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2015</v>
       </c>
       <c r="C3" t="n">
-        <v>6655.66</v>
+        <v>7727413</v>
       </c>
       <c r="D3" t="n">
-        <v>44.8173</v>
+        <v>1010</v>
       </c>
       <c r="E3" t="n">
-        <v>1274</v>
+        <v>28127721</v>
       </c>
       <c r="F3" t="n">
-        <v>10727148</v>
+        <v>25494.28</v>
       </c>
       <c r="G3" t="n">
-        <v>821.246254708968</v>
-      </c>
-      <c r="H3" t="n">
-        <v>19410.00000012</v>
-      </c>
-      <c r="I3" t="n">
-        <v>10003500.000124</v>
+        <v>457890.00001745</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BDI</t>
+          <t>AGO</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>2016</v>
       </c>
       <c r="C4" t="n">
-        <v>7980</v>
+        <v>7921225</v>
       </c>
       <c r="D4" t="n">
-        <v>32.4282</v>
+        <v>1010</v>
       </c>
       <c r="E4" t="n">
-        <v>1274</v>
+        <v>29154746</v>
       </c>
       <c r="F4" t="n">
-        <v>10903327</v>
+        <v>20776.77</v>
       </c>
       <c r="G4" t="n">
-        <v>795.785995768452</v>
-      </c>
-      <c r="H4" t="n">
-        <v>19680.000000336</v>
-      </c>
-      <c r="I4" t="n">
-        <v>17299569.99515</v>
+        <v>458239.99994682</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BDI</t>
+          <t>AGO</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>2017</v>
       </c>
       <c r="C5" t="n">
-        <v>8060</v>
+        <v>8326745</v>
       </c>
       <c r="D5" t="n">
-        <v>29.6491</v>
+        <v>1010</v>
       </c>
       <c r="E5" t="n">
-        <v>1274</v>
+        <v>30208628</v>
       </c>
       <c r="F5" t="n">
-        <v>11155593</v>
+        <v>26714.79</v>
       </c>
       <c r="G5" t="n">
-        <v>785.233394653441</v>
-      </c>
-      <c r="H5" t="n">
-        <v>19950.000000552</v>
-      </c>
-      <c r="I5" t="n">
-        <v>21301950.00332</v>
+        <v>457720.00000545</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BDI</t>
+          <t>AGO</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>2018</v>
       </c>
       <c r="C6" t="n">
-        <v>22751</v>
+        <v>8730517</v>
       </c>
       <c r="D6" t="n">
-        <v>36.656</v>
+        <v>1010</v>
       </c>
       <c r="E6" t="n">
-        <v>1274</v>
+        <v>31273533</v>
       </c>
       <c r="F6" t="n">
-        <v>11493472</v>
+        <v>21644.96</v>
       </c>
       <c r="G6" t="n">
-        <v>777.446972175959</v>
-      </c>
-      <c r="H6" t="n">
-        <v>20220.000000768</v>
-      </c>
-      <c r="I6" t="n">
-        <v>28537110.00284</v>
+        <v>457919.9999829</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BDI</t>
+          <t>AGO</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>2019</v>
       </c>
       <c r="C7" t="n">
-        <v>4894</v>
+        <v>9000432</v>
       </c>
       <c r="D7" t="n">
-        <v>38.3391</v>
+        <v>1010</v>
       </c>
       <c r="E7" t="n">
-        <v>1274</v>
+        <v>32353588</v>
       </c>
       <c r="F7" t="n">
-        <v>11874838</v>
+        <v>16827.74</v>
       </c>
       <c r="G7" t="n">
-        <v>804.165344064637</v>
-      </c>
-      <c r="H7" t="n">
-        <v>20490.000000984</v>
-      </c>
-      <c r="I7" t="n">
-        <v>24224439.99552</v>
+        <v>458770.0000429</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BDI</t>
+          <t>AGO</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>2020</v>
       </c>
       <c r="C8" t="n">
-        <v>8630.969999999999</v>
+        <v>9592870</v>
       </c>
       <c r="D8" t="n">
-        <v>36.1569</v>
+        <v>1010</v>
       </c>
       <c r="E8" t="n">
-        <v>1274</v>
+        <v>33428486</v>
       </c>
       <c r="F8" t="n">
-        <v>12220227</v>
+        <v>23881.08</v>
       </c>
       <c r="G8" t="n">
-        <v>812.055172967895</v>
-      </c>
-      <c r="H8" t="n">
-        <v>20760.0000012</v>
-      </c>
-      <c r="I8" t="n">
-        <v>24224440.00438</v>
+        <v>458919.99999482</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BDI</t>
+          <t>AGO</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>2021</v>
       </c>
       <c r="C9" t="n">
-        <v>8872.77</v>
+        <v>9866553</v>
       </c>
       <c r="D9" t="n">
-        <v>15.0273</v>
+        <v>1010</v>
       </c>
       <c r="E9" t="n">
-        <v>1274</v>
+        <v>34503774</v>
       </c>
       <c r="F9" t="n">
-        <v>12551213</v>
+        <v>17203.77</v>
       </c>
       <c r="G9" t="n">
-        <v>864.280732749477</v>
-      </c>
-      <c r="H9" t="n">
-        <v>21029.999998848</v>
-      </c>
-      <c r="I9" t="n">
-        <v>24224439.994</v>
+        <v>458970.00002035</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BWA</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>2014</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>4066710.54</v>
       </c>
       <c r="D10" t="n">
-        <v>637.2</v>
+        <v>1039</v>
       </c>
       <c r="E10" t="n">
-        <v>416</v>
+        <v>10614844</v>
       </c>
       <c r="F10" t="n">
-        <v>2260376</v>
+        <v>14764.21</v>
       </c>
       <c r="G10" t="n">
-        <v>14417.0132080037</v>
-      </c>
-      <c r="H10" t="n">
-        <v>260039.999992896</v>
-      </c>
-      <c r="I10" t="n">
-        <v>23252999.99916</v>
+        <v>39500.000004104</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BWA</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>2015</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>3420665</v>
       </c>
       <c r="D11" t="n">
-        <v>644.4</v>
+        <v>1039</v>
       </c>
       <c r="E11" t="n">
-        <v>416</v>
+        <v>10932783</v>
       </c>
       <c r="F11" t="n">
-        <v>2305171</v>
+        <v>184.86</v>
       </c>
       <c r="G11" t="n">
-        <v>13518.4848638657</v>
-      </c>
-      <c r="H11" t="n">
-        <v>258616.000021077</v>
-      </c>
-      <c r="I11" t="n">
-        <v>17142150.001284</v>
+        <v>39500.000004104</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BWA</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>2016</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>3892287.41</v>
       </c>
       <c r="D12" t="n">
-        <v>691.2</v>
+        <v>1039</v>
       </c>
       <c r="E12" t="n">
-        <v>416</v>
+        <v>11260085</v>
       </c>
       <c r="F12" t="n">
-        <v>2352416</v>
+        <v>14183.61</v>
       </c>
       <c r="G12" t="n">
-        <v>15416.5845163403</v>
-      </c>
-      <c r="H12" t="n">
-        <v>258616.000021077</v>
-      </c>
-      <c r="I12" t="n">
-        <v>12180850.000132</v>
+        <v>39500.000004104</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BWA</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>2017</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>3959450.03</v>
       </c>
       <c r="D13" t="n">
-        <v>673.2</v>
+        <v>1039</v>
       </c>
       <c r="E13" t="n">
-        <v>416</v>
+        <v>11596779</v>
       </c>
       <c r="F13" t="n">
-        <v>2401840</v>
+        <v>45.91</v>
       </c>
       <c r="G13" t="n">
-        <v>14817.5712768034</v>
-      </c>
-      <c r="H13" t="n">
-        <v>258616.000021077</v>
-      </c>
-      <c r="I13" t="n">
-        <v>8614489.99972</v>
+        <v>39500.000004104</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BWA</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>2018</v>
       </c>
       <c r="C14" t="n">
-        <v>1212</v>
+        <v>3819804.45</v>
       </c>
       <c r="D14" t="n">
-        <v>684</v>
+        <v>1039</v>
       </c>
       <c r="E14" t="n">
-        <v>416</v>
+        <v>11940683</v>
       </c>
       <c r="F14" t="n">
-        <v>2451409</v>
+        <v>48067.22</v>
       </c>
       <c r="G14" t="n">
-        <v>14805.2916256042</v>
-      </c>
-      <c r="H14" t="n">
-        <v>258616.000021077</v>
-      </c>
-      <c r="I14" t="n">
-        <v>15116660.000992</v>
+        <v>39500.000004104</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BWA</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>2019</v>
       </c>
       <c r="C15" t="n">
-        <v>377</v>
+        <v>4525450</v>
       </c>
       <c r="D15" t="n">
-        <v>677.1420000000001</v>
+        <v>1039</v>
       </c>
       <c r="E15" t="n">
-        <v>416</v>
+        <v>12290444</v>
       </c>
       <c r="F15" t="n">
-        <v>2499702</v>
+        <v>75342.39999999999</v>
       </c>
       <c r="G15" t="n">
-        <v>14889.8073026521</v>
-      </c>
-      <c r="H15" t="n">
-        <v>258620.000001417</v>
-      </c>
-      <c r="I15" t="n">
-        <v>13335689.9988</v>
+        <v>39500.000004104</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BWA</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>2020</v>
       </c>
       <c r="C16" t="n">
-        <v>1028.1</v>
+        <v>4161659.98</v>
       </c>
       <c r="D16" t="n">
-        <v>696.4272</v>
+        <v>1039</v>
       </c>
       <c r="E16" t="n">
-        <v>416</v>
+        <v>12643123</v>
       </c>
       <c r="F16" t="n">
-        <v>2546402</v>
+        <v>56309.22</v>
       </c>
       <c r="G16" t="n">
-        <v>14208.2701553477</v>
-      </c>
-      <c r="H16" t="n">
-        <v>258620.000001417</v>
-      </c>
-      <c r="I16" t="n">
-        <v>17210599.9988</v>
+        <v>39500.000004104</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BWA</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>2021</v>
       </c>
       <c r="C17" t="n">
-        <v>1280</v>
+        <v>4218991.63</v>
       </c>
       <c r="D17" t="n">
-        <v>696.4272</v>
+        <v>1039</v>
       </c>
       <c r="E17" t="n">
-        <v>416</v>
+        <v>12996895</v>
       </c>
       <c r="F17" t="n">
-        <v>2588423</v>
+        <v>57531.04</v>
       </c>
       <c r="G17" t="n">
-        <v>16663.8685441919</v>
-      </c>
-      <c r="H17" t="n">
-        <v>258620.000001417</v>
-      </c>
-      <c r="I17" t="n">
-        <v>15409319.9988</v>
+        <v>39500.000004104</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CMR</t>
+          <t>BFA</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>2014</v>
       </c>
       <c r="C18" t="n">
-        <v>850</v>
+        <v>23000</v>
       </c>
       <c r="D18" t="n">
-        <v>280.8</v>
+        <v>748</v>
       </c>
       <c r="E18" t="n">
-        <v>1604</v>
+        <v>18169842</v>
       </c>
       <c r="F18" t="n">
-        <v>22299585</v>
+        <v>48799.56</v>
       </c>
       <c r="G18" t="n">
-        <v>3385.47635257667</v>
-      </c>
-      <c r="H18" t="n">
-        <v>97499.99998437299</v>
-      </c>
-      <c r="I18" t="n">
-        <v>59650420.0008</v>
+        <v>118500.00000336</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CMR</t>
+          <t>BFA</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>2015</v>
       </c>
       <c r="C19" t="n">
-        <v>850</v>
+        <v>23000</v>
       </c>
       <c r="D19" t="n">
-        <v>208.8</v>
+        <v>748</v>
       </c>
       <c r="E19" t="n">
-        <v>1604</v>
+        <v>18718019</v>
       </c>
       <c r="F19" t="n">
-        <v>23012646</v>
+        <v>51085.61</v>
       </c>
       <c r="G19" t="n">
-        <v>3459.78024391909</v>
-      </c>
-      <c r="H19" t="n">
-        <v>97499.99998437299</v>
-      </c>
-      <c r="I19" t="n">
-        <v>84263939.972</v>
+        <v>119859.99999408</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CMR</t>
+          <t>BFA</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>2016</v>
       </c>
       <c r="C20" t="n">
-        <v>800</v>
+        <v>23000</v>
       </c>
       <c r="D20" t="n">
-        <v>198</v>
+        <v>748</v>
       </c>
       <c r="E20" t="n">
-        <v>1604</v>
+        <v>19275498</v>
       </c>
       <c r="F20" t="n">
-        <v>23711630</v>
+        <v>67638.22</v>
       </c>
       <c r="G20" t="n">
-        <v>3587.61611938417</v>
-      </c>
-      <c r="H20" t="n">
-        <v>97499.99998437299</v>
-      </c>
-      <c r="I20" t="n">
-        <v>67602459.99600001</v>
+        <v>121019.99999904</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CMR</t>
+          <t>BFA</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>2017</v>
       </c>
       <c r="C21" t="n">
-        <v>800</v>
+        <v>23000</v>
       </c>
       <c r="D21" t="n">
-        <v>212.4828</v>
+        <v>748</v>
       </c>
       <c r="E21" t="n">
-        <v>1604</v>
+        <v>19835858</v>
       </c>
       <c r="F21" t="n">
-        <v>24393181</v>
+        <v>58292.15</v>
       </c>
       <c r="G21" t="n">
-        <v>3726.5673899307</v>
-      </c>
-      <c r="H21" t="n">
-        <v>97499.99998437299</v>
-      </c>
-      <c r="I21" t="n">
-        <v>80775960.03</v>
+        <v>122170.00000608</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CMR</t>
+          <t>BFA</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>2018</v>
       </c>
       <c r="C22" t="n">
-        <v>700</v>
+        <v>17000</v>
       </c>
       <c r="D22" t="n">
-        <v>225.6084</v>
+        <v>748</v>
       </c>
       <c r="E22" t="n">
-        <v>1604</v>
+        <v>20392723</v>
       </c>
       <c r="F22" t="n">
-        <v>25076747</v>
+        <v>56654.7</v>
       </c>
       <c r="G22" t="n">
-        <v>3967.52170452195</v>
-      </c>
-      <c r="H22" t="n">
-        <v>97499.99998437299</v>
-      </c>
-      <c r="I22" t="n">
-        <v>82989039.986</v>
+        <v>124130.0000088</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CMR</t>
+          <t>BFA</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>2019</v>
       </c>
       <c r="C23" t="n">
-        <v>500</v>
+        <v>17000</v>
       </c>
       <c r="D23" t="n">
-        <v>222.8472</v>
+        <v>748</v>
       </c>
       <c r="E23" t="n">
-        <v>1604</v>
+        <v>20951639</v>
       </c>
       <c r="F23" t="n">
-        <v>25782341</v>
+        <v>30051.78</v>
       </c>
       <c r="G23" t="n">
-        <v>4195.67017521265</v>
-      </c>
-      <c r="H23" t="n">
-        <v>97499.99998437299</v>
-      </c>
-      <c r="I23" t="n">
-        <v>82989039.986</v>
+        <v>125190.0000072</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CMR</t>
+          <t>BFA</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>2020</v>
       </c>
       <c r="C24" t="n">
-        <v>437.79</v>
+        <v>17000</v>
       </c>
       <c r="D24" t="n">
-        <v>236.8512</v>
+        <v>748</v>
       </c>
       <c r="E24" t="n">
-        <v>1604</v>
+        <v>21522626</v>
       </c>
       <c r="F24" t="n">
-        <v>26491087</v>
+        <v>50466.13</v>
       </c>
       <c r="G24" t="n">
-        <v>4319.21887053939</v>
-      </c>
-      <c r="H24" t="n">
-        <v>97499.99998437299</v>
-      </c>
-      <c r="I24" t="n">
-        <v>82989039.986</v>
+        <v>126140.00000112</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CMR</t>
+          <t>BFA</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>2021</v>
       </c>
       <c r="C25" t="n">
-        <v>625.37</v>
+        <v>17073.51</v>
       </c>
       <c r="D25" t="n">
-        <v>236.8512</v>
+        <v>748</v>
       </c>
       <c r="E25" t="n">
-        <v>1604</v>
+        <v>22100683</v>
       </c>
       <c r="F25" t="n">
-        <v>27198628</v>
+        <v>42623.65</v>
       </c>
       <c r="G25" t="n">
-        <v>4741.76177028658</v>
-      </c>
-      <c r="H25" t="n">
-        <v>97499.99998437299</v>
-      </c>
-      <c r="I25" t="n">
-        <v>82989039.986</v>
+        <v>127400.00001264</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>DZA</t>
+          <t>CAF</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>2014</v>
       </c>
       <c r="C26" t="n">
-        <v>2436197</v>
+        <v>997347</v>
       </c>
       <c r="D26" t="n">
-        <v>5029.2</v>
+        <v>1343</v>
       </c>
       <c r="E26" t="n">
-        <v>89</v>
+        <v>4798734</v>
       </c>
       <c r="F26" t="n">
-        <v>38760168</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>14862.7932745547</v>
-      </c>
-      <c r="H26" t="n">
-        <v>414310.00009231</v>
-      </c>
-      <c r="I26" t="n">
-        <v>190499999.99457</v>
+        <v>49070.0000026386</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>DZA</t>
+          <t>CAF</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>2015</v>
       </c>
       <c r="C27" t="n">
-        <v>2656731</v>
+        <v>990237</v>
       </c>
       <c r="D27" t="n">
-        <v>4950</v>
+        <v>1343</v>
       </c>
       <c r="E27" t="n">
-        <v>89</v>
+        <v>4819333</v>
       </c>
       <c r="F27" t="n">
-        <v>39543154</v>
+        <v>219.25</v>
       </c>
       <c r="G27" t="n">
-        <v>13973.6882681386</v>
-      </c>
-      <c r="H27" t="n">
-        <v>414563.9999941221</v>
-      </c>
-      <c r="I27" t="n">
-        <v>175599999.964023</v>
+        <v>49070.0000026386</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>DZA</t>
+          <t>CAF</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>2016</v>
       </c>
       <c r="C28" t="n">
-        <v>2440097</v>
+        <v>1439988</v>
       </c>
       <c r="D28" t="n">
-        <v>5108.4</v>
+        <v>1343</v>
       </c>
       <c r="E28" t="n">
-        <v>89</v>
+        <v>4904177</v>
       </c>
       <c r="F28" t="n">
-        <v>40339329</v>
+        <v>210.43</v>
       </c>
       <c r="G28" t="n">
-        <v>13608.2010371415</v>
-      </c>
-      <c r="H28" t="n">
-        <v>413602.0000374279</v>
-      </c>
-      <c r="I28" t="n">
-        <v>155700000.028638</v>
+        <v>49070.0000026386</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>DZA</t>
+          <t>CAF</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>2017</v>
       </c>
       <c r="C29" t="n">
-        <v>2436503</v>
+        <v>1461120</v>
       </c>
       <c r="D29" t="n">
-        <v>5475.6</v>
+        <v>1343</v>
       </c>
       <c r="E29" t="n">
-        <v>89</v>
+        <v>4996741</v>
       </c>
       <c r="F29" t="n">
-        <v>41136546</v>
+        <v>86.18000000000001</v>
       </c>
       <c r="G29" t="n">
-        <v>13674.8741291965</v>
-      </c>
-      <c r="H29" t="n">
-        <v>413351.4080162021</v>
-      </c>
-      <c r="I29" t="n">
-        <v>155699999.9683241</v>
+        <v>49070.0000026386</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>DZA</t>
+          <t>CAF</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>2018</v>
       </c>
       <c r="C30" t="n">
-        <v>3981219.15</v>
+        <v>1519565</v>
       </c>
       <c r="D30" t="n">
-        <v>4334.4</v>
+        <v>1343</v>
       </c>
       <c r="E30" t="n">
-        <v>89</v>
+        <v>5094780</v>
       </c>
       <c r="F30" t="n">
-        <v>41927007</v>
+        <v>213.5</v>
       </c>
       <c r="G30" t="n">
-        <v>13916.3760986686</v>
-      </c>
-      <c r="H30" t="n">
-        <v>413388.4960107058</v>
-      </c>
-      <c r="I30" t="n">
-        <v>155700000.0158234</v>
+        <v>49090.0000030434</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>DZA</t>
+          <t>CAF</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>2019</v>
       </c>
       <c r="C31" t="n">
-        <v>3876876</v>
+        <v>1580347</v>
       </c>
       <c r="D31" t="n">
-        <v>4658.4</v>
+        <v>1343</v>
       </c>
       <c r="E31" t="n">
-        <v>89</v>
+        <v>5209324</v>
       </c>
       <c r="F31" t="n">
-        <v>42705368</v>
+        <v>208.73</v>
       </c>
       <c r="G31" t="n">
-        <v>14084.1995307289</v>
-      </c>
-      <c r="H31" t="n">
-        <v>413160.7101122515</v>
-      </c>
-      <c r="I31" t="n">
-        <v>155700000.037428</v>
+        <v>49090.0000030434</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DZA</t>
+          <t>CAF</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>2020</v>
       </c>
       <c r="C32" t="n">
-        <v>3106754</v>
+        <v>1031200</v>
       </c>
       <c r="D32" t="n">
-        <v>7837.2</v>
+        <v>1343</v>
       </c>
       <c r="E32" t="n">
-        <v>89</v>
+        <v>5343020</v>
       </c>
       <c r="F32" t="n">
-        <v>43451666</v>
+        <v>223.7</v>
       </c>
       <c r="G32" t="n">
-        <v>12848.7626134738</v>
-      </c>
-      <c r="H32" t="n">
-        <v>413160.7101122515</v>
-      </c>
-      <c r="I32" t="n">
-        <v>155700000.037428</v>
+        <v>49090.0000030434</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DZA</t>
+          <t>CAF</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>2021</v>
       </c>
       <c r="C33" t="n">
-        <v>2168386</v>
+        <v>1062100</v>
       </c>
       <c r="D33" t="n">
-        <v>7837.2</v>
+        <v>1343</v>
       </c>
       <c r="E33" t="n">
-        <v>89</v>
+        <v>5457154</v>
       </c>
       <c r="F33" t="n">
-        <v>44177969</v>
+        <v>223.7</v>
       </c>
       <c r="G33" t="n">
-        <v>14690.9162300571</v>
-      </c>
-      <c r="H33" t="n">
-        <v>413160.7101122515</v>
-      </c>
-      <c r="I33" t="n">
-        <v>155700000.037428</v>
+        <v>49099.99999701601</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>EGY</t>
+          <t>CMR</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>2014</v>
       </c>
       <c r="C34" t="n">
-        <v>8800000</v>
+        <v>4500000</v>
       </c>
       <c r="D34" t="n">
-        <v>23598</v>
+        <v>1604</v>
       </c>
       <c r="E34" t="n">
-        <v>18.1</v>
+        <v>22299585</v>
       </c>
       <c r="F34" t="n">
-        <v>95592324</v>
+        <v>26009.73</v>
       </c>
       <c r="G34" t="n">
-        <v>10464.1924134677</v>
-      </c>
-      <c r="H34" t="n">
-        <v>37151.90000221</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1444099999.944014</v>
+        <v>97499.99998437299</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>EGY</t>
+          <t>CMR</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>2015</v>
       </c>
       <c r="C35" t="n">
-        <v>9607736</v>
+        <v>4500000</v>
       </c>
       <c r="D35" t="n">
-        <v>25232.4</v>
+        <v>1604</v>
       </c>
       <c r="E35" t="n">
-        <v>18.1</v>
+        <v>23012646</v>
       </c>
       <c r="F35" t="n">
-        <v>97723799</v>
+        <v>42633.41</v>
       </c>
       <c r="G35" t="n">
-        <v>11112.3736247025</v>
-      </c>
-      <c r="H35" t="n">
-        <v>37898.7709964155</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1632000000.133173</v>
+        <v>97499.99998437299</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>EGY</t>
+          <t>CMR</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>2016</v>
       </c>
       <c r="C36" t="n">
-        <v>9342538</v>
+        <v>5166736</v>
       </c>
       <c r="D36" t="n">
-        <v>26449.2</v>
+        <v>1604</v>
       </c>
       <c r="E36" t="n">
-        <v>18.1</v>
+        <v>23711630</v>
       </c>
       <c r="F36" t="n">
-        <v>99784030</v>
+        <v>39758.69</v>
       </c>
       <c r="G36" t="n">
-        <v>10864.5381900455</v>
-      </c>
-      <c r="H36" t="n">
-        <v>37337.65399837799</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1583000000.075528</v>
+        <v>97499.99998437299</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>EGY</t>
+          <t>CMR</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>2017</v>
       </c>
       <c r="C37" t="n">
-        <v>8421071</v>
+        <v>5322429.1</v>
       </c>
       <c r="D37" t="n">
-        <v>24274.8</v>
+        <v>1604</v>
       </c>
       <c r="E37" t="n">
-        <v>18.1</v>
+        <v>24393181</v>
       </c>
       <c r="F37" t="n">
-        <v>101789386</v>
+        <v>46470.08</v>
       </c>
       <c r="G37" t="n">
-        <v>11333.1184260928</v>
-      </c>
-      <c r="H37" t="n">
-        <v>38369.688000327</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1671999999.925546</v>
+        <v>97499.99998437299</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>EGY</t>
+          <t>CMR</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>2018</v>
       </c>
       <c r="C38" t="n">
-        <v>8348629</v>
+        <v>5658753.1</v>
       </c>
       <c r="D38" t="n">
-        <v>25405.2</v>
+        <v>1604</v>
       </c>
       <c r="E38" t="n">
-        <v>18.1</v>
+        <v>25076747</v>
       </c>
       <c r="F38" t="n">
-        <v>103740765</v>
+        <v>42024.56</v>
       </c>
       <c r="G38" t="n">
-        <v>12559.9651691847</v>
-      </c>
-      <c r="H38" t="n">
-        <v>38629.9999970005</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1632099999.9959</v>
+        <v>97499.99998437299</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>EGY</t>
+          <t>CMR</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>2019</v>
       </c>
       <c r="C39" t="n">
-        <v>8558807</v>
+        <v>5676050</v>
       </c>
       <c r="D39" t="n">
-        <v>27402.2892</v>
+        <v>1604</v>
       </c>
       <c r="E39" t="n">
-        <v>18.1</v>
+        <v>25782341</v>
       </c>
       <c r="F39" t="n">
-        <v>105618671</v>
+        <v>42024.56</v>
       </c>
       <c r="G39" t="n">
-        <v>13608.499714576</v>
-      </c>
-      <c r="H39" t="n">
-        <v>39219.999996697</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1624699999.8627</v>
+        <v>97499.99998437299</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>EGY</t>
+          <t>CMR</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>2020</v>
       </c>
       <c r="C40" t="n">
-        <v>9101785</v>
+        <v>5779726.5</v>
       </c>
       <c r="D40" t="n">
-        <v>27490.3776</v>
+        <v>1604</v>
       </c>
       <c r="E40" t="n">
-        <v>18.1</v>
+        <v>26491087</v>
       </c>
       <c r="F40" t="n">
-        <v>107465134</v>
+        <v>42024.56</v>
       </c>
       <c r="G40" t="n">
-        <v>15494.0788227574</v>
-      </c>
-      <c r="H40" t="n">
-        <v>39709.9999961075</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1669499999.8745</v>
+        <v>97499.99998437299</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>EGY</t>
+          <t>CMR</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>2021</v>
       </c>
       <c r="C41" t="n">
-        <v>9842410.949999999</v>
+        <v>5904383.24</v>
       </c>
       <c r="D41" t="n">
-        <v>27490.3776</v>
+        <v>1604</v>
       </c>
       <c r="E41" t="n">
-        <v>18.1</v>
+        <v>27198628</v>
       </c>
       <c r="F41" t="n">
-        <v>109262178</v>
+        <v>42024.56</v>
       </c>
       <c r="G41" t="n">
-        <v>15820.6713809388</v>
-      </c>
-      <c r="H41" t="n">
-        <v>40309.99999782351</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1669500000.1489</v>
+        <v>97499.99998437299</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>COG</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>2014</v>
       </c>
       <c r="C42" t="n">
-        <v>228900</v>
+        <v>1627000</v>
       </c>
       <c r="D42" t="n">
-        <v>176.8981</v>
+        <v>1646</v>
       </c>
       <c r="E42" t="n">
-        <v>630</v>
+        <v>4944861</v>
       </c>
       <c r="F42" t="n">
-        <v>45831863</v>
+        <v>290.4</v>
       </c>
       <c r="G42" t="n">
-        <v>3375.58456757834</v>
-      </c>
-      <c r="H42" t="n">
-        <v>276539.999983676</v>
-      </c>
-      <c r="I42" t="n">
-        <v>276838409.972</v>
+        <v>106270.0000126</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>COG</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>2015</v>
       </c>
       <c r="C43" t="n">
-        <v>238600</v>
+        <v>1626428</v>
       </c>
       <c r="D43" t="n">
-        <v>177.8228</v>
+        <v>1646</v>
       </c>
       <c r="E43" t="n">
-        <v>630</v>
+        <v>5064386</v>
       </c>
       <c r="F43" t="n">
-        <v>46851488</v>
+        <v>636.84</v>
       </c>
       <c r="G43" t="n">
-        <v>3696.9360748719</v>
-      </c>
-      <c r="H43" t="n">
-        <v>276660.000022406</v>
-      </c>
-      <c r="I43" t="n">
-        <v>225532220.016</v>
+        <v>106270.0000126</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>COG</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>2016</v>
       </c>
       <c r="C44" t="n">
-        <v>214700</v>
+        <v>1527213.51</v>
       </c>
       <c r="D44" t="n">
-        <v>182.9737</v>
+        <v>1646</v>
       </c>
       <c r="E44" t="n">
-        <v>630</v>
+        <v>5186824</v>
       </c>
       <c r="F44" t="n">
-        <v>47894670</v>
+        <v>318.76</v>
       </c>
       <c r="G44" t="n">
-        <v>3936.68976219253</v>
-      </c>
-      <c r="H44" t="n">
-        <v>276769.999986766</v>
-      </c>
-      <c r="I44" t="n">
-        <v>280616769.976</v>
+        <v>106270.0000126</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>COG</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>2017</v>
       </c>
       <c r="C45" t="n">
-        <v>165200</v>
+        <v>1537739.4</v>
       </c>
       <c r="D45" t="n">
-        <v>191.0859</v>
+        <v>1646</v>
       </c>
       <c r="E45" t="n">
-        <v>630</v>
+        <v>5312340</v>
       </c>
       <c r="F45" t="n">
-        <v>48948137</v>
+        <v>332.94</v>
       </c>
       <c r="G45" t="n">
-        <v>4198.5533558741</v>
-      </c>
-      <c r="H45" t="n">
-        <v>276880.00000804</v>
-      </c>
-      <c r="I45" t="n">
-        <v>365890349.98</v>
+        <v>106279.99998635</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>COG</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>2018</v>
       </c>
       <c r="C46" t="n">
-        <v>336600</v>
+        <v>1571482.02</v>
       </c>
       <c r="D46" t="n">
-        <v>197.7241</v>
+        <v>1646</v>
       </c>
       <c r="E46" t="n">
-        <v>630</v>
+        <v>5441062</v>
       </c>
       <c r="F46" t="n">
-        <v>49953304</v>
+        <v>503.33</v>
       </c>
       <c r="G46" t="n">
-        <v>4433.97532289365</v>
-      </c>
-      <c r="H46" t="n">
-        <v>276989.9999724</v>
-      </c>
-      <c r="I46" t="n">
-        <v>279114159.974</v>
+        <v>106310.00001005</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>COG</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>2019</v>
       </c>
       <c r="C47" t="n">
-        <v>366200</v>
+        <v>1545478.31</v>
       </c>
       <c r="D47" t="n">
-        <v>201.1708</v>
+        <v>1646</v>
       </c>
       <c r="E47" t="n">
-        <v>630</v>
+        <v>5570733</v>
       </c>
       <c r="F47" t="n">
-        <v>50951450</v>
+        <v>820.85</v>
       </c>
       <c r="G47" t="n">
-        <v>4710.50373969069</v>
-      </c>
-      <c r="H47" t="n">
-        <v>277099.999993674</v>
-      </c>
-      <c r="I47" t="n">
-        <v>332267910.002</v>
+        <v>106329.9999917</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>COG</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>2020</v>
       </c>
       <c r="C48" t="n">
-        <v>404700</v>
+        <v>1551566.58</v>
       </c>
       <c r="D48" t="n">
-        <v>203.4656</v>
+        <v>1646</v>
       </c>
       <c r="E48" t="n">
-        <v>630</v>
+        <v>5702174</v>
       </c>
       <c r="F48" t="n">
-        <v>51985780</v>
+        <v>3085.86</v>
       </c>
       <c r="G48" t="n">
-        <v>4813.92013999517</v>
-      </c>
-      <c r="H48" t="n">
-        <v>277099.999993674</v>
-      </c>
-      <c r="I48" t="n">
-        <v>381727000</v>
+        <v>106390.00000495</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>COG</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>2021</v>
       </c>
       <c r="C49" t="n">
-        <v>245300</v>
+        <v>1556175.64</v>
       </c>
       <c r="D49" t="n">
-        <v>203.4656</v>
+        <v>1646</v>
       </c>
       <c r="E49" t="n">
-        <v>630</v>
+        <v>5835806</v>
       </c>
       <c r="F49" t="n">
-        <v>53005614</v>
+        <v>2172.31</v>
       </c>
       <c r="G49" t="n">
-        <v>5360.36190289931</v>
-      </c>
-      <c r="H49" t="n">
-        <v>277099.999993674</v>
-      </c>
-      <c r="I49" t="n">
-        <v>351840000.026</v>
+        <v>106780.0000057</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>LBY</t>
+          <t>GAB</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>2014</v>
       </c>
       <c r="C50" t="n">
-        <v>200000</v>
+        <v>318821.02</v>
       </c>
       <c r="D50" t="n">
-        <v>4338</v>
+        <v>1831</v>
       </c>
       <c r="E50" t="n">
-        <v>56</v>
+        <v>1966855</v>
       </c>
       <c r="F50" t="n">
-        <v>6097764</v>
+        <v>1852.11</v>
       </c>
       <c r="G50" t="n">
-        <v>18455.6424497803</v>
-      </c>
-      <c r="H50" t="n">
-        <v>153500.0000045448</v>
-      </c>
-      <c r="I50" t="n">
-        <v>39417330.0076</v>
+        <v>21532.3599996666</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>LBY</t>
+          <t>GAB</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>2015</v>
       </c>
       <c r="C51" t="n">
-        <v>160000</v>
+        <v>305663.27</v>
       </c>
       <c r="D51" t="n">
-        <v>4377.6</v>
+        <v>1831</v>
       </c>
       <c r="E51" t="n">
-        <v>56</v>
+        <v>2028517</v>
       </c>
       <c r="F51" t="n">
-        <v>6192235</v>
+        <v>4420.46</v>
       </c>
       <c r="G51" t="n">
-        <v>18885.0764267029</v>
-      </c>
-      <c r="H51" t="n">
-        <v>153500.0000045448</v>
-      </c>
-      <c r="I51" t="n">
-        <v>26957480.0028</v>
+        <v>21532.3599996666</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>LBY</t>
+          <t>GAB</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>2016</v>
       </c>
       <c r="C52" t="n">
-        <v>200000</v>
+        <v>301403.34</v>
       </c>
       <c r="D52" t="n">
-        <v>4428</v>
+        <v>1831</v>
       </c>
       <c r="E52" t="n">
-        <v>56</v>
+        <v>2086206</v>
       </c>
       <c r="F52" t="n">
-        <v>6282196</v>
+        <v>3664.79</v>
       </c>
       <c r="G52" t="n">
-        <v>17905.7779395489</v>
-      </c>
-      <c r="H52" t="n">
-        <v>153500.0000045448</v>
-      </c>
-      <c r="I52" t="n">
-        <v>26902230.008</v>
+        <v>21532.3599996666</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>LBY</t>
+          <t>GAB</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>2017</v>
       </c>
       <c r="C53" t="n">
-        <v>140000</v>
+        <v>297813.28</v>
       </c>
       <c r="D53" t="n">
-        <v>4488.7032</v>
+        <v>1831</v>
       </c>
       <c r="E53" t="n">
-        <v>56</v>
+        <v>2140215</v>
       </c>
       <c r="F53" t="n">
-        <v>6378261</v>
+        <v>7746.13</v>
       </c>
       <c r="G53" t="n">
-        <v>19044.8767457177</v>
-      </c>
-      <c r="H53" t="n">
-        <v>153500.0000045448</v>
-      </c>
-      <c r="I53" t="n">
-        <v>44808830.002</v>
+        <v>21532.3599996666</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>LBY</t>
+          <t>GAB</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>2018</v>
       </c>
       <c r="C54" t="n">
-        <v>200000</v>
+        <v>298198.26</v>
       </c>
       <c r="D54" t="n">
-        <v>4555.5444</v>
+        <v>1831</v>
       </c>
       <c r="E54" t="n">
-        <v>56</v>
+        <v>2192012</v>
       </c>
       <c r="F54" t="n">
-        <v>6477793</v>
+        <v>6296.62</v>
       </c>
       <c r="G54" t="n">
-        <v>19961.3460462631</v>
-      </c>
-      <c r="H54" t="n">
-        <v>153500.0000045448</v>
-      </c>
-      <c r="I54" t="n">
-        <v>28234960.0024</v>
+        <v>21532.3599996666</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>LBY</t>
+          <t>GAB</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>2019</v>
       </c>
       <c r="C55" t="n">
-        <v>140000</v>
+        <v>308017.27</v>
       </c>
       <c r="D55" t="n">
-        <v>4622.3856</v>
+        <v>1831</v>
       </c>
       <c r="E55" t="n">
-        <v>56</v>
+        <v>2242785</v>
       </c>
       <c r="F55" t="n">
-        <v>6569088</v>
+        <v>5809.04</v>
       </c>
       <c r="G55" t="n">
-        <v>17835.2800156724</v>
-      </c>
-      <c r="H55" t="n">
-        <v>153500.0000045448</v>
-      </c>
-      <c r="I55" t="n">
-        <v>31149140.0064</v>
+        <v>21532.3599996666</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>LBY</t>
+          <t>GAB</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>2020</v>
       </c>
       <c r="C56" t="n">
-        <v>130000</v>
+        <v>310067.13</v>
       </c>
       <c r="D56" t="n">
-        <v>4686.5016</v>
+        <v>1831</v>
       </c>
       <c r="E56" t="n">
-        <v>56</v>
+        <v>2292573</v>
       </c>
       <c r="F56" t="n">
-        <v>6653942</v>
+        <v>2688.89</v>
       </c>
       <c r="G56" t="n">
-        <v>16261.8790227937</v>
-      </c>
-      <c r="H56" t="n">
-        <v>153500.0000045448</v>
-      </c>
-      <c r="I56" t="n">
-        <v>31791010.002</v>
+        <v>21532.3599996666</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>LBY</t>
+          <t>GAB</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>2021</v>
       </c>
       <c r="C57" t="n">
-        <v>130000</v>
+        <v>312323.41</v>
       </c>
       <c r="D57" t="n">
-        <v>4686.5016</v>
+        <v>1831</v>
       </c>
       <c r="E57" t="n">
-        <v>56</v>
+        <v>2341179</v>
       </c>
       <c r="F57" t="n">
-        <v>6735277</v>
+        <v>3699.74</v>
       </c>
       <c r="G57" t="n">
-        <v>18171.5229650604</v>
-      </c>
-      <c r="H57" t="n">
-        <v>153500.0000045448</v>
-      </c>
-      <c r="I57" t="n">
-        <v>25325020.0048</v>
+        <v>21532.3599996666</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>LSO</t>
+          <t>GIN</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C58" t="n">
-        <v>7069</v>
+        <v>1426625</v>
       </c>
       <c r="D58" t="n">
-        <v>5.0003</v>
+        <v>1651</v>
       </c>
       <c r="E58" t="n">
-        <v>788</v>
+        <v>11333365</v>
       </c>
       <c r="F58" t="n">
-        <v>2118521</v>
+        <v>2920.57</v>
       </c>
       <c r="G58" t="n">
-        <v>3014.72173672698</v>
-      </c>
-      <c r="H58" t="n">
-        <v>22229.999998932</v>
-      </c>
-      <c r="I58" t="n">
-        <v>1591410.000051</v>
+        <v>145330.000005416</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>LSO</t>
+          <t>GIN</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C59" t="n">
-        <v>4690</v>
+        <v>1506659</v>
       </c>
       <c r="D59" t="n">
-        <v>5.5114</v>
+        <v>1651</v>
       </c>
       <c r="E59" t="n">
-        <v>788</v>
+        <v>11625998</v>
       </c>
       <c r="F59" t="n">
-        <v>2143872</v>
+        <v>2412.19</v>
       </c>
       <c r="G59" t="n">
-        <v>2923.72318781704</v>
-      </c>
-      <c r="H59" t="n">
-        <v>23560.000000944</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1963519.999936</v>
+        <v>145449.99999662</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>LSO</t>
+          <t>GIN</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C60" t="n">
-        <v>8851</v>
+        <v>1607082</v>
       </c>
       <c r="D60" t="n">
-        <v>5.04</v>
+        <v>1651</v>
       </c>
       <c r="E60" t="n">
-        <v>788</v>
+        <v>11930985</v>
       </c>
       <c r="F60" t="n">
-        <v>2170617</v>
+        <v>2229</v>
       </c>
       <c r="G60" t="n">
-        <v>2602.52220835694</v>
-      </c>
-      <c r="H60" t="n">
-        <v>24179.999998572</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3397399.999902</v>
+        <v>145650.000006532</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>LSO</t>
+          <t>GIN</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C61" t="n">
-        <v>6975</v>
+        <v>1751719</v>
       </c>
       <c r="D61" t="n">
-        <v>5.4</v>
+        <v>1651</v>
       </c>
       <c r="E61" t="n">
-        <v>788</v>
+        <v>12240789</v>
       </c>
       <c r="F61" t="n">
-        <v>2198017</v>
+        <v>13047.26</v>
       </c>
       <c r="G61" t="n">
-        <v>2615.0259222894</v>
-      </c>
-      <c r="H61" t="n">
-        <v>24332.999998824</v>
-      </c>
-      <c r="I61" t="n">
-        <v>6774079.999275</v>
+        <v>145949.999996828</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>LSO</t>
+          <t>GIN</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C62" t="n">
-        <v>1432</v>
+        <v>1895396</v>
       </c>
       <c r="D62" t="n">
-        <v>5.4</v>
+        <v>1651</v>
       </c>
       <c r="E62" t="n">
-        <v>788</v>
+        <v>12554864</v>
       </c>
       <c r="F62" t="n">
-        <v>2225702</v>
+        <v>7055.31</v>
       </c>
       <c r="G62" t="n">
-        <v>2549.53527670624</v>
-      </c>
-      <c r="H62" t="n">
-        <v>24329.999999712</v>
-      </c>
-      <c r="I62" t="n">
-        <v>3355100.000109</v>
+        <v>146220.000007752</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>LSO</t>
+          <t>GIN</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C63" t="n">
-        <v>2004</v>
+        <v>2145484</v>
       </c>
       <c r="D63" t="n">
-        <v>3.492</v>
+        <v>1651</v>
       </c>
       <c r="E63" t="n">
-        <v>788</v>
+        <v>12877539</v>
       </c>
       <c r="F63" t="n">
-        <v>2254100</v>
+        <v>7055.31</v>
       </c>
       <c r="G63" t="n">
-        <v>2537.79208168464</v>
-      </c>
-      <c r="H63" t="n">
-        <v>24329.999999712</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3721209.999936</v>
+        <v>146300.000001888</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>LSO</t>
+          <t>GIN</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C64" t="n">
-        <v>2395</v>
+        <v>2523455</v>
       </c>
       <c r="D64" t="n">
-        <v>3.708</v>
+        <v>1651</v>
       </c>
       <c r="E64" t="n">
-        <v>788</v>
+        <v>13205153</v>
       </c>
       <c r="F64" t="n">
-        <v>2281454</v>
+        <v>7055.31</v>
       </c>
       <c r="G64" t="n">
-        <v>2516.97775280919</v>
-      </c>
-      <c r="H64" t="n">
-        <v>24329.999999712</v>
-      </c>
-      <c r="I64" t="n">
-        <v>3554990.000133</v>
+        <v>146349.99999208</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>MAR</t>
+          <t>GIN</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="C65" t="n">
-        <v>5115884.22</v>
+        <v>2743166</v>
       </c>
       <c r="D65" t="n">
-        <v>12070.8</v>
+        <v>1651</v>
       </c>
       <c r="E65" t="n">
-        <v>346</v>
+        <v>13531906</v>
       </c>
       <c r="F65" t="n">
-        <v>34248603</v>
+        <v>7055.31</v>
       </c>
       <c r="G65" t="n">
-        <v>7227.0126953125</v>
-      </c>
-      <c r="H65" t="n">
-        <v>300824.99998583</v>
-      </c>
-      <c r="I65" t="n">
-        <v>542342999.977389</v>
+        <v>146379.999996024</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>MAR</t>
+          <t>GNB</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C66" t="n">
-        <v>8074658.89</v>
+        <v>44185.54</v>
       </c>
       <c r="D66" t="n">
-        <v>12553.2</v>
+        <v>1577</v>
       </c>
       <c r="E66" t="n">
-        <v>346</v>
+        <v>1743309</v>
       </c>
       <c r="F66" t="n">
-        <v>34680458</v>
+        <v>2898.5</v>
       </c>
       <c r="G66" t="n">
-        <v>7781.69189453125</v>
-      </c>
-      <c r="H66" t="n">
-        <v>300469.9999785</v>
-      </c>
-      <c r="I66" t="n">
-        <v>528496849.991145</v>
+        <v>7813.460000644001</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>MAR</t>
+          <t>GNB</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C67" t="n">
-        <v>2731123</v>
+        <v>55207.3</v>
       </c>
       <c r="D67" t="n">
-        <v>14032.8</v>
+        <v>1577</v>
       </c>
       <c r="E67" t="n">
-        <v>346</v>
+        <v>1788919</v>
       </c>
       <c r="F67" t="n">
-        <v>35107264</v>
+        <v>2513.5</v>
       </c>
       <c r="G67" t="n">
-        <v>7833.41552734375</v>
-      </c>
-      <c r="H67" t="n">
-        <v>308750.00000866</v>
-      </c>
-      <c r="I67" t="n">
-        <v>320546049.96998</v>
+        <v>7897.899999232</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>MAR</t>
+          <t>GNB</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C68" t="n">
-        <v>7090817</v>
+        <v>40809.95</v>
       </c>
       <c r="D68" t="n">
-        <v>13389.3828</v>
+        <v>1577</v>
       </c>
       <c r="E68" t="n">
-        <v>346</v>
+        <v>1834552</v>
       </c>
       <c r="F68" t="n">
-        <v>35528115</v>
+        <v>3542</v>
       </c>
       <c r="G68" t="n">
-        <v>8095.3681640625</v>
-      </c>
-      <c r="H68" t="n">
-        <v>310465.48201287</v>
-      </c>
-      <c r="I68" t="n">
-        <v>508539199.9936138</v>
+        <v>7982.299999932001</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>MAR</t>
+          <t>GNB</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C69" t="n">
-        <v>7320620.11</v>
+        <v>49403.07</v>
       </c>
       <c r="D69" t="n">
-        <v>12420.198</v>
+        <v>1577</v>
       </c>
       <c r="E69" t="n">
-        <v>346</v>
+        <v>1879826</v>
       </c>
       <c r="F69" t="n">
-        <v>35927511</v>
+        <v>4449.5</v>
       </c>
       <c r="G69" t="n">
-        <v>7780.99169921875</v>
-      </c>
-      <c r="H69" t="n">
-        <v>305258.07200043</v>
-      </c>
-      <c r="I69" t="n">
-        <v>497538589.9815282</v>
+        <v>8066.700000632</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>MAR</t>
+          <t>GNB</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C70" t="n">
-        <v>4025302.52</v>
+        <v>51764.61</v>
       </c>
       <c r="D70" t="n">
-        <v>12091.1868</v>
+        <v>1577</v>
       </c>
       <c r="E70" t="n">
-        <v>346</v>
+        <v>1924955</v>
       </c>
       <c r="F70" t="n">
-        <v>36304408</v>
+        <v>4548.5</v>
       </c>
       <c r="G70" t="n">
-        <v>8024.4052734375</v>
-      </c>
-      <c r="H70" t="n">
-        <v>296119.07001446</v>
-      </c>
-      <c r="I70" t="n">
-        <v>413481830.0008699</v>
+        <v>8151.100001332001</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>MAR</t>
+          <t>GNB</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C71" t="n">
-        <v>2561897.5</v>
+        <v>52877</v>
       </c>
       <c r="D71" t="n">
-        <v>13558.5504</v>
+        <v>1577</v>
       </c>
       <c r="E71" t="n">
-        <v>346</v>
+        <v>1970457</v>
       </c>
       <c r="F71" t="n">
-        <v>36688772</v>
+        <v>4554</v>
       </c>
       <c r="G71" t="n">
-        <v>7681.83544921875</v>
-      </c>
-      <c r="H71" t="n">
-        <v>303579.99997797</v>
-      </c>
-      <c r="I71" t="n">
-        <v>430921419.98648</v>
+        <v>8151.100001332001</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>MAR</t>
+          <t>GNB</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C72" t="n">
-        <v>7543847.9</v>
+        <v>53771</v>
       </c>
       <c r="D72" t="n">
-        <v>13558.5504</v>
+        <v>1577</v>
       </c>
       <c r="E72" t="n">
-        <v>346</v>
+        <v>2015828</v>
       </c>
       <c r="F72" t="n">
-        <v>37076584</v>
+        <v>4532</v>
       </c>
       <c r="G72" t="n">
-        <v>8581.330078125</v>
-      </c>
-      <c r="H72" t="n">
-        <v>302910.0000024799</v>
-      </c>
-      <c r="I72" t="n">
-        <v>415356539.9748001</v>
+        <v>8151.100001332001</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>GNB</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="C73" t="n">
-        <v>5000</v>
+        <v>49274</v>
       </c>
       <c r="D73" t="n">
-        <v>80.88</v>
+        <v>1577</v>
       </c>
       <c r="E73" t="n">
-        <v>1513</v>
+        <v>2060721</v>
       </c>
       <c r="F73" t="n">
-        <v>24215976</v>
+        <v>4251.5</v>
       </c>
       <c r="G73" t="n">
-        <v>1532.78107137994</v>
-      </c>
-      <c r="H73" t="n">
-        <v>408950.00001494</v>
-      </c>
-      <c r="I73" t="n">
-        <v>26203430.001</v>
+        <v>8151.100001332001</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>GNQ</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C74" t="n">
-        <v>5000</v>
+        <v>71979.03999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>76.44</v>
+        <v>2156</v>
       </c>
       <c r="E74" t="n">
-        <v>1513</v>
+        <v>1295183</v>
       </c>
       <c r="F74" t="n">
-        <v>24850912</v>
+        <v>445.87</v>
       </c>
       <c r="G74" t="n">
-        <v>1531.28787865489</v>
-      </c>
-      <c r="H74" t="n">
-        <v>408950.00001494</v>
-      </c>
-      <c r="I74" t="n">
-        <v>22593069.999</v>
+        <v>1041.500000079</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>GNQ</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C75" t="n">
-        <v>5000</v>
+        <v>72839.67999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>72</v>
+        <v>2156</v>
       </c>
       <c r="E75" t="n">
-        <v>1513</v>
+        <v>1346973</v>
       </c>
       <c r="F75" t="n">
-        <v>25501941</v>
+        <v>570.61</v>
       </c>
       <c r="G75" t="n">
-        <v>1598.13667621734</v>
-      </c>
-      <c r="H75" t="n">
-        <v>408950.00001494</v>
-      </c>
-      <c r="I75" t="n">
-        <v>17966769.999</v>
+        <v>1042.8000000495</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>GNQ</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C76" t="n">
-        <v>5000</v>
+        <v>73514.06</v>
       </c>
       <c r="D76" t="n">
-        <v>84</v>
+        <v>2156</v>
       </c>
       <c r="E76" t="n">
-        <v>1513</v>
+        <v>1398927</v>
       </c>
       <c r="F76" t="n">
-        <v>26169542</v>
+        <v>468.18</v>
       </c>
       <c r="G76" t="n">
-        <v>1583.45919949684</v>
-      </c>
-      <c r="H76" t="n">
-        <v>408950.00001494</v>
-      </c>
-      <c r="I76" t="n">
-        <v>38985560.01000001</v>
+        <v>1044.10000002</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>GNQ</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C77" t="n">
-        <v>5000</v>
+        <v>74224.35000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>90</v>
+        <v>2156</v>
       </c>
       <c r="E77" t="n">
-        <v>1513</v>
+        <v>1450694</v>
       </c>
       <c r="F77" t="n">
-        <v>26846541</v>
+        <v>586.6799999999999</v>
       </c>
       <c r="G77" t="n">
-        <v>1583.94828406159</v>
-      </c>
-      <c r="H77" t="n">
-        <v>408950.00001494</v>
-      </c>
-      <c r="I77" t="n">
-        <v>37802720.01</v>
+        <v>1045.3999999905</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>GNQ</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C78" t="n">
-        <v>5000</v>
+        <v>74938.49000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>90</v>
+        <v>2156</v>
       </c>
       <c r="E78" t="n">
-        <v>1513</v>
+        <v>1502091</v>
       </c>
       <c r="F78" t="n">
-        <v>27533134</v>
+        <v>505.17</v>
       </c>
       <c r="G78" t="n">
-        <v>1652.49342031181</v>
-      </c>
-      <c r="H78" t="n">
-        <v>408950.00001494</v>
-      </c>
-      <c r="I78" t="n">
-        <v>35836260</v>
+        <v>1046.699999961</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>GNQ</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C79" t="n">
-        <v>1000</v>
+        <v>74225.63</v>
       </c>
       <c r="D79" t="n">
-        <v>90</v>
+        <v>2156</v>
       </c>
       <c r="E79" t="n">
-        <v>1513</v>
+        <v>1553031</v>
       </c>
       <c r="F79" t="n">
-        <v>28225177</v>
+        <v>264</v>
       </c>
       <c r="G79" t="n">
-        <v>1528.78241137715</v>
-      </c>
-      <c r="H79" t="n">
-        <v>408950.00001494</v>
-      </c>
-      <c r="I79" t="n">
-        <v>31741080</v>
+        <v>1047.9999999315</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>GNQ</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C80" t="n">
-        <v>1000</v>
+        <v>74462.83</v>
       </c>
       <c r="D80" t="n">
-        <v>97.2</v>
+        <v>2156</v>
       </c>
       <c r="E80" t="n">
-        <v>1513</v>
+        <v>1596049</v>
       </c>
       <c r="F80" t="n">
-        <v>28915653</v>
+        <v>268</v>
       </c>
       <c r="G80" t="n">
-        <v>1642.30416221094</v>
-      </c>
-      <c r="H80" t="n">
-        <v>408950.00001494</v>
-      </c>
-      <c r="I80" t="n">
-        <v>10018020</v>
+        <v>1049.199999969</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>GNQ</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="C81" t="n">
-        <v>20710</v>
+        <v>74542.32000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>8.352</v>
+        <v>2156</v>
       </c>
       <c r="E81" t="n">
-        <v>1032</v>
+        <v>1634466</v>
       </c>
       <c r="F81" t="n">
-        <v>26038704</v>
+        <v>250</v>
       </c>
       <c r="G81" t="n">
-        <v>1154.62478831396</v>
-      </c>
-      <c r="H81" t="n">
-        <v>404915.719965162</v>
-      </c>
-      <c r="I81" t="n">
-        <v>42567580.0014</v>
+        <v>1049.199999969</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>MLI</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C82" t="n">
-        <v>20280</v>
+        <v>52152</v>
       </c>
       <c r="D82" t="n">
-        <v>106.56</v>
+        <v>282</v>
       </c>
       <c r="E82" t="n">
-        <v>1032</v>
+        <v>17551814</v>
       </c>
       <c r="F82" t="n">
-        <v>26843246</v>
+        <v>89902.23</v>
       </c>
       <c r="G82" t="n">
-        <v>1303.37153859162</v>
-      </c>
-      <c r="H82" t="n">
-        <v>406980.000021294</v>
-      </c>
-      <c r="I82" t="n">
-        <v>25753390.0006</v>
+        <v>418069.999961901</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>MLI</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C83" t="n">
-        <v>17088</v>
+        <v>42345</v>
       </c>
       <c r="D83" t="n">
-        <v>77.76000000000001</v>
+        <v>282</v>
       </c>
       <c r="E83" t="n">
-        <v>1032</v>
+        <v>18112907</v>
       </c>
       <c r="F83" t="n">
-        <v>27696493</v>
+        <v>105261.27</v>
       </c>
       <c r="G83" t="n">
-        <v>1361.21218696968</v>
-      </c>
-      <c r="H83" t="n">
-        <v>410097.10001218</v>
-      </c>
-      <c r="I83" t="n">
-        <v>25807259.99905</v>
+        <v>419959.99996233</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>MLI</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C84" t="n">
-        <v>17100</v>
+        <v>118863</v>
       </c>
       <c r="D84" t="n">
-        <v>6.1488</v>
+        <v>282</v>
       </c>
       <c r="E84" t="n">
-        <v>1032</v>
+        <v>18700106</v>
       </c>
       <c r="F84" t="n">
-        <v>28569441</v>
+        <v>120620.31</v>
       </c>
       <c r="G84" t="n">
-        <v>1264.65306205562</v>
-      </c>
-      <c r="H84" t="n">
-        <v>412313.99999097</v>
-      </c>
-      <c r="I84" t="n">
-        <v>29033430.00005</v>
+        <v>421860.000029904</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>MLI</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C85" t="n">
-        <v>17000</v>
+        <v>101447</v>
       </c>
       <c r="D85" t="n">
-        <v>67.5</v>
+        <v>282</v>
       </c>
       <c r="E85" t="n">
-        <v>1032</v>
+        <v>19311355</v>
       </c>
       <c r="F85" t="n">
-        <v>29423878</v>
+        <v>102990.6</v>
       </c>
       <c r="G85" t="n">
-        <v>1307.33059592616</v>
-      </c>
-      <c r="H85" t="n">
-        <v>414138.319964726</v>
-      </c>
-      <c r="I85" t="n">
-        <v>37918249.9985</v>
+        <v>423750.0000303329</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>MLI</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C86" t="n">
-        <v>18000</v>
+        <v>138023</v>
       </c>
       <c r="D86" t="n">
-        <v>78.0624</v>
+        <v>282</v>
       </c>
       <c r="E86" t="n">
-        <v>1032</v>
+        <v>19934298</v>
       </c>
       <c r="F86" t="n">
-        <v>30285595</v>
+        <v>102990.6</v>
       </c>
       <c r="G86" t="n">
-        <v>1370.39867945741</v>
-      </c>
-      <c r="H86" t="n">
-        <v>414138.319964726</v>
-      </c>
-      <c r="I86" t="n">
-        <v>61000349.978</v>
+        <v>425640.0000307621</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>MLI</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C87" t="n">
-        <v>15000</v>
+        <v>70312</v>
       </c>
       <c r="D87" t="n">
-        <v>1.098</v>
+        <v>282</v>
       </c>
       <c r="E87" t="n">
-        <v>1032</v>
+        <v>20567424</v>
       </c>
       <c r="F87" t="n">
-        <v>31178239</v>
+        <v>157227.16</v>
       </c>
       <c r="G87" t="n">
-        <v>1393.75678141374</v>
-      </c>
-      <c r="H87" t="n">
-        <v>414138.319964726</v>
-      </c>
-      <c r="I87" t="n">
-        <v>63357310.0235</v>
+        <v>427530.000031191</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>MLI</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C88" t="n">
-        <v>15000</v>
+        <v>164842.14</v>
       </c>
       <c r="D88" t="n">
-        <v>1.098</v>
+        <v>282</v>
       </c>
       <c r="E88" t="n">
-        <v>1032</v>
+        <v>21224040</v>
       </c>
       <c r="F88" t="n">
-        <v>32077072</v>
+        <v>102691.5</v>
       </c>
       <c r="G88" t="n">
-        <v>1440.4596813034</v>
-      </c>
-      <c r="H88" t="n">
-        <v>414138.319964726</v>
-      </c>
-      <c r="I88" t="n">
-        <v>69251230.01549999</v>
+        <v>429420.00003162</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>MWI</t>
+          <t>MLI</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="C89" t="n">
-        <v>1160</v>
+        <v>120716</v>
       </c>
       <c r="D89" t="n">
-        <v>199.2</v>
+        <v>282</v>
       </c>
       <c r="E89" t="n">
-        <v>1181</v>
+        <v>21904983</v>
       </c>
       <c r="F89" t="n">
-        <v>16477966</v>
+        <v>45684.42</v>
       </c>
       <c r="G89" t="n">
-        <v>1518.66973047385</v>
-      </c>
-      <c r="H89" t="n">
-        <v>56509.999999936</v>
-      </c>
-      <c r="I89" t="n">
-        <v>143193759.99461</v>
+        <v>431310.000032049</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>MWI</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C90" t="n">
-        <v>1178</v>
+        <v>4136000</v>
       </c>
       <c r="D90" t="n">
-        <v>180.7536</v>
+        <v>1032</v>
       </c>
       <c r="E90" t="n">
-        <v>1181</v>
+        <v>26038704</v>
       </c>
       <c r="F90" t="n">
-        <v>16938942</v>
+        <v>33555.73</v>
       </c>
       <c r="G90" t="n">
-        <v>1415.23139400952</v>
-      </c>
-      <c r="H90" t="n">
-        <v>57060.000000868</v>
-      </c>
-      <c r="I90" t="n">
-        <v>153548869.98872</v>
+        <v>404915.719965162</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>MWI</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C91" t="n">
-        <v>797</v>
+        <v>3579000</v>
       </c>
       <c r="D91" t="n">
-        <v>215.0516</v>
+        <v>1032</v>
       </c>
       <c r="E91" t="n">
-        <v>1181</v>
+        <v>26843246</v>
       </c>
       <c r="F91" t="n">
-        <v>17405624</v>
+        <v>13711.1</v>
       </c>
       <c r="G91" t="n">
-        <v>1422.28023767727</v>
-      </c>
-      <c r="H91" t="n">
-        <v>57619.99999856001</v>
-      </c>
-      <c r="I91" t="n">
-        <v>88230480.00384</v>
+        <v>406980.000021294</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>MWI</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C92" t="n">
-        <v>745</v>
+        <v>3598000</v>
       </c>
       <c r="D92" t="n">
-        <v>174.9333</v>
+        <v>1032</v>
       </c>
       <c r="E92" t="n">
-        <v>1181</v>
+        <v>27696493</v>
       </c>
       <c r="F92" t="n">
-        <v>17881167</v>
+        <v>19192.49</v>
       </c>
       <c r="G92" t="n">
-        <v>1392.47080836583</v>
-      </c>
-      <c r="H92" t="n">
-        <v>58169.999999492</v>
-      </c>
-      <c r="I92" t="n">
-        <v>128054409.99124</v>
+        <v>410097.10001218</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>MWI</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C93" t="n">
-        <v>729</v>
+        <v>3867000</v>
       </c>
       <c r="D93" t="n">
-        <v>171.2464</v>
+        <v>1032</v>
       </c>
       <c r="E93" t="n">
-        <v>1181</v>
+        <v>28569441</v>
       </c>
       <c r="F93" t="n">
-        <v>18367883</v>
+        <v>22609.49</v>
       </c>
       <c r="G93" t="n">
-        <v>1375.89008049018</v>
-      </c>
-      <c r="H93" t="n">
-        <v>58729.999997184</v>
-      </c>
-      <c r="I93" t="n">
-        <v>131193990.0157</v>
+        <v>412313.99999097</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>MWI</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C94" t="n">
-        <v>566</v>
+        <v>6346023</v>
       </c>
       <c r="D94" t="n">
-        <v>182.7246</v>
+        <v>1032</v>
       </c>
       <c r="E94" t="n">
-        <v>1181</v>
+        <v>29423878</v>
       </c>
       <c r="F94" t="n">
-        <v>18867337</v>
+        <v>26508.47</v>
       </c>
       <c r="G94" t="n">
-        <v>1465.55046880457</v>
-      </c>
-      <c r="H94" t="n">
-        <v>59279.999998116</v>
-      </c>
-      <c r="I94" t="n">
-        <v>117300350.01412</v>
+        <v>414138.319964726</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>MWI</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C95" t="n">
-        <v>697</v>
+        <v>6019201</v>
       </c>
       <c r="D95" t="n">
-        <v>184</v>
+        <v>1032</v>
       </c>
       <c r="E95" t="n">
-        <v>1181</v>
+        <v>30285595</v>
       </c>
       <c r="F95" t="n">
-        <v>19377061</v>
+        <v>46221.11</v>
       </c>
       <c r="G95" t="n">
-        <v>1560.96134713407</v>
-      </c>
-      <c r="H95" t="n">
-        <v>59839.99999580799</v>
-      </c>
-      <c r="I95" t="n">
-        <v>386083069.9992</v>
+        <v>414138.319964726</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>MWI</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C96" t="n">
-        <v>1000</v>
+        <v>6026000</v>
       </c>
       <c r="D96" t="n">
-        <v>191.3043</v>
+        <v>1032</v>
       </c>
       <c r="E96" t="n">
-        <v>1181</v>
+        <v>31178239</v>
       </c>
       <c r="F96" t="n">
-        <v>19889742</v>
+        <v>47900.52</v>
       </c>
       <c r="G96" t="n">
-        <v>1728.82539847128</v>
-      </c>
-      <c r="H96" t="n">
-        <v>60499.999998812</v>
-      </c>
-      <c r="I96" t="n">
-        <v>386943530</v>
+        <v>414138.319964726</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="C97" t="n">
-        <v>1802</v>
+        <v>6218141</v>
       </c>
       <c r="D97" t="n">
-        <v>19.7568</v>
+        <v>1032</v>
       </c>
       <c r="E97" t="n">
-        <v>151</v>
+        <v>32077072</v>
       </c>
       <c r="F97" t="n">
-        <v>19372014</v>
+        <v>56859.72</v>
       </c>
       <c r="G97" t="n">
-        <v>1151.96688072261</v>
-      </c>
-      <c r="H97" t="n">
-        <v>456820.0000626</v>
-      </c>
-      <c r="I97" t="n">
-        <v>16787289.9936</v>
+        <v>414138.319964726</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>MWI</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C98" t="n">
-        <v>8090</v>
+        <v>5102692</v>
       </c>
       <c r="D98" t="n">
-        <v>21.4308</v>
+        <v>1181</v>
       </c>
       <c r="E98" t="n">
-        <v>151</v>
+        <v>16477966</v>
       </c>
       <c r="F98" t="n">
-        <v>20128124</v>
+        <v>118305.04</v>
       </c>
       <c r="G98" t="n">
-        <v>1161.20686678293</v>
-      </c>
-      <c r="H98" t="n">
-        <v>456949.99996356</v>
-      </c>
-      <c r="I98" t="n">
-        <v>6824009.9928</v>
+        <v>56509.999999936</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>MWI</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C99" t="n">
-        <v>8234.18</v>
+        <v>5012763</v>
       </c>
       <c r="D99" t="n">
-        <v>21.6</v>
+        <v>1181</v>
       </c>
       <c r="E99" t="n">
-        <v>151</v>
+        <v>16938942</v>
       </c>
       <c r="F99" t="n">
-        <v>20921743</v>
+        <v>109426.62</v>
       </c>
       <c r="G99" t="n">
-        <v>1175.15058079445</v>
-      </c>
-      <c r="H99" t="n">
-        <v>463950.00000924</v>
-      </c>
-      <c r="I99" t="n">
-        <v>6755119.9975</v>
+        <v>57060.000000868</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>MWI</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C100" t="n">
-        <v>6003.39</v>
+        <v>4996843</v>
       </c>
       <c r="D100" t="n">
-        <v>21.6</v>
+        <v>1181</v>
       </c>
       <c r="E100" t="n">
-        <v>151</v>
+        <v>17405624</v>
       </c>
       <c r="F100" t="n">
-        <v>21737922</v>
+        <v>63280.19</v>
       </c>
       <c r="G100" t="n">
-        <v>1191.33514588339</v>
-      </c>
-      <c r="H100" t="n">
-        <v>465949.9999861</v>
-      </c>
-      <c r="I100" t="n">
-        <v>6755120.004600001</v>
+        <v>57619.99999856001</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>MWI</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C101" t="n">
-        <v>4807.08</v>
+        <v>4960556</v>
       </c>
       <c r="D101" t="n">
-        <v>32.4</v>
+        <v>1181</v>
       </c>
       <c r="E101" t="n">
-        <v>151</v>
+        <v>17881167</v>
       </c>
       <c r="F101" t="n">
-        <v>22577058</v>
+        <v>86463.2</v>
       </c>
       <c r="G101" t="n">
-        <v>1254.01179551936</v>
-      </c>
-      <c r="H101" t="n">
-        <v>465949.9999861</v>
-      </c>
-      <c r="I101" t="n">
-        <v>12297420.0084</v>
+        <v>58169.999999492</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>MWI</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C102" t="n">
-        <v>4919.88</v>
+        <v>5410506</v>
       </c>
       <c r="D102" t="n">
-        <v>29.5416</v>
+        <v>1181</v>
       </c>
       <c r="E102" t="n">
-        <v>151</v>
+        <v>18367883</v>
       </c>
       <c r="F102" t="n">
-        <v>23443393</v>
+        <v>96439.95</v>
       </c>
       <c r="G102" t="n">
-        <v>1389.16425492127</v>
-      </c>
-      <c r="H102" t="n">
-        <v>465949.9999861</v>
-      </c>
-      <c r="I102" t="n">
-        <v>16805470.0014</v>
+        <v>58729.999997184</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>MWI</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C103" t="n">
-        <v>5519.8</v>
+        <v>5708032</v>
       </c>
       <c r="D103" t="n">
-        <v>29.88</v>
+        <v>1181</v>
       </c>
       <c r="E103" t="n">
-        <v>151</v>
+        <v>18867337</v>
       </c>
       <c r="F103" t="n">
-        <v>24333639</v>
+        <v>76293.73</v>
       </c>
       <c r="G103" t="n">
-        <v>1458.93993429819</v>
-      </c>
-      <c r="H103" t="n">
-        <v>465949.9999861</v>
-      </c>
-      <c r="I103" t="n">
-        <v>10380490.0074</v>
+        <v>59279.999998116</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>MWI</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C104" t="n">
-        <v>5471.44</v>
+        <v>5858745</v>
       </c>
       <c r="D104" t="n">
-        <v>28.8</v>
+        <v>1181</v>
       </c>
       <c r="E104" t="n">
-        <v>151</v>
+        <v>19377061</v>
       </c>
       <c r="F104" t="n">
-        <v>25252722</v>
+        <v>126914</v>
       </c>
       <c r="G104" t="n">
-        <v>1538.4707469366</v>
-      </c>
-      <c r="H104" t="n">
-        <v>465949.9999861</v>
-      </c>
-      <c r="I104" t="n">
-        <v>10380490.0074</v>
+        <v>59839.99999580799</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>RWA</t>
+          <t>MWI</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="C105" t="n">
-        <v>7886</v>
+        <v>6101396</v>
       </c>
       <c r="D105" t="n">
-        <v>85.3616</v>
+        <v>1181</v>
       </c>
       <c r="E105" t="n">
-        <v>1212</v>
+        <v>19889742</v>
       </c>
       <c r="F105" t="n">
-        <v>11368451</v>
+        <v>103589.09</v>
       </c>
       <c r="G105" t="n">
-        <v>1677.02363449563</v>
-      </c>
-      <c r="H105" t="n">
-        <v>20060.000001068</v>
-      </c>
-      <c r="I105" t="n">
-        <v>14500050.00444</v>
+        <v>60499.999998812</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>RWA</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C106" t="n">
-        <v>7995</v>
+        <v>133099</v>
       </c>
       <c r="D106" t="n">
-        <v>107.9022</v>
+        <v>151</v>
       </c>
       <c r="E106" t="n">
-        <v>1212</v>
+        <v>19372014</v>
       </c>
       <c r="F106" t="n">
-        <v>11642959</v>
+        <v>12602.88</v>
       </c>
       <c r="G106" t="n">
-        <v>1780.29239181178</v>
-      </c>
-      <c r="H106" t="n">
-        <v>20070.00000037</v>
-      </c>
-      <c r="I106" t="n">
-        <v>22680149.99768</v>
+        <v>456820.0000626</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>RWA</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C107" t="n">
-        <v>9923</v>
+        <v>184612</v>
       </c>
       <c r="D107" t="n">
-        <v>84.2278</v>
+        <v>151</v>
       </c>
       <c r="E107" t="n">
-        <v>1212</v>
+        <v>20128124</v>
       </c>
       <c r="F107" t="n">
-        <v>11930899</v>
+        <v>6721.04</v>
       </c>
       <c r="G107" t="n">
-        <v>1864.55686890191</v>
-      </c>
-      <c r="H107" t="n">
-        <v>20049.999999299</v>
-      </c>
-      <c r="I107" t="n">
-        <v>11298429.999528</v>
+        <v>456949.99996356</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>RWA</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C108" t="n">
-        <v>10926.27</v>
+        <v>146563</v>
       </c>
       <c r="D108" t="n">
-        <v>78.6109</v>
+        <v>151</v>
       </c>
       <c r="E108" t="n">
-        <v>1212</v>
+        <v>20921743</v>
       </c>
       <c r="F108" t="n">
-        <v>12230339</v>
+        <v>6440.36</v>
       </c>
       <c r="G108" t="n">
-        <v>1963.39254103935</v>
-      </c>
-      <c r="H108" t="n">
-        <v>20049.999999299</v>
-      </c>
-      <c r="I108" t="n">
-        <v>22422110.00101</v>
+        <v>463950.00000924</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>RWA</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C109" t="n">
-        <v>13475.16</v>
+        <v>319653</v>
       </c>
       <c r="D109" t="n">
-        <v>90.6203</v>
+        <v>151</v>
       </c>
       <c r="E109" t="n">
-        <v>1212</v>
+        <v>21737922</v>
       </c>
       <c r="F109" t="n">
-        <v>12531808</v>
+        <v>6440.36</v>
       </c>
       <c r="G109" t="n">
-        <v>2118.06433769718</v>
-      </c>
-      <c r="H109" t="n">
-        <v>19489.999998915</v>
-      </c>
-      <c r="I109" t="n">
-        <v>18432749.9954</v>
+        <v>465949.9999861</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>RWA</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C110" t="n">
-        <v>15686.27</v>
+        <v>372408.29</v>
       </c>
       <c r="D110" t="n">
-        <v>93.5977</v>
+        <v>151</v>
       </c>
       <c r="E110" t="n">
-        <v>1212</v>
+        <v>22577058</v>
       </c>
       <c r="F110" t="n">
-        <v>12835028</v>
+        <v>11025.97</v>
       </c>
       <c r="G110" t="n">
-        <v>2325.31490871321</v>
-      </c>
-      <c r="H110" t="n">
-        <v>19040.000000721</v>
-      </c>
-      <c r="I110" t="n">
-        <v>29846380.0048</v>
+        <v>465949.9999861</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>RWA</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C111" t="n">
-        <v>12811.42</v>
+        <v>513670.79</v>
       </c>
       <c r="D111" t="n">
-        <v>87.93259999999999</v>
+        <v>151</v>
       </c>
       <c r="E111" t="n">
-        <v>1212</v>
+        <v>23443393</v>
       </c>
       <c r="F111" t="n">
-        <v>13146362</v>
+        <v>12474.43</v>
       </c>
       <c r="G111" t="n">
-        <v>2270.90333174194</v>
-      </c>
-      <c r="H111" t="n">
-        <v>19586.000000602</v>
-      </c>
-      <c r="I111" t="n">
-        <v>35342489.999604</v>
+        <v>465949.9999861</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>RWA</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C112" t="n">
-        <v>13684</v>
+        <v>658234.11</v>
       </c>
       <c r="D112" t="n">
-        <v>37.7206</v>
+        <v>151</v>
       </c>
       <c r="E112" t="n">
-        <v>1212</v>
+        <v>24333639</v>
       </c>
       <c r="F112" t="n">
-        <v>13461888</v>
+        <v>6099.53</v>
       </c>
       <c r="G112" t="n">
-        <v>2709.45782999207</v>
-      </c>
-      <c r="H112" t="n">
-        <v>20044.600000268</v>
-      </c>
-      <c r="I112" t="n">
-        <v>30316259.997156</v>
+        <v>465949.9999861</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>SDN</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="C113" t="n">
-        <v>473000</v>
+        <v>374207.49</v>
       </c>
       <c r="D113" t="n">
-        <v>1983.6</v>
+        <v>151</v>
       </c>
       <c r="E113" t="n">
-        <v>250</v>
+        <v>25252722</v>
       </c>
       <c r="F113" t="n">
-        <v>37003245</v>
+        <v>6099.53</v>
       </c>
       <c r="G113" t="n">
-        <v>4470.1357421875</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1114449.6000644</v>
-      </c>
-      <c r="I113" t="n">
-        <v>83269680.0096546</v>
+        <v>465949.9999861</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>SDN</t>
+          <t>RWA</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C114" t="n">
-        <v>778600</v>
+        <v>900227</v>
       </c>
       <c r="D114" t="n">
-        <v>2037.6</v>
+        <v>1212</v>
       </c>
       <c r="E114" t="n">
-        <v>250</v>
+        <v>11368451</v>
       </c>
       <c r="F114" t="n">
-        <v>38171178</v>
+        <v>6936.82</v>
       </c>
       <c r="G114" t="n">
-        <v>4421.7509765625</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1117498.7999764</v>
-      </c>
-      <c r="I114" t="n">
-        <v>89844799.99022424</v>
+        <v>20060.000001068</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>SDN</t>
+          <t>RWA</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C115" t="n">
-        <v>516000</v>
+        <v>924651</v>
       </c>
       <c r="D115" t="n">
-        <v>2588.4</v>
+        <v>1212</v>
       </c>
       <c r="E115" t="n">
-        <v>250</v>
+        <v>11642959</v>
       </c>
       <c r="F115" t="n">
-        <v>39377169</v>
+        <v>9365.83</v>
       </c>
       <c r="G115" t="n">
-        <v>4684.09423828125</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1120548.0000752</v>
-      </c>
-      <c r="I115" t="n">
-        <v>191260150.00245</v>
+        <v>20070.00000037</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>SDN</t>
+          <t>RWA</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C116" t="n">
-        <v>463000</v>
+        <v>930220</v>
       </c>
       <c r="D116" t="n">
-        <v>3145.9716</v>
+        <v>1212</v>
       </c>
       <c r="E116" t="n">
-        <v>250</v>
+        <v>11930899</v>
       </c>
       <c r="F116" t="n">
-        <v>40679828</v>
+        <v>3460.41</v>
       </c>
       <c r="G116" t="n">
-        <v>4465.09375</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1123597.1999872</v>
-      </c>
-      <c r="I116" t="n">
-        <v>172526319.9913881</v>
+        <v>20049.999999299</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>SDN</t>
+          <t>RWA</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C117" t="n">
-        <v>702000</v>
+        <v>1041986.2</v>
       </c>
       <c r="D117" t="n">
-        <v>3609</v>
+        <v>1212</v>
       </c>
       <c r="E117" t="n">
-        <v>250</v>
+        <v>12230339</v>
       </c>
       <c r="F117" t="n">
-        <v>41999059</v>
+        <v>8562.74</v>
       </c>
       <c r="G117" t="n">
-        <v>4422.369140625</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1126646.400086</v>
-      </c>
-      <c r="I117" t="n">
-        <v>149127860.0015161</v>
+        <v>20049.999999299</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>SDN</t>
+          <t>RWA</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C118" t="n">
-        <v>726000</v>
+        <v>1127199.78</v>
       </c>
       <c r="D118" t="n">
-        <v>4186.44</v>
+        <v>1212</v>
       </c>
       <c r="E118" t="n">
-        <v>250</v>
+        <v>12531808</v>
       </c>
       <c r="F118" t="n">
-        <v>43232093</v>
+        <v>7561.21</v>
       </c>
       <c r="G118" t="n">
-        <v>4123.92333984375</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1126646.400086</v>
-      </c>
-      <c r="I118" t="n">
-        <v>149127860.0015161</v>
+        <v>19489.999998915</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>SDN</t>
+          <t>RWA</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C119" t="n">
-        <v>717578</v>
+        <v>1181825.24</v>
       </c>
       <c r="D119" t="n">
-        <v>4397.76</v>
+        <v>1212</v>
       </c>
       <c r="E119" t="n">
-        <v>250</v>
+        <v>12835028</v>
       </c>
       <c r="F119" t="n">
-        <v>44440486</v>
+        <v>10628.36</v>
       </c>
       <c r="G119" t="n">
-        <v>3525.5556640625</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1126648.3999668</v>
-      </c>
-      <c r="I119" t="n">
-        <v>149127860.0015161</v>
+        <v>19040.000000721</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>SDN</t>
+          <t>RWA</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C120" t="n">
-        <v>602000</v>
+        <v>1279581.83</v>
       </c>
       <c r="D120" t="n">
-        <v>4125.6</v>
+        <v>1212</v>
       </c>
       <c r="E120" t="n">
-        <v>250</v>
+        <v>13146362</v>
       </c>
       <c r="F120" t="n">
-        <v>45657202</v>
+        <v>12529.64</v>
       </c>
       <c r="G120" t="n">
-        <v>3420.45190429688</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1126648.3999668</v>
-      </c>
-      <c r="I120" t="n">
-        <v>149127860.0015161</v>
+        <v>19586.000000602</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>SOM</t>
+          <t>RWA</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="C121" t="n">
-        <v>1019.98</v>
+        <v>1319875</v>
       </c>
       <c r="D121" t="n">
-        <v>61.7377</v>
+        <v>1212</v>
       </c>
       <c r="E121" t="n">
-        <v>282</v>
+        <v>13461888</v>
       </c>
       <c r="F121" t="n">
-        <v>13309235</v>
+        <v>10571.99</v>
       </c>
       <c r="G121" t="n">
-        <v>1289.90067472679</v>
-      </c>
-      <c r="H121" t="n">
-        <v>441260.000008772</v>
-      </c>
-      <c r="I121" t="n">
-        <v>67110.0001</v>
+        <v>20044.600000268</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>SOM</t>
+          <t>SLE</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C122" t="n">
-        <v>1031.36</v>
+        <v>3641924</v>
       </c>
       <c r="D122" t="n">
-        <v>66.6024</v>
+        <v>2526</v>
       </c>
       <c r="E122" t="n">
-        <v>282</v>
+        <v>7140688</v>
       </c>
       <c r="F122" t="n">
-        <v>13763906</v>
+        <v>9217.23</v>
       </c>
       <c r="G122" t="n">
-        <v>1527.73419097484</v>
-      </c>
-      <c r="H122" t="n">
-        <v>441260.000008772</v>
-      </c>
-      <c r="I122" t="n">
-        <v>47450.0004</v>
+        <v>39490.000002198</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>SOM</t>
+          <t>SLE</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C123" t="n">
-        <v>1038.68</v>
+        <v>3247811.33</v>
       </c>
       <c r="D123" t="n">
-        <v>47.8695</v>
+        <v>2526</v>
       </c>
       <c r="E123" t="n">
-        <v>282</v>
+        <v>7314773</v>
       </c>
       <c r="F123" t="n">
-        <v>14292847</v>
+        <v>7992.93</v>
       </c>
       <c r="G123" t="n">
-        <v>1647.45742841444</v>
-      </c>
-      <c r="H123" t="n">
-        <v>441260.000008772</v>
-      </c>
-      <c r="I123" t="n">
-        <v>809239.9996999999</v>
+        <v>39490.000002198</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>SOM</t>
+          <t>SLE</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C124" t="n">
-        <v>1044.66</v>
+        <v>2967981.65</v>
       </c>
       <c r="D124" t="n">
-        <v>42.1675</v>
+        <v>2526</v>
       </c>
       <c r="E124" t="n">
-        <v>282</v>
+        <v>7493913</v>
       </c>
       <c r="F124" t="n">
-        <v>14864221</v>
+        <v>11263.56</v>
       </c>
       <c r="G124" t="n">
-        <v>1735.09122727754</v>
-      </c>
-      <c r="H124" t="n">
-        <v>441260.000008772</v>
-      </c>
-      <c r="I124" t="n">
-        <v>1200120.0002</v>
+        <v>39490.000002198</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>SOM</t>
+          <t>SLE</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C125" t="n">
-        <v>1049.62</v>
+        <v>1941190.43</v>
       </c>
       <c r="D125" t="n">
-        <v>46.506</v>
+        <v>2526</v>
       </c>
       <c r="E125" t="n">
-        <v>282</v>
+        <v>7677565</v>
       </c>
       <c r="F125" t="n">
-        <v>15411094</v>
+        <v>14149.41</v>
       </c>
       <c r="G125" t="n">
-        <v>1635.76447272369</v>
-      </c>
-      <c r="H125" t="n">
-        <v>441260.000008772</v>
-      </c>
-      <c r="I125" t="n">
-        <v>981939.9997</v>
+        <v>39490.000002198</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>SOM</t>
+          <t>SLE</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C126" t="n">
-        <v>1052.52</v>
+        <v>2145782</v>
       </c>
       <c r="D126" t="n">
-        <v>45.5075</v>
+        <v>2526</v>
       </c>
       <c r="E126" t="n">
-        <v>282</v>
+        <v>7861281</v>
       </c>
       <c r="F126" t="n">
-        <v>15981300</v>
+        <v>14464.23</v>
       </c>
       <c r="G126" t="n">
-        <v>1690.24112436661</v>
-      </c>
-      <c r="H126" t="n">
-        <v>441269.9999965741</v>
-      </c>
-      <c r="I126" t="n">
-        <v>929950.0000999999</v>
+        <v>39490.000002198</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>SOM</t>
+          <t>SLE</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C127" t="n">
-        <v>1049.32</v>
+        <v>881222</v>
       </c>
       <c r="D127" t="n">
-        <v>43.6589</v>
+        <v>2526</v>
       </c>
       <c r="E127" t="n">
-        <v>282</v>
+        <v>8046828</v>
       </c>
       <c r="F127" t="n">
-        <v>16537016</v>
+        <v>2478.46</v>
       </c>
       <c r="G127" t="n">
-        <v>1562.08779126869</v>
-      </c>
-      <c r="H127" t="n">
-        <v>441279.999984376</v>
-      </c>
-      <c r="I127" t="n">
-        <v>1559470</v>
+        <v>39490.000002198</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>SOM</t>
+          <t>SLE</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C128" t="n">
-        <v>1053.08</v>
+        <v>1690168</v>
       </c>
       <c r="D128" t="n">
-        <v>18.6318</v>
+        <v>2526</v>
       </c>
       <c r="E128" t="n">
-        <v>282</v>
+        <v>8233970</v>
       </c>
       <c r="F128" t="n">
-        <v>17065581</v>
+        <v>2478.46</v>
       </c>
       <c r="G128" t="n">
-        <v>1461.9687916597</v>
-      </c>
-      <c r="H128" t="n">
-        <v>441289.999972178</v>
-      </c>
-      <c r="I128" t="n">
-        <v>1178220.0001</v>
+        <v>39490.000002198</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>SLE</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>3047589.7</v>
       </c>
       <c r="D129" t="n">
-        <v>266.4</v>
+        <v>2526</v>
       </c>
       <c r="E129" t="n">
-        <v>900</v>
+        <v>8420641</v>
       </c>
       <c r="F129" t="n">
-        <v>11213284</v>
+        <v>2478.46</v>
       </c>
       <c r="G129" t="n">
-        <v>1375.42364473082</v>
-      </c>
-      <c r="H129" t="n">
-        <v>284273.375008363</v>
-      </c>
-      <c r="I129" t="n">
-        <v>17389.9988175875</v>
+        <v>39490.000002198</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>TGO</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>1153109</v>
       </c>
       <c r="D130" t="n">
-        <v>288</v>
+        <v>1168</v>
       </c>
       <c r="E130" t="n">
-        <v>900</v>
+        <v>7288383</v>
       </c>
       <c r="F130" t="n">
-        <v>11194299</v>
+        <v>1734.4</v>
       </c>
       <c r="G130" t="n">
-        <v>1145.93832801208</v>
-      </c>
-      <c r="H130" t="n">
-        <v>283920.499988151</v>
-      </c>
-      <c r="I130" t="n">
-        <v>62200.00068975</v>
+        <v>38199.99999732</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>SWZ</t>
+          <t>TGO</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C131" t="n">
-        <v>710.27</v>
+        <v>1039135</v>
       </c>
       <c r="D131" t="n">
-        <v>867.6</v>
+        <v>1168</v>
       </c>
       <c r="E131" t="n">
-        <v>788</v>
+        <v>7473229</v>
       </c>
       <c r="F131" t="n">
-        <v>1125865</v>
+        <v>975.34</v>
       </c>
       <c r="G131" t="n">
-        <v>8715.03126827338</v>
-      </c>
-      <c r="H131" t="n">
-        <v>12160.00000024</v>
-      </c>
-      <c r="I131" t="n">
-        <v>11519700.00045</v>
+        <v>38199.99999732</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>SWZ</t>
+          <t>TGO</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C132" t="n">
-        <v>686.7</v>
+        <v>1027476</v>
       </c>
       <c r="D132" t="n">
-        <v>901.8</v>
+        <v>1168</v>
       </c>
       <c r="E132" t="n">
-        <v>788</v>
+        <v>7661354</v>
       </c>
       <c r="F132" t="n">
-        <v>1133936</v>
+        <v>12345.13</v>
       </c>
       <c r="G132" t="n">
-        <v>8792.214728007009</v>
-      </c>
-      <c r="H132" t="n">
-        <v>12120.00000016</v>
-      </c>
-      <c r="I132" t="n">
-        <v>10993400.00004</v>
+        <v>38199.99999732</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>SWZ</t>
+          <t>TGO</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C133" t="n">
-        <v>683.13</v>
+        <v>1041682</v>
       </c>
       <c r="D133" t="n">
-        <v>895.3200000000001</v>
+        <v>1168</v>
       </c>
       <c r="E133" t="n">
-        <v>788</v>
+        <v>7852795</v>
       </c>
       <c r="F133" t="n">
-        <v>1142524</v>
+        <v>4270.16</v>
       </c>
       <c r="G133" t="n">
-        <v>8750.877726589189</v>
-      </c>
-      <c r="H133" t="n">
-        <v>12080.00000008</v>
-      </c>
-      <c r="I133" t="n">
-        <v>10146000.0003</v>
+        <v>38199.99999732</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>SWZ</t>
+          <t>TGO</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C134" t="n">
-        <v>689.52</v>
+        <v>1089472</v>
       </c>
       <c r="D134" t="n">
-        <v>1148.4</v>
+        <v>1168</v>
       </c>
       <c r="E134" t="n">
-        <v>788</v>
+        <v>8046679</v>
       </c>
       <c r="F134" t="n">
-        <v>1151390</v>
+        <v>20706.03</v>
       </c>
       <c r="G134" t="n">
-        <v>8519.58438570808</v>
-      </c>
-      <c r="H134" t="n">
-        <v>12040</v>
-      </c>
-      <c r="I134" t="n">
-        <v>12716699.99967</v>
+        <v>38199.99999732</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>SWZ</t>
+          <t>TGO</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C135" t="n">
-        <v>701.5</v>
+        <v>1117880</v>
       </c>
       <c r="D135" t="n">
-        <v>1285.2</v>
+        <v>1168</v>
       </c>
       <c r="E135" t="n">
-        <v>788</v>
+        <v>8243094</v>
       </c>
       <c r="F135" t="n">
-        <v>1160428</v>
+        <v>3501.9</v>
       </c>
       <c r="G135" t="n">
-        <v>8640.083597942939</v>
-      </c>
-      <c r="H135" t="n">
-        <v>12010.0000008</v>
-      </c>
-      <c r="I135" t="n">
-        <v>11255599.99965</v>
+        <v>38199.99999732</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>SWZ</t>
+          <t>TGO</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C136" t="n">
-        <v>691.39</v>
+        <v>1158044</v>
       </c>
       <c r="D136" t="n">
-        <v>871.2</v>
+        <v>1168</v>
       </c>
       <c r="E136" t="n">
-        <v>788</v>
+        <v>8442580</v>
       </c>
       <c r="F136" t="n">
-        <v>1169613</v>
+        <v>3501.9</v>
       </c>
       <c r="G136" t="n">
-        <v>9083.437860865941</v>
-      </c>
-      <c r="H136" t="n">
-        <v>11970.00000072</v>
-      </c>
-      <c r="I136" t="n">
-        <v>11209999.99941</v>
+        <v>38199.99999732</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>SWZ</t>
+          <t>TGO</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C137" t="n">
-        <v>694.14</v>
+        <v>1204249</v>
       </c>
       <c r="D137" t="n">
-        <v>874.8</v>
+        <v>1168</v>
       </c>
       <c r="E137" t="n">
-        <v>788</v>
+        <v>8644829</v>
       </c>
       <c r="F137" t="n">
-        <v>1180655</v>
+        <v>1052.59</v>
       </c>
       <c r="G137" t="n">
-        <v>9077.231980209081</v>
-      </c>
-      <c r="H137" t="n">
-        <v>11950.00000068</v>
-      </c>
-      <c r="I137" t="n">
-        <v>10966799.99931</v>
+        <v>38199.99999732</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>SWZ</t>
+          <t>TZA</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="C138" t="n">
-        <v>695.67</v>
+        <v>4992759</v>
       </c>
       <c r="D138" t="n">
-        <v>792</v>
+        <v>1071</v>
       </c>
       <c r="E138" t="n">
-        <v>788</v>
+        <v>50814552</v>
       </c>
       <c r="F138" t="n">
-        <v>1192271</v>
+        <v>84009.94</v>
       </c>
       <c r="G138" t="n">
-        <v>10202.5096087228</v>
-      </c>
-      <c r="H138" t="n">
-        <v>11950.00000068</v>
-      </c>
-      <c r="I138" t="n">
-        <v>10225959.99987</v>
+        <v>382481.99996826</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>TCD</t>
+          <t>TZA</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C139" t="n">
-        <v>809</v>
+        <v>5886440</v>
       </c>
       <c r="D139" t="n">
-        <v>40.4528</v>
+        <v>1071</v>
       </c>
       <c r="E139" t="n">
-        <v>322</v>
+        <v>52542823</v>
       </c>
       <c r="F139" t="n">
-        <v>13697126</v>
+        <v>76515.98</v>
       </c>
       <c r="G139" t="n">
-        <v>1697.79972021064</v>
-      </c>
-      <c r="H139" t="n">
-        <v>502360.00003168</v>
-      </c>
-      <c r="I139" t="n">
-        <v>12913079.998</v>
+        <v>384605.00001714</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>TCD</t>
+          <t>TZA</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C140" t="n">
-        <v>965</v>
+        <v>5201451.35</v>
       </c>
       <c r="D140" t="n">
-        <v>41.2242</v>
+        <v>1071</v>
       </c>
       <c r="E140" t="n">
-        <v>322</v>
+        <v>54401802</v>
       </c>
       <c r="F140" t="n">
-        <v>14140274</v>
+        <v>107567.09</v>
       </c>
       <c r="G140" t="n">
-        <v>1852.30338294451</v>
-      </c>
-      <c r="H140" t="n">
-        <v>502369.99996848</v>
-      </c>
-      <c r="I140" t="n">
-        <v>12712869.9984</v>
+        <v>386727.99997744</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>TCD</t>
+          <t>TZA</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C141" t="n">
-        <v>1742</v>
+        <v>4025265</v>
       </c>
       <c r="D141" t="n">
-        <v>39.604</v>
+        <v>1071</v>
       </c>
       <c r="E141" t="n">
-        <v>322</v>
+        <v>56267032</v>
       </c>
       <c r="F141" t="n">
-        <v>14592585</v>
+        <v>106012.11</v>
       </c>
       <c r="G141" t="n">
-        <v>1702.25602983866</v>
-      </c>
-      <c r="H141" t="n">
-        <v>503380.0000071999</v>
-      </c>
-      <c r="I141" t="n">
-        <v>12769279.9989</v>
+        <v>388851.00002632</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>TCD</t>
+          <t>TZA</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C142" t="n">
-        <v>1870</v>
+        <v>8372217</v>
       </c>
       <c r="D142" t="n">
-        <v>37.5977</v>
+        <v>1071</v>
       </c>
       <c r="E142" t="n">
-        <v>322</v>
+        <v>58090443</v>
       </c>
       <c r="F142" t="n">
-        <v>15085884</v>
+        <v>141509.48</v>
       </c>
       <c r="G142" t="n">
-        <v>1626.98040158869</v>
-      </c>
-      <c r="H142" t="n">
-        <v>503380.0000071999</v>
-      </c>
-      <c r="I142" t="n">
-        <v>16226359.9974</v>
+        <v>390973.9999866199</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>TCD</t>
+          <t>TZA</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C143" t="n">
-        <v>1798.02</v>
+        <v>8184093</v>
       </c>
       <c r="D143" t="n">
-        <v>38.8011</v>
+        <v>1071</v>
       </c>
       <c r="E143" t="n">
-        <v>322</v>
+        <v>59872579</v>
       </c>
       <c r="F143" t="n">
-        <v>15604210</v>
+        <v>78207.35000000001</v>
       </c>
       <c r="G143" t="n">
-        <v>1691.46154747262</v>
-      </c>
-      <c r="H143" t="n">
-        <v>503380.0000071999</v>
-      </c>
-      <c r="I143" t="n">
-        <v>15943140.0019</v>
+        <v>393097.0000355</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>TCD</t>
+          <t>TZA</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C144" t="n">
-        <v>1613</v>
+        <v>7088393.74</v>
       </c>
       <c r="D144" t="n">
-        <v>37.087</v>
+        <v>1071</v>
       </c>
       <c r="E144" t="n">
-        <v>322</v>
+        <v>61704518</v>
       </c>
       <c r="F144" t="n">
-        <v>16126866</v>
+        <v>171354.77</v>
       </c>
       <c r="G144" t="n">
-        <v>1846.97478392739</v>
-      </c>
-      <c r="H144" t="n">
-        <v>503380.0000071999</v>
-      </c>
-      <c r="I144" t="n">
-        <v>12477879.9993</v>
+        <v>395211.99998168</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>TCD</t>
+          <t>TZA</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C145" t="n">
-        <v>1815</v>
+        <v>6150411.4</v>
       </c>
       <c r="D145" t="n">
-        <v>39.0102</v>
+        <v>1071</v>
       </c>
       <c r="E145" t="n">
-        <v>322</v>
+        <v>63588334</v>
       </c>
       <c r="F145" t="n">
-        <v>16644701</v>
+        <v>88895.14</v>
       </c>
       <c r="G145" t="n">
-        <v>1623.25784968104</v>
-      </c>
-      <c r="H145" t="n">
-        <v>503380.0000071999</v>
-      </c>
-      <c r="I145" t="n">
-        <v>11897400.0009</v>
+        <v>395211.99998168</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>TCD</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="C146" t="n">
-        <v>1539.53</v>
+        <v>2812721</v>
       </c>
       <c r="D146" t="n">
-        <v>36.0473</v>
+        <v>1180</v>
       </c>
       <c r="E146" t="n">
-        <v>322</v>
+        <v>36336539</v>
       </c>
       <c r="F146" t="n">
-        <v>17179740</v>
+        <v>6638.66</v>
       </c>
       <c r="G146" t="n">
-        <v>1764.34807562549</v>
-      </c>
-      <c r="H146" t="n">
-        <v>503380.0000071999</v>
-      </c>
-      <c r="I146" t="n">
-        <v>11897400.0009</v>
+        <v>144149.999992992</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>TUN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C147" t="n">
-        <v>1513000</v>
+        <v>2727487</v>
       </c>
       <c r="D147" t="n">
-        <v>3672</v>
+        <v>1180</v>
       </c>
       <c r="E147" t="n">
-        <v>207</v>
+        <v>37477356</v>
       </c>
       <c r="F147" t="n">
-        <v>11428948</v>
+        <v>2079.39</v>
       </c>
       <c r="G147" t="n">
-        <v>10798.7568828305</v>
-      </c>
-      <c r="H147" t="n">
-        <v>97609.99999235199</v>
-      </c>
-      <c r="I147" t="n">
-        <v>118399999.9968</v>
+        <v>144149.999992992</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>TUN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C148" t="n">
-        <v>912570</v>
+        <v>2728988</v>
       </c>
       <c r="D148" t="n">
-        <v>3772.8</v>
+        <v>1180</v>
       </c>
       <c r="E148" t="n">
-        <v>207</v>
+        <v>38748299</v>
       </c>
       <c r="F148" t="n">
-        <v>11557779</v>
+        <v>8538.459999999999</v>
       </c>
       <c r="G148" t="n">
-        <v>10637.4599683237</v>
-      </c>
-      <c r="H148" t="n">
-        <v>98339.999998464</v>
-      </c>
-      <c r="I148" t="n">
-        <v>136500000.0079</v>
+        <v>144149.999992992</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>TUN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C149" t="n">
-        <v>926592</v>
+        <v>2729260</v>
       </c>
       <c r="D149" t="n">
-        <v>4204.8</v>
+        <v>1180</v>
       </c>
       <c r="E149" t="n">
-        <v>207</v>
+        <v>40127085</v>
       </c>
       <c r="F149" t="n">
-        <v>11685667</v>
+        <v>7607.73</v>
       </c>
       <c r="G149" t="n">
-        <v>10845.9676757289</v>
-      </c>
-      <c r="H149" t="n">
-        <v>97025.999996784</v>
-      </c>
-      <c r="I149" t="n">
-        <v>158900000.00732</v>
+        <v>144149.999992992</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>TUN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C150" t="n">
-        <v>1104300</v>
+        <v>4390231</v>
       </c>
       <c r="D150" t="n">
-        <v>4165.2</v>
+        <v>1180</v>
       </c>
       <c r="E150" t="n">
-        <v>207</v>
+        <v>41515395</v>
       </c>
       <c r="F150" t="n">
-        <v>11811443</v>
+        <v>11209</v>
       </c>
       <c r="G150" t="n">
-        <v>11134.9569201511</v>
-      </c>
-      <c r="H150" t="n">
-        <v>97428.99999939199</v>
-      </c>
-      <c r="I150" t="n">
-        <v>127099999.988919</v>
+        <v>144149.999992992</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>TUN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C151" t="n">
-        <v>1075400</v>
+        <v>2660000</v>
       </c>
       <c r="D151" t="n">
-        <v>4201.2</v>
+        <v>1180</v>
       </c>
       <c r="E151" t="n">
-        <v>207</v>
+        <v>42949080</v>
       </c>
       <c r="F151" t="n">
-        <v>11933041</v>
+        <v>11952.8</v>
       </c>
       <c r="G151" t="n">
-        <v>11675.1863183148</v>
-      </c>
-      <c r="H151" t="n">
-        <v>97005.00000112</v>
-      </c>
-      <c r="I151" t="n">
-        <v>147100000.000096</v>
+        <v>144149.999992992</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>TUN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C152" t="n">
-        <v>1455000</v>
+        <v>2084000</v>
       </c>
       <c r="D152" t="n">
-        <v>4052.0736</v>
+        <v>1180</v>
       </c>
       <c r="E152" t="n">
-        <v>207</v>
+        <v>44404611</v>
       </c>
       <c r="F152" t="n">
-        <v>12049314</v>
+        <v>7724.8</v>
       </c>
       <c r="G152" t="n">
-        <v>12314.0859431414</v>
-      </c>
-      <c r="H152" t="n">
-        <v>97005.00000112</v>
-      </c>
-      <c r="I152" t="n">
-        <v>143040709.989056</v>
+        <v>144149.999992992</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>TUN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C153" t="n">
-        <v>1042000</v>
+        <v>2257790</v>
       </c>
       <c r="D153" t="n">
-        <v>4746.6972</v>
+        <v>1180</v>
       </c>
       <c r="E153" t="n">
-        <v>207</v>
+        <v>45853778</v>
       </c>
       <c r="F153" t="n">
-        <v>12161723</v>
+        <v>7724.8</v>
       </c>
       <c r="G153" t="n">
-        <v>11734.1698616814</v>
-      </c>
-      <c r="H153" t="n">
-        <v>97005.00000112</v>
-      </c>
-      <c r="I153" t="n">
-        <v>89345980.002462</v>
+        <v>144149.999992992</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>TUN</t>
+          <t>ZMB</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="C154" t="n">
-        <v>1193000</v>
+        <v>919497</v>
       </c>
       <c r="D154" t="n">
-        <v>4746.6972</v>
+        <v>1020</v>
       </c>
       <c r="E154" t="n">
-        <v>207</v>
+        <v>15737793</v>
       </c>
       <c r="F154" t="n">
-        <v>12262946</v>
+        <v>137980.06</v>
       </c>
       <c r="G154" t="n">
-        <v>12159.0545314745</v>
-      </c>
-      <c r="H154" t="n">
-        <v>97005.00000112</v>
-      </c>
-      <c r="I154" t="n">
-        <v>136040709.995955</v>
+        <v>237379.999979754</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>TZA</t>
+          <t>ZMB</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C155" t="n">
-        <v>167000</v>
+        <v>952770</v>
       </c>
       <c r="D155" t="n">
-        <v>648</v>
+        <v>1020</v>
       </c>
       <c r="E155" t="n">
-        <v>1071</v>
+        <v>16248230</v>
       </c>
       <c r="F155" t="n">
-        <v>50814552</v>
+        <v>165494.81</v>
       </c>
       <c r="G155" t="n">
-        <v>2200.939453125</v>
-      </c>
-      <c r="H155" t="n">
-        <v>382481.99996826</v>
-      </c>
-      <c r="I155" t="n">
-        <v>120202249.9946509</v>
+        <v>237389.999987695</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>TZA</t>
+          <t>ZMB</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C156" t="n">
-        <v>72483</v>
+        <v>2222843.65</v>
       </c>
       <c r="D156" t="n">
-        <v>640.8</v>
+        <v>1020</v>
       </c>
       <c r="E156" t="n">
-        <v>1071</v>
+        <v>16767761</v>
       </c>
       <c r="F156" t="n">
-        <v>52542823</v>
+        <v>188107.38</v>
       </c>
       <c r="G156" t="n">
-        <v>2294.26440429688</v>
-      </c>
-      <c r="H156" t="n">
-        <v>384605.00001714</v>
-      </c>
-      <c r="I156" t="n">
-        <v>120355089.998787</v>
+        <v>237389.999987695</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>TZA</t>
+          <t>ZMB</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C157" t="n">
-        <v>76000</v>
+        <v>3695182</v>
       </c>
       <c r="D157" t="n">
-        <v>576</v>
+        <v>1020</v>
       </c>
       <c r="E157" t="n">
-        <v>1071</v>
+        <v>17298054</v>
       </c>
       <c r="F157" t="n">
-        <v>54401802</v>
+        <v>210689.85</v>
       </c>
       <c r="G157" t="n">
-        <v>2408.84130859375</v>
-      </c>
-      <c r="H157" t="n">
-        <v>386727.99997744</v>
-      </c>
-      <c r="I157" t="n">
-        <v>170160679.998054</v>
+        <v>238389.999964066</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>TZA</t>
+          <t>ZMB</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C158" t="n">
-        <v>50467</v>
+        <v>4102300</v>
       </c>
       <c r="D158" t="n">
-        <v>576</v>
+        <v>1020</v>
       </c>
       <c r="E158" t="n">
-        <v>1071</v>
+        <v>17835893</v>
       </c>
       <c r="F158" t="n">
-        <v>56267032</v>
+        <v>147994.86</v>
       </c>
       <c r="G158" t="n">
-        <v>2445.50634765625</v>
-      </c>
-      <c r="H158" t="n">
-        <v>388851.00002632</v>
-      </c>
-      <c r="I158" t="n">
-        <v>163616020.060862</v>
+        <v>238389.999964066</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>TZA</t>
+          <t>ZMB</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C159" t="n">
-        <v>56651</v>
+        <v>4036584</v>
       </c>
       <c r="D159" t="n">
-        <v>583.2</v>
+        <v>1020</v>
       </c>
       <c r="E159" t="n">
-        <v>1071</v>
+        <v>18380477</v>
       </c>
       <c r="F159" t="n">
-        <v>58090443</v>
+        <v>167640.43</v>
       </c>
       <c r="G159" t="n">
-        <v>2697.20166015625</v>
-      </c>
-      <c r="H159" t="n">
-        <v>390973.9999866199</v>
-      </c>
-      <c r="I159" t="n">
-        <v>213737189.953266</v>
+        <v>238389.999964066</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>TZA</t>
+          <t>ZMB</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C160" t="n">
-        <v>63388</v>
+        <v>3944895.75</v>
       </c>
       <c r="D160" t="n">
-        <v>510.768</v>
+        <v>1020</v>
       </c>
       <c r="E160" t="n">
-        <v>1071</v>
+        <v>18927715</v>
       </c>
       <c r="F160" t="n">
-        <v>59872579</v>
+        <v>191734.02</v>
       </c>
       <c r="G160" t="n">
-        <v>2947.126953125</v>
-      </c>
-      <c r="H160" t="n">
-        <v>393097.0000355</v>
-      </c>
-      <c r="I160" t="n">
-        <v>119625680.0044722</v>
+        <v>238389.999964066</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>TZA</t>
+          <t>ZMB</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C161" t="n">
-        <v>77276</v>
+        <v>3800152.73</v>
       </c>
       <c r="D161" t="n">
-        <v>433.512</v>
+        <v>1020</v>
       </c>
       <c r="E161" t="n">
-        <v>1071</v>
+        <v>19473125</v>
       </c>
       <c r="F161" t="n">
-        <v>61704518</v>
+        <v>178634.75</v>
       </c>
       <c r="G161" t="n">
-        <v>3251.58837890625</v>
-      </c>
-      <c r="H161" t="n">
-        <v>395211.99998168</v>
-      </c>
-      <c r="I161" t="n">
-        <v>222026300.023825</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>TZA</t>
-        </is>
-      </c>
-      <c r="B162" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C162" t="n">
-        <v>70000</v>
-      </c>
-      <c r="D162" t="n">
-        <v>433.512</v>
-      </c>
-      <c r="E162" t="n">
-        <v>1071</v>
-      </c>
-      <c r="F162" t="n">
-        <v>63588334</v>
-      </c>
-      <c r="G162" t="n">
-        <v>3451.4482421875</v>
-      </c>
-      <c r="H162" t="n">
-        <v>395211.99998168</v>
-      </c>
-      <c r="I162" t="n">
-        <v>124902300.000005</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>UGA</t>
-        </is>
-      </c>
-      <c r="B163" t="n">
-        <v>2014</v>
-      </c>
-      <c r="C163" t="n">
-        <v>22076</v>
-      </c>
-      <c r="D163" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="E163" t="n">
-        <v>1180</v>
-      </c>
-      <c r="F163" t="n">
-        <v>36336539</v>
-      </c>
-      <c r="G163" t="n">
-        <v>2137.474174733</v>
-      </c>
-      <c r="H163" t="n">
-        <v>144149.999992992</v>
-      </c>
-      <c r="I163" t="n">
-        <v>12557969.9988</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>UGA</t>
-        </is>
-      </c>
-      <c r="B164" t="n">
-        <v>2015</v>
-      </c>
-      <c r="C164" t="n">
-        <v>22078</v>
-      </c>
-      <c r="D164" t="n">
-        <v>5.258</v>
-      </c>
-      <c r="E164" t="n">
-        <v>1180</v>
-      </c>
-      <c r="F164" t="n">
-        <v>37477356</v>
-      </c>
-      <c r="G164" t="n">
-        <v>2193.1255730684</v>
-      </c>
-      <c r="H164" t="n">
-        <v>144149.999992992</v>
-      </c>
-      <c r="I164" t="n">
-        <v>10949670.0024</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>UGA</t>
-        </is>
-      </c>
-      <c r="B165" t="n">
-        <v>2016</v>
-      </c>
-      <c r="C165" t="n">
-        <v>22100</v>
-      </c>
-      <c r="D165" t="n">
-        <v>5.4843</v>
-      </c>
-      <c r="E165" t="n">
-        <v>1180</v>
-      </c>
-      <c r="F165" t="n">
-        <v>38748299</v>
-      </c>
-      <c r="G165" t="n">
-        <v>2168.13931565235</v>
-      </c>
-      <c r="H165" t="n">
-        <v>144149.999992992</v>
-      </c>
-      <c r="I165" t="n">
-        <v>13184849.9994</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>UGA</t>
-        </is>
-      </c>
-      <c r="B166" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C166" t="n">
-        <v>22100</v>
-      </c>
-      <c r="D166" t="n">
-        <v>5.9241</v>
-      </c>
-      <c r="E166" t="n">
-        <v>1180</v>
-      </c>
-      <c r="F166" t="n">
-        <v>40127085</v>
-      </c>
-      <c r="G166" t="n">
-        <v>2160.6626736512</v>
-      </c>
-      <c r="H166" t="n">
-        <v>144149.999992992</v>
-      </c>
-      <c r="I166" t="n">
-        <v>14228419.9995</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>UGA</t>
-        </is>
-      </c>
-      <c r="B167" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C167" t="n">
-        <v>23206</v>
-      </c>
-      <c r="D167" t="n">
-        <v>6.4855</v>
-      </c>
-      <c r="E167" t="n">
-        <v>1180</v>
-      </c>
-      <c r="F167" t="n">
-        <v>41515395</v>
-      </c>
-      <c r="G167" t="n">
-        <v>2314.86638816119</v>
-      </c>
-      <c r="H167" t="n">
-        <v>144149.999992992</v>
-      </c>
-      <c r="I167" t="n">
-        <v>22740259.9995</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>UGA</t>
-        </is>
-      </c>
-      <c r="B168" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C168" t="n">
-        <v>24000</v>
-      </c>
-      <c r="D168" t="n">
-        <v>6.8364</v>
-      </c>
-      <c r="E168" t="n">
-        <v>1180</v>
-      </c>
-      <c r="F168" t="n">
-        <v>42949080</v>
-      </c>
-      <c r="G168" t="n">
-        <v>2444.24828731179</v>
-      </c>
-      <c r="H168" t="n">
-        <v>144149.999992992</v>
-      </c>
-      <c r="I168" t="n">
-        <v>23227280.0016</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>UGA</t>
-        </is>
-      </c>
-      <c r="B169" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C169" t="n">
-        <v>25000</v>
-      </c>
-      <c r="D169" t="n">
-        <v>6.9128</v>
-      </c>
-      <c r="E169" t="n">
-        <v>1180</v>
-      </c>
-      <c r="F169" t="n">
-        <v>44404611</v>
-      </c>
-      <c r="G169" t="n">
-        <v>2535.21570663553</v>
-      </c>
-      <c r="H169" t="n">
-        <v>144149.999992992</v>
-      </c>
-      <c r="I169" t="n">
-        <v>16852249.9968</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>UGA</t>
-        </is>
-      </c>
-      <c r="B170" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C170" t="n">
-        <v>25000</v>
-      </c>
-      <c r="D170" t="n">
-        <v>7.6271</v>
-      </c>
-      <c r="E170" t="n">
-        <v>1180</v>
-      </c>
-      <c r="F170" t="n">
-        <v>45853778</v>
-      </c>
-      <c r="G170" t="n">
-        <v>2688.26683541475</v>
-      </c>
-      <c r="H170" t="n">
-        <v>144149.999992992</v>
-      </c>
-      <c r="I170" t="n">
-        <v>16852249.9968</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>ZAF</t>
-        </is>
-      </c>
-      <c r="B171" t="n">
-        <v>2014</v>
-      </c>
-      <c r="C171" t="n">
-        <v>1750000</v>
-      </c>
-      <c r="D171" t="n">
-        <v>20599.2</v>
-      </c>
-      <c r="E171" t="n">
-        <v>495</v>
-      </c>
-      <c r="F171" t="n">
-        <v>54729551</v>
-      </c>
-      <c r="G171" t="n">
-        <v>13570.1497112664</v>
-      </c>
-      <c r="H171" t="n">
-        <v>963409.999961652</v>
-      </c>
-      <c r="I171" t="n">
-        <v>797900000.04</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>ZAF</t>
-        </is>
-      </c>
-      <c r="B172" t="n">
-        <v>2015</v>
-      </c>
-      <c r="C172" t="n">
-        <v>1440000</v>
-      </c>
-      <c r="D172" t="n">
-        <v>20448</v>
-      </c>
-      <c r="E172" t="n">
-        <v>495</v>
-      </c>
-      <c r="F172" t="n">
-        <v>55876504</v>
-      </c>
-      <c r="G172" t="n">
-        <v>13600.6167977484</v>
-      </c>
-      <c r="H172" t="n">
-        <v>963409.999961652</v>
-      </c>
-      <c r="I172" t="n">
-        <v>752100000</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>ZAF</t>
-        </is>
-      </c>
-      <c r="B173" t="n">
-        <v>2016</v>
-      </c>
-      <c r="C173" t="n">
-        <v>1910000</v>
-      </c>
-      <c r="D173" t="n">
-        <v>21484.8</v>
-      </c>
-      <c r="E173" t="n">
-        <v>495</v>
-      </c>
-      <c r="F173" t="n">
-        <v>56422274</v>
-      </c>
-      <c r="G173" t="n">
-        <v>13719.9431915834</v>
-      </c>
-      <c r="H173" t="n">
-        <v>963409.999961652</v>
-      </c>
-      <c r="I173" t="n">
-        <v>687000000</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>ZAF</t>
-        </is>
-      </c>
-      <c r="B174" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C174" t="n">
-        <v>1535000</v>
-      </c>
-      <c r="D174" t="n">
-        <v>21484.8</v>
-      </c>
-      <c r="E174" t="n">
-        <v>495</v>
-      </c>
-      <c r="F174" t="n">
-        <v>56641209</v>
-      </c>
-      <c r="G174" t="n">
-        <v>13979.5238745701</v>
-      </c>
-      <c r="H174" t="n">
-        <v>963409.999961652</v>
-      </c>
-      <c r="I174" t="n">
-        <v>873900000</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>ZAF</t>
-        </is>
-      </c>
-      <c r="B175" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C175" t="n">
-        <v>1868000</v>
-      </c>
-      <c r="D175" t="n">
-        <v>21888</v>
-      </c>
-      <c r="E175" t="n">
-        <v>495</v>
-      </c>
-      <c r="F175" t="n">
-        <v>57339635</v>
-      </c>
-      <c r="G175" t="n">
-        <v>13643.7741390091</v>
-      </c>
-      <c r="H175" t="n">
-        <v>963409.999961652</v>
-      </c>
-      <c r="I175" t="n">
-        <v>1081086210</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>ZAF</t>
-        </is>
-      </c>
-      <c r="B176" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C176" t="n">
-        <v>1535000</v>
-      </c>
-      <c r="D176" t="n">
-        <v>25135.1316</v>
-      </c>
-      <c r="E176" t="n">
-        <v>495</v>
-      </c>
-      <c r="F176" t="n">
-        <v>58087055</v>
-      </c>
-      <c r="G176" t="n">
-        <v>13706.713815854</v>
-      </c>
-      <c r="H176" t="n">
-        <v>963409.999961652</v>
-      </c>
-      <c r="I176" t="n">
-        <v>1101489210</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>ZAF</t>
-        </is>
-      </c>
-      <c r="B177" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C177" t="n">
-        <v>2120000</v>
-      </c>
-      <c r="D177" t="n">
-        <v>20522.6208</v>
-      </c>
-      <c r="E177" t="n">
-        <v>495</v>
-      </c>
-      <c r="F177" t="n">
-        <v>58801927</v>
-      </c>
-      <c r="G177" t="n">
-        <v>13062.672772759</v>
-      </c>
-      <c r="H177" t="n">
-        <v>963409.999961652</v>
-      </c>
-      <c r="I177" t="n">
-        <v>1131043590</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>ZAF</t>
-        </is>
-      </c>
-      <c r="B178" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C178" t="n">
-        <v>2285000</v>
-      </c>
-      <c r="D178" t="n">
-        <v>20522.6208</v>
-      </c>
-      <c r="E178" t="n">
-        <v>495</v>
-      </c>
-      <c r="F178" t="n">
-        <v>59392255</v>
-      </c>
-      <c r="G178" t="n">
-        <v>14172.5442514653</v>
-      </c>
-      <c r="H178" t="n">
-        <v>963409.999961652</v>
-      </c>
-      <c r="I178" t="n">
-        <v>1255665879.6</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>ZMB</t>
-        </is>
-      </c>
-      <c r="B179" t="n">
-        <v>2014</v>
-      </c>
-      <c r="C179" t="n">
-        <v>201504</v>
-      </c>
-      <c r="D179" t="n">
-        <v>867.6</v>
-      </c>
-      <c r="E179" t="n">
-        <v>1020</v>
-      </c>
-      <c r="F179" t="n">
-        <v>15737793</v>
-      </c>
-      <c r="G179" t="n">
-        <v>3475.75962936452</v>
-      </c>
-      <c r="H179" t="n">
-        <v>237379.999979754</v>
-      </c>
-      <c r="I179" t="n">
-        <v>191774060.011</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>ZMB</t>
-        </is>
-      </c>
-      <c r="B180" t="n">
-        <v>2015</v>
-      </c>
-      <c r="C180" t="n">
-        <v>214230</v>
-      </c>
-      <c r="D180" t="n">
-        <v>937.4400000000001</v>
-      </c>
-      <c r="E180" t="n">
-        <v>1020</v>
-      </c>
-      <c r="F180" t="n">
-        <v>16248230</v>
-      </c>
-      <c r="G180" t="n">
-        <v>3368.46031177651</v>
-      </c>
-      <c r="H180" t="n">
-        <v>237389.999987695</v>
-      </c>
-      <c r="I180" t="n">
-        <v>212459680.018</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>ZMB</t>
-        </is>
-      </c>
-      <c r="B181" t="n">
-        <v>2016</v>
-      </c>
-      <c r="C181" t="n">
-        <v>159533</v>
-      </c>
-      <c r="D181" t="n">
-        <v>820.8</v>
-      </c>
-      <c r="E181" t="n">
-        <v>1020</v>
-      </c>
-      <c r="F181" t="n">
-        <v>16767761</v>
-      </c>
-      <c r="G181" t="n">
-        <v>3342.33199112982</v>
-      </c>
-      <c r="H181" t="n">
-        <v>237389.999987695</v>
-      </c>
-      <c r="I181" t="n">
-        <v>243145120.01</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>ZMB</t>
-        </is>
-      </c>
-      <c r="B182" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C182" t="n">
-        <v>193713.15</v>
-      </c>
-      <c r="D182" t="n">
-        <v>941.4</v>
-      </c>
-      <c r="E182" t="n">
-        <v>1020</v>
-      </c>
-      <c r="F182" t="n">
-        <v>17298054</v>
-      </c>
-      <c r="G182" t="n">
-        <v>3419.71783494745</v>
-      </c>
-      <c r="H182" t="n">
         <v>238389.999964066</v>
-      </c>
-      <c r="I182" t="n">
-        <v>273801080.002</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>ZMB</t>
-        </is>
-      </c>
-      <c r="B183" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C183" t="n">
-        <v>114462.73</v>
-      </c>
-      <c r="D183" t="n">
-        <v>1069.2</v>
-      </c>
-      <c r="E183" t="n">
-        <v>1020</v>
-      </c>
-      <c r="F183" t="n">
-        <v>17835893</v>
-      </c>
-      <c r="G183" t="n">
-        <v>3468.84412099631</v>
-      </c>
-      <c r="H183" t="n">
-        <v>238389.999964066</v>
-      </c>
-      <c r="I183" t="n">
-        <v>199550669.998</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>ZMB</t>
-        </is>
-      </c>
-      <c r="B184" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C184" t="n">
-        <v>151850.47</v>
-      </c>
-      <c r="D184" t="n">
-        <v>1125.216</v>
-      </c>
-      <c r="E184" t="n">
-        <v>1020</v>
-      </c>
-      <c r="F184" t="n">
-        <v>18380477</v>
-      </c>
-      <c r="G184" t="n">
-        <v>3385.78657047215</v>
-      </c>
-      <c r="H184" t="n">
-        <v>238389.999964066</v>
-      </c>
-      <c r="I184" t="n">
-        <v>256787280</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>ZMB</t>
-        </is>
-      </c>
-      <c r="B185" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C185" t="n">
-        <v>191619.8</v>
-      </c>
-      <c r="D185" t="n">
-        <v>941.1011999999999</v>
-      </c>
-      <c r="E185" t="n">
-        <v>1020</v>
-      </c>
-      <c r="F185" t="n">
-        <v>18927715</v>
-      </c>
-      <c r="G185" t="n">
-        <v>3179.26541108277</v>
-      </c>
-      <c r="H185" t="n">
-        <v>238389.999964066</v>
-      </c>
-      <c r="I185" t="n">
-        <v>303103349.986</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>ZMB</t>
-        </is>
-      </c>
-      <c r="B186" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C186" t="n">
-        <v>205881.95</v>
-      </c>
-      <c r="D186" t="n">
-        <v>1057.4856</v>
-      </c>
-      <c r="E186" t="n">
-        <v>1020</v>
-      </c>
-      <c r="F186" t="n">
-        <v>19473125</v>
-      </c>
-      <c r="G186" t="n">
-        <v>3526.50741804083</v>
-      </c>
-      <c r="H186" t="n">
-        <v>238389.999964066</v>
-      </c>
-      <c r="I186" t="n">
-        <v>242837330.014</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>ZWE</t>
-        </is>
-      </c>
-      <c r="B187" t="n">
-        <v>2014</v>
-      </c>
-      <c r="C187" t="n">
-        <v>40000</v>
-      </c>
-      <c r="D187" t="n">
-        <v>2473.2</v>
-      </c>
-      <c r="E187" t="n">
-        <v>657</v>
-      </c>
-      <c r="F187" t="n">
-        <v>13855753</v>
-      </c>
-      <c r="G187" t="n">
-        <v>2618.24085915746</v>
-      </c>
-      <c r="H187" t="n">
-        <v>161999.999984715</v>
-      </c>
-      <c r="I187" t="n">
-        <v>103100000</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>ZWE</t>
-        </is>
-      </c>
-      <c r="B188" t="n">
-        <v>2015</v>
-      </c>
-      <c r="C188" t="n">
-        <v>45302</v>
-      </c>
-      <c r="D188" t="n">
-        <v>3499.2</v>
-      </c>
-      <c r="E188" t="n">
-        <v>657</v>
-      </c>
-      <c r="F188" t="n">
-        <v>14154937</v>
-      </c>
-      <c r="G188" t="n">
-        <v>2692.29070035903</v>
-      </c>
-      <c r="H188" t="n">
-        <v>161999.999984715</v>
-      </c>
-      <c r="I188" t="n">
-        <v>78600000</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>ZWE</t>
-        </is>
-      </c>
-      <c r="B189" t="n">
-        <v>2016</v>
-      </c>
-      <c r="C189" t="n">
-        <v>42008</v>
-      </c>
-      <c r="D189" t="n">
-        <v>1771.2</v>
-      </c>
-      <c r="E189" t="n">
-        <v>657</v>
-      </c>
-      <c r="F189" t="n">
-        <v>14452704</v>
-      </c>
-      <c r="G189" t="n">
-        <v>2825.35716474699</v>
-      </c>
-      <c r="H189" t="n">
-        <v>161999.999984715</v>
-      </c>
-      <c r="I189" t="n">
-        <v>130300000</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>ZWE</t>
-        </is>
-      </c>
-      <c r="B190" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C190" t="n">
-        <v>38715</v>
-      </c>
-      <c r="D190" t="n">
-        <v>1548</v>
-      </c>
-      <c r="E190" t="n">
-        <v>657</v>
-      </c>
-      <c r="F190" t="n">
-        <v>14751101</v>
-      </c>
-      <c r="G190" t="n">
-        <v>2435.79435796907</v>
-      </c>
-      <c r="H190" t="n">
-        <v>161999.999984715</v>
-      </c>
-      <c r="I190" t="n">
-        <v>146400000</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>ZWE</t>
-        </is>
-      </c>
-      <c r="B191" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C191" t="n">
-        <v>45000</v>
-      </c>
-      <c r="D191" t="n">
-        <v>1800</v>
-      </c>
-      <c r="E191" t="n">
-        <v>657</v>
-      </c>
-      <c r="F191" t="n">
-        <v>15052184</v>
-      </c>
-      <c r="G191" t="n">
-        <v>2611.32640893323</v>
-      </c>
-      <c r="H191" t="n">
-        <v>161999.999984715</v>
-      </c>
-      <c r="I191" t="n">
-        <v>132800000</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>ZWE</t>
-        </is>
-      </c>
-      <c r="B192" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C192" t="n">
-        <v>94685</v>
-      </c>
-      <c r="D192" t="n">
-        <v>1583.64</v>
-      </c>
-      <c r="E192" t="n">
-        <v>657</v>
-      </c>
-      <c r="F192" t="n">
-        <v>15354608</v>
-      </c>
-      <c r="G192" t="n">
-        <v>2711.52933410429</v>
-      </c>
-      <c r="H192" t="n">
-        <v>161999.999984715</v>
-      </c>
-      <c r="I192" t="n">
-        <v>132800000</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>ZWE</t>
-        </is>
-      </c>
-      <c r="B193" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C193" t="n">
-        <v>212530</v>
-      </c>
-      <c r="D193" t="n">
-        <v>1440.3456</v>
-      </c>
-      <c r="E193" t="n">
-        <v>657</v>
-      </c>
-      <c r="F193" t="n">
-        <v>15669666</v>
-      </c>
-      <c r="G193" t="n">
-        <v>2784.87239456881</v>
-      </c>
-      <c r="H193" t="n">
-        <v>161999.999984715</v>
-      </c>
-      <c r="I193" t="n">
-        <v>103900000</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>ZWE</t>
-        </is>
-      </c>
-      <c r="B194" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C194" t="n">
-        <v>337212</v>
-      </c>
-      <c r="D194" t="n">
-        <v>1440.3456</v>
-      </c>
-      <c r="E194" t="n">
-        <v>657</v>
-      </c>
-      <c r="F194" t="n">
-        <v>15993524</v>
-      </c>
-      <c r="G194" t="n">
-        <v>3276.26775276077</v>
-      </c>
-      <c r="H194" t="n">
-        <v>161999.999984715</v>
-      </c>
-      <c r="I194" t="n">
-        <v>103900000</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregrated.xlsx
+++ b/output/aggregrated.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G161"/>
+  <dimension ref="A1:G115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>20. Agriculture land area (sq. km)</t>
+          <t>20. Agricultural land area (sq. km)</t>
         </is>
       </c>
     </row>
@@ -873,3600 +873,2450 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Burkina Faso</t>
+          <t>Central African Republic</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>2014</v>
       </c>
       <c r="C18" t="n">
-        <v>23000</v>
+        <v>997347</v>
       </c>
       <c r="D18" t="n">
-        <v>748</v>
+        <v>1343</v>
       </c>
       <c r="E18" t="n">
-        <v>18169842</v>
+        <v>4798734</v>
       </c>
       <c r="F18" t="n">
-        <v>48799.56</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>118500.00000336</v>
+        <v>49070.0000026386</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Burkina Faso</t>
+          <t>Central African Republic</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>2015</v>
       </c>
       <c r="C19" t="n">
-        <v>23000</v>
+        <v>990237</v>
       </c>
       <c r="D19" t="n">
-        <v>748</v>
+        <v>1343</v>
       </c>
       <c r="E19" t="n">
-        <v>18718019</v>
+        <v>4819333</v>
       </c>
       <c r="F19" t="n">
-        <v>51085.61</v>
+        <v>219.25</v>
       </c>
       <c r="G19" t="n">
-        <v>119859.99999408</v>
+        <v>49070.0000026386</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Burkina Faso</t>
+          <t>Central African Republic</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>2016</v>
       </c>
       <c r="C20" t="n">
-        <v>23000</v>
+        <v>1439988</v>
       </c>
       <c r="D20" t="n">
-        <v>748</v>
+        <v>1343</v>
       </c>
       <c r="E20" t="n">
-        <v>19275498</v>
+        <v>4904177</v>
       </c>
       <c r="F20" t="n">
-        <v>67638.22</v>
+        <v>210.43</v>
       </c>
       <c r="G20" t="n">
-        <v>121019.99999904</v>
+        <v>49070.0000026386</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Burkina Faso</t>
+          <t>Central African Republic</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>2017</v>
       </c>
       <c r="C21" t="n">
-        <v>23000</v>
+        <v>1461120</v>
       </c>
       <c r="D21" t="n">
-        <v>748</v>
+        <v>1343</v>
       </c>
       <c r="E21" t="n">
-        <v>19835858</v>
+        <v>4996741</v>
       </c>
       <c r="F21" t="n">
-        <v>58292.15</v>
+        <v>86.18000000000001</v>
       </c>
       <c r="G21" t="n">
-        <v>122170.00000608</v>
+        <v>49070.0000026386</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Burkina Faso</t>
+          <t>Central African Republic</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>2018</v>
       </c>
       <c r="C22" t="n">
-        <v>17000</v>
+        <v>1519565</v>
       </c>
       <c r="D22" t="n">
-        <v>748</v>
+        <v>1343</v>
       </c>
       <c r="E22" t="n">
-        <v>20392723</v>
+        <v>5094780</v>
       </c>
       <c r="F22" t="n">
-        <v>56654.7</v>
+        <v>213.5</v>
       </c>
       <c r="G22" t="n">
-        <v>124130.0000088</v>
+        <v>49090.0000030434</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Burkina Faso</t>
+          <t>Central African Republic</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>2019</v>
       </c>
       <c r="C23" t="n">
-        <v>17000</v>
+        <v>1580347</v>
       </c>
       <c r="D23" t="n">
-        <v>748</v>
+        <v>1343</v>
       </c>
       <c r="E23" t="n">
-        <v>20951639</v>
+        <v>5209324</v>
       </c>
       <c r="F23" t="n">
-        <v>30051.78</v>
+        <v>208.73</v>
       </c>
       <c r="G23" t="n">
-        <v>125190.0000072</v>
+        <v>49090.0000030434</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Burkina Faso</t>
+          <t>Central African Republic</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>2020</v>
       </c>
       <c r="C24" t="n">
-        <v>17000</v>
+        <v>1031200</v>
       </c>
       <c r="D24" t="n">
-        <v>748</v>
+        <v>1343</v>
       </c>
       <c r="E24" t="n">
-        <v>21522626</v>
+        <v>5343020</v>
       </c>
       <c r="F24" t="n">
-        <v>50466.13</v>
+        <v>223.7</v>
       </c>
       <c r="G24" t="n">
-        <v>126140.00000112</v>
+        <v>49090.0000030434</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Burkina Faso</t>
+          <t>Central African Republic</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>2021</v>
       </c>
       <c r="C25" t="n">
-        <v>17073.51</v>
+        <v>1062100</v>
       </c>
       <c r="D25" t="n">
-        <v>748</v>
+        <v>1343</v>
       </c>
       <c r="E25" t="n">
-        <v>22100683</v>
+        <v>5457154</v>
       </c>
       <c r="F25" t="n">
-        <v>42623.65</v>
+        <v>223.7</v>
       </c>
       <c r="G25" t="n">
-        <v>127400.00001264</v>
+        <v>49099.99999701601</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Central African Republic</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>2014</v>
       </c>
       <c r="C26" t="n">
-        <v>997347</v>
+        <v>4500000</v>
       </c>
       <c r="D26" t="n">
-        <v>1343</v>
+        <v>1604</v>
       </c>
       <c r="E26" t="n">
-        <v>4798734</v>
+        <v>22299585</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>26009.73</v>
       </c>
       <c r="G26" t="n">
-        <v>49070.0000026386</v>
+        <v>97499.99998437299</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Central African Republic</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>2015</v>
       </c>
       <c r="C27" t="n">
-        <v>990237</v>
+        <v>4500000</v>
       </c>
       <c r="D27" t="n">
-        <v>1343</v>
+        <v>1604</v>
       </c>
       <c r="E27" t="n">
-        <v>4819333</v>
+        <v>23012646</v>
       </c>
       <c r="F27" t="n">
-        <v>219.25</v>
+        <v>42633.41</v>
       </c>
       <c r="G27" t="n">
-        <v>49070.0000026386</v>
+        <v>97499.99998437299</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Central African Republic</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>2016</v>
       </c>
       <c r="C28" t="n">
-        <v>1439988</v>
+        <v>5166736</v>
       </c>
       <c r="D28" t="n">
-        <v>1343</v>
+        <v>1604</v>
       </c>
       <c r="E28" t="n">
-        <v>4904177</v>
+        <v>23711630</v>
       </c>
       <c r="F28" t="n">
-        <v>210.43</v>
+        <v>39758.69</v>
       </c>
       <c r="G28" t="n">
-        <v>49070.0000026386</v>
+        <v>97499.99998437299</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Central African Republic</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>2017</v>
       </c>
       <c r="C29" t="n">
-        <v>1461120</v>
+        <v>5322429.1</v>
       </c>
       <c r="D29" t="n">
-        <v>1343</v>
+        <v>1604</v>
       </c>
       <c r="E29" t="n">
-        <v>4996741</v>
+        <v>24393181</v>
       </c>
       <c r="F29" t="n">
-        <v>86.18000000000001</v>
+        <v>46470.08</v>
       </c>
       <c r="G29" t="n">
-        <v>49070.0000026386</v>
+        <v>97499.99998437299</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Central African Republic</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>2018</v>
       </c>
       <c r="C30" t="n">
-        <v>1519565</v>
+        <v>5658753.1</v>
       </c>
       <c r="D30" t="n">
-        <v>1343</v>
+        <v>1604</v>
       </c>
       <c r="E30" t="n">
-        <v>5094780</v>
+        <v>25076747</v>
       </c>
       <c r="F30" t="n">
-        <v>213.5</v>
+        <v>42024.56</v>
       </c>
       <c r="G30" t="n">
-        <v>49090.0000030434</v>
+        <v>97499.99998437299</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Central African Republic</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>2019</v>
       </c>
       <c r="C31" t="n">
-        <v>1580347</v>
+        <v>5676050</v>
       </c>
       <c r="D31" t="n">
-        <v>1343</v>
+        <v>1604</v>
       </c>
       <c r="E31" t="n">
-        <v>5209324</v>
+        <v>25782341</v>
       </c>
       <c r="F31" t="n">
-        <v>208.73</v>
+        <v>42024.56</v>
       </c>
       <c r="G31" t="n">
-        <v>49090.0000030434</v>
+        <v>97499.99998437299</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Central African Republic</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>2020</v>
       </c>
       <c r="C32" t="n">
-        <v>1031200</v>
+        <v>5779726.5</v>
       </c>
       <c r="D32" t="n">
-        <v>1343</v>
+        <v>1604</v>
       </c>
       <c r="E32" t="n">
-        <v>5343020</v>
+        <v>26491087</v>
       </c>
       <c r="F32" t="n">
-        <v>223.7</v>
+        <v>42024.56</v>
       </c>
       <c r="G32" t="n">
-        <v>49090.0000030434</v>
+        <v>97499.99998437299</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Central African Republic</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>2021</v>
       </c>
       <c r="C33" t="n">
-        <v>1062100</v>
+        <v>5904383.24</v>
       </c>
       <c r="D33" t="n">
-        <v>1343</v>
+        <v>1604</v>
       </c>
       <c r="E33" t="n">
-        <v>5457154</v>
+        <v>27198628</v>
       </c>
       <c r="F33" t="n">
-        <v>223.7</v>
+        <v>42024.56</v>
       </c>
       <c r="G33" t="n">
-        <v>49099.99999701601</v>
+        <v>97499.99998437299</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>2014</v>
       </c>
       <c r="C34" t="n">
-        <v>4500000</v>
+        <v>1627000</v>
       </c>
       <c r="D34" t="n">
-        <v>1604</v>
+        <v>1646</v>
       </c>
       <c r="E34" t="n">
-        <v>22299585</v>
+        <v>4944861</v>
       </c>
       <c r="F34" t="n">
-        <v>26009.73</v>
+        <v>290.4</v>
       </c>
       <c r="G34" t="n">
-        <v>97499.99998437299</v>
+        <v>106270.0000126</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>2015</v>
       </c>
       <c r="C35" t="n">
-        <v>4500000</v>
+        <v>1626428</v>
       </c>
       <c r="D35" t="n">
-        <v>1604</v>
+        <v>1646</v>
       </c>
       <c r="E35" t="n">
-        <v>23012646</v>
+        <v>5064386</v>
       </c>
       <c r="F35" t="n">
-        <v>42633.41</v>
+        <v>636.84</v>
       </c>
       <c r="G35" t="n">
-        <v>97499.99998437299</v>
+        <v>106270.0000126</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>2016</v>
       </c>
       <c r="C36" t="n">
-        <v>5166736</v>
+        <v>1527213.51</v>
       </c>
       <c r="D36" t="n">
-        <v>1604</v>
+        <v>1646</v>
       </c>
       <c r="E36" t="n">
-        <v>23711630</v>
+        <v>5186824</v>
       </c>
       <c r="F36" t="n">
-        <v>39758.69</v>
+        <v>318.76</v>
       </c>
       <c r="G36" t="n">
-        <v>97499.99998437299</v>
+        <v>106270.0000126</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>2017</v>
       </c>
       <c r="C37" t="n">
-        <v>5322429.1</v>
+        <v>1537739.4</v>
       </c>
       <c r="D37" t="n">
-        <v>1604</v>
+        <v>1646</v>
       </c>
       <c r="E37" t="n">
-        <v>24393181</v>
+        <v>5312340</v>
       </c>
       <c r="F37" t="n">
-        <v>46470.08</v>
+        <v>332.94</v>
       </c>
       <c r="G37" t="n">
-        <v>97499.99998437299</v>
+        <v>106279.99998635</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>2018</v>
       </c>
       <c r="C38" t="n">
-        <v>5658753.1</v>
+        <v>1571482.02</v>
       </c>
       <c r="D38" t="n">
-        <v>1604</v>
+        <v>1646</v>
       </c>
       <c r="E38" t="n">
-        <v>25076747</v>
+        <v>5441062</v>
       </c>
       <c r="F38" t="n">
-        <v>42024.56</v>
+        <v>503.33</v>
       </c>
       <c r="G38" t="n">
-        <v>97499.99998437299</v>
+        <v>106310.00001005</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>2019</v>
       </c>
       <c r="C39" t="n">
-        <v>5676050</v>
+        <v>1545478.31</v>
       </c>
       <c r="D39" t="n">
-        <v>1604</v>
+        <v>1646</v>
       </c>
       <c r="E39" t="n">
-        <v>25782341</v>
+        <v>5570733</v>
       </c>
       <c r="F39" t="n">
-        <v>42024.56</v>
+        <v>820.85</v>
       </c>
       <c r="G39" t="n">
-        <v>97499.99998437299</v>
+        <v>106329.9999917</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>2020</v>
       </c>
       <c r="C40" t="n">
-        <v>5779726.5</v>
+        <v>1551566.58</v>
       </c>
       <c r="D40" t="n">
-        <v>1604</v>
+        <v>1646</v>
       </c>
       <c r="E40" t="n">
-        <v>26491087</v>
+        <v>5702174</v>
       </c>
       <c r="F40" t="n">
-        <v>42024.56</v>
+        <v>3085.86</v>
       </c>
       <c r="G40" t="n">
-        <v>97499.99998437299</v>
+        <v>106390.00000495</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>2021</v>
       </c>
       <c r="C41" t="n">
-        <v>5904383.24</v>
+        <v>1556175.64</v>
       </c>
       <c r="D41" t="n">
-        <v>1604</v>
+        <v>1646</v>
       </c>
       <c r="E41" t="n">
-        <v>27198628</v>
+        <v>5835806</v>
       </c>
       <c r="F41" t="n">
-        <v>42024.56</v>
+        <v>2172.31</v>
       </c>
       <c r="G41" t="n">
-        <v>97499.99998437299</v>
+        <v>106780.0000057</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Congo</t>
+          <t>Guinea</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>2014</v>
       </c>
       <c r="C42" t="n">
-        <v>1627000</v>
+        <v>1426625</v>
       </c>
       <c r="D42" t="n">
-        <v>1646</v>
+        <v>1651</v>
       </c>
       <c r="E42" t="n">
-        <v>4944861</v>
+        <v>11333365</v>
       </c>
       <c r="F42" t="n">
-        <v>290.4</v>
+        <v>2920.57</v>
       </c>
       <c r="G42" t="n">
-        <v>106270.0000126</v>
+        <v>145330.000005416</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Congo</t>
+          <t>Guinea</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>2015</v>
       </c>
       <c r="C43" t="n">
-        <v>1626428</v>
+        <v>1506659</v>
       </c>
       <c r="D43" t="n">
-        <v>1646</v>
+        <v>1651</v>
       </c>
       <c r="E43" t="n">
-        <v>5064386</v>
+        <v>11625998</v>
       </c>
       <c r="F43" t="n">
-        <v>636.84</v>
+        <v>2412.19</v>
       </c>
       <c r="G43" t="n">
-        <v>106270.0000126</v>
+        <v>145449.99999662</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Congo</t>
+          <t>Guinea</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>2016</v>
       </c>
       <c r="C44" t="n">
-        <v>1527213.51</v>
+        <v>1607082</v>
       </c>
       <c r="D44" t="n">
-        <v>1646</v>
+        <v>1651</v>
       </c>
       <c r="E44" t="n">
-        <v>5186824</v>
+        <v>11930985</v>
       </c>
       <c r="F44" t="n">
-        <v>318.76</v>
+        <v>2229</v>
       </c>
       <c r="G44" t="n">
-        <v>106270.0000126</v>
+        <v>145650.000006532</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Congo</t>
+          <t>Guinea</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>2017</v>
       </c>
       <c r="C45" t="n">
-        <v>1537739.4</v>
+        <v>1751719</v>
       </c>
       <c r="D45" t="n">
-        <v>1646</v>
+        <v>1651</v>
       </c>
       <c r="E45" t="n">
-        <v>5312340</v>
+        <v>12240789</v>
       </c>
       <c r="F45" t="n">
-        <v>332.94</v>
+        <v>13047.26</v>
       </c>
       <c r="G45" t="n">
-        <v>106279.99998635</v>
+        <v>145949.999996828</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Congo</t>
+          <t>Guinea</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>2018</v>
       </c>
       <c r="C46" t="n">
-        <v>1571482.02</v>
+        <v>1895396</v>
       </c>
       <c r="D46" t="n">
-        <v>1646</v>
+        <v>1651</v>
       </c>
       <c r="E46" t="n">
-        <v>5441062</v>
+        <v>12554864</v>
       </c>
       <c r="F46" t="n">
-        <v>503.33</v>
+        <v>7055.31</v>
       </c>
       <c r="G46" t="n">
-        <v>106310.00001005</v>
+        <v>146220.000007752</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Congo</t>
+          <t>Guinea</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>2019</v>
       </c>
       <c r="C47" t="n">
-        <v>1545478.31</v>
+        <v>2145484</v>
       </c>
       <c r="D47" t="n">
-        <v>1646</v>
+        <v>1651</v>
       </c>
       <c r="E47" t="n">
-        <v>5570733</v>
+        <v>12877539</v>
       </c>
       <c r="F47" t="n">
-        <v>820.85</v>
+        <v>7055.31</v>
       </c>
       <c r="G47" t="n">
-        <v>106329.9999917</v>
+        <v>146300.000001888</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Congo</t>
+          <t>Guinea</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>2020</v>
       </c>
       <c r="C48" t="n">
-        <v>1551566.58</v>
+        <v>2523455</v>
       </c>
       <c r="D48" t="n">
-        <v>1646</v>
+        <v>1651</v>
       </c>
       <c r="E48" t="n">
-        <v>5702174</v>
+        <v>13205153</v>
       </c>
       <c r="F48" t="n">
-        <v>3085.86</v>
+        <v>7055.31</v>
       </c>
       <c r="G48" t="n">
-        <v>106390.00000495</v>
+        <v>146349.99999208</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Congo</t>
+          <t>Guinea</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>2021</v>
       </c>
       <c r="C49" t="n">
-        <v>1556175.64</v>
+        <v>2743166</v>
       </c>
       <c r="D49" t="n">
-        <v>1646</v>
+        <v>1651</v>
       </c>
       <c r="E49" t="n">
-        <v>5835806</v>
+        <v>13531906</v>
       </c>
       <c r="F49" t="n">
-        <v>2172.31</v>
+        <v>7055.31</v>
       </c>
       <c r="G49" t="n">
-        <v>106780.0000057</v>
+        <v>146379.999996024</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Gabon</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>2014</v>
       </c>
       <c r="C50" t="n">
-        <v>318821.02</v>
+        <v>4136000</v>
       </c>
       <c r="D50" t="n">
-        <v>1831</v>
+        <v>1032</v>
       </c>
       <c r="E50" t="n">
-        <v>1966855</v>
+        <v>26038704</v>
       </c>
       <c r="F50" t="n">
-        <v>1852.11</v>
+        <v>33555.73</v>
       </c>
       <c r="G50" t="n">
-        <v>21532.3599996666</v>
+        <v>404915.719965162</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Gabon</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>2015</v>
       </c>
       <c r="C51" t="n">
-        <v>305663.27</v>
+        <v>3579000</v>
       </c>
       <c r="D51" t="n">
-        <v>1831</v>
+        <v>1032</v>
       </c>
       <c r="E51" t="n">
-        <v>2028517</v>
+        <v>26843246</v>
       </c>
       <c r="F51" t="n">
-        <v>4420.46</v>
+        <v>13711.1</v>
       </c>
       <c r="G51" t="n">
-        <v>21532.3599996666</v>
+        <v>406980.000021294</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Gabon</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>2016</v>
       </c>
       <c r="C52" t="n">
-        <v>301403.34</v>
+        <v>3598000</v>
       </c>
       <c r="D52" t="n">
-        <v>1831</v>
+        <v>1032</v>
       </c>
       <c r="E52" t="n">
-        <v>2086206</v>
+        <v>27696493</v>
       </c>
       <c r="F52" t="n">
-        <v>3664.79</v>
+        <v>19192.49</v>
       </c>
       <c r="G52" t="n">
-        <v>21532.3599996666</v>
+        <v>410097.10001218</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Gabon</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>2017</v>
       </c>
       <c r="C53" t="n">
-        <v>297813.28</v>
+        <v>3867000</v>
       </c>
       <c r="D53" t="n">
-        <v>1831</v>
+        <v>1032</v>
       </c>
       <c r="E53" t="n">
-        <v>2140215</v>
+        <v>28569441</v>
       </c>
       <c r="F53" t="n">
-        <v>7746.13</v>
+        <v>22609.49</v>
       </c>
       <c r="G53" t="n">
-        <v>21532.3599996666</v>
+        <v>412313.99999097</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Gabon</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>2018</v>
       </c>
       <c r="C54" t="n">
-        <v>298198.26</v>
+        <v>6346023</v>
       </c>
       <c r="D54" t="n">
-        <v>1831</v>
+        <v>1032</v>
       </c>
       <c r="E54" t="n">
-        <v>2192012</v>
+        <v>29423878</v>
       </c>
       <c r="F54" t="n">
-        <v>6296.62</v>
+        <v>26508.47</v>
       </c>
       <c r="G54" t="n">
-        <v>21532.3599996666</v>
+        <v>414138.319964726</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Gabon</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>2019</v>
       </c>
       <c r="C55" t="n">
-        <v>308017.27</v>
+        <v>6019201</v>
       </c>
       <c r="D55" t="n">
-        <v>1831</v>
+        <v>1032</v>
       </c>
       <c r="E55" t="n">
-        <v>2242785</v>
+        <v>30285595</v>
       </c>
       <c r="F55" t="n">
-        <v>5809.04</v>
+        <v>46221.11</v>
       </c>
       <c r="G55" t="n">
-        <v>21532.3599996666</v>
+        <v>414138.319964726</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Gabon</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>2020</v>
       </c>
       <c r="C56" t="n">
-        <v>310067.13</v>
+        <v>6026000</v>
       </c>
       <c r="D56" t="n">
-        <v>1831</v>
+        <v>1032</v>
       </c>
       <c r="E56" t="n">
-        <v>2292573</v>
+        <v>31178239</v>
       </c>
       <c r="F56" t="n">
-        <v>2688.89</v>
+        <v>47900.52</v>
       </c>
       <c r="G56" t="n">
-        <v>21532.3599996666</v>
+        <v>414138.319964726</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Gabon</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>2021</v>
       </c>
       <c r="C57" t="n">
-        <v>312323.41</v>
+        <v>6218141</v>
       </c>
       <c r="D57" t="n">
-        <v>1831</v>
+        <v>1032</v>
       </c>
       <c r="E57" t="n">
-        <v>2341179</v>
+        <v>32077072</v>
       </c>
       <c r="F57" t="n">
-        <v>3699.74</v>
+        <v>56859.72</v>
       </c>
       <c r="G57" t="n">
-        <v>21532.3599996666</v>
+        <v>414138.319964726</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>Malawi</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>2014</v>
       </c>
       <c r="C58" t="n">
-        <v>1426625</v>
+        <v>5102692</v>
       </c>
       <c r="D58" t="n">
-        <v>1651</v>
+        <v>1181</v>
       </c>
       <c r="E58" t="n">
-        <v>11333365</v>
+        <v>16477966</v>
       </c>
       <c r="F58" t="n">
-        <v>2920.57</v>
+        <v>118305.04</v>
       </c>
       <c r="G58" t="n">
-        <v>145330.000005416</v>
+        <v>56509.999999936</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>Malawi</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>2015</v>
       </c>
       <c r="C59" t="n">
-        <v>1506659</v>
+        <v>5012763</v>
       </c>
       <c r="D59" t="n">
-        <v>1651</v>
+        <v>1181</v>
       </c>
       <c r="E59" t="n">
-        <v>11625998</v>
+        <v>16938942</v>
       </c>
       <c r="F59" t="n">
-        <v>2412.19</v>
+        <v>109426.62</v>
       </c>
       <c r="G59" t="n">
-        <v>145449.99999662</v>
+        <v>57060.000000868</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>Malawi</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>2016</v>
       </c>
       <c r="C60" t="n">
-        <v>1607082</v>
+        <v>4996843</v>
       </c>
       <c r="D60" t="n">
-        <v>1651</v>
+        <v>1181</v>
       </c>
       <c r="E60" t="n">
-        <v>11930985</v>
+        <v>17405624</v>
       </c>
       <c r="F60" t="n">
-        <v>2229</v>
+        <v>63280.19</v>
       </c>
       <c r="G60" t="n">
-        <v>145650.000006532</v>
+        <v>57619.99999856001</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>Malawi</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>2017</v>
       </c>
       <c r="C61" t="n">
-        <v>1751719</v>
+        <v>4960556</v>
       </c>
       <c r="D61" t="n">
-        <v>1651</v>
+        <v>1181</v>
       </c>
       <c r="E61" t="n">
-        <v>12240789</v>
+        <v>17881167</v>
       </c>
       <c r="F61" t="n">
-        <v>13047.26</v>
+        <v>86463.2</v>
       </c>
       <c r="G61" t="n">
-        <v>145949.999996828</v>
+        <v>58169.999999492</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>Malawi</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>2018</v>
       </c>
       <c r="C62" t="n">
-        <v>1895396</v>
+        <v>5410506</v>
       </c>
       <c r="D62" t="n">
-        <v>1651</v>
+        <v>1181</v>
       </c>
       <c r="E62" t="n">
-        <v>12554864</v>
+        <v>18367883</v>
       </c>
       <c r="F62" t="n">
-        <v>7055.31</v>
+        <v>96439.95</v>
       </c>
       <c r="G62" t="n">
-        <v>146220.000007752</v>
+        <v>58729.999997184</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>Malawi</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>2019</v>
       </c>
       <c r="C63" t="n">
-        <v>2145484</v>
+        <v>5708032</v>
       </c>
       <c r="D63" t="n">
-        <v>1651</v>
+        <v>1181</v>
       </c>
       <c r="E63" t="n">
-        <v>12877539</v>
+        <v>18867337</v>
       </c>
       <c r="F63" t="n">
-        <v>7055.31</v>
+        <v>76293.73</v>
       </c>
       <c r="G63" t="n">
-        <v>146300.000001888</v>
+        <v>59279.999998116</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>Malawi</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>2020</v>
       </c>
       <c r="C64" t="n">
-        <v>2523455</v>
+        <v>5858745</v>
       </c>
       <c r="D64" t="n">
-        <v>1651</v>
+        <v>1181</v>
       </c>
       <c r="E64" t="n">
-        <v>13205153</v>
+        <v>19377061</v>
       </c>
       <c r="F64" t="n">
-        <v>7055.31</v>
+        <v>126914</v>
       </c>
       <c r="G64" t="n">
-        <v>146349.99999208</v>
+        <v>59839.99999580799</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>Malawi</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>2021</v>
       </c>
       <c r="C65" t="n">
-        <v>2743166</v>
+        <v>6101396</v>
       </c>
       <c r="D65" t="n">
-        <v>1651</v>
+        <v>1181</v>
       </c>
       <c r="E65" t="n">
-        <v>13531906</v>
+        <v>19889742</v>
       </c>
       <c r="F65" t="n">
-        <v>7055.31</v>
+        <v>103589.09</v>
       </c>
       <c r="G65" t="n">
-        <v>146379.999996024</v>
+        <v>60499.999998812</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Guinea-Bissau</t>
+          <t>Niger</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="C66" t="n">
-        <v>44185.54</v>
+        <v>513670.79</v>
       </c>
       <c r="D66" t="n">
-        <v>1577</v>
+        <v>151</v>
       </c>
       <c r="E66" t="n">
-        <v>1743309</v>
+        <v>23443393</v>
       </c>
       <c r="F66" t="n">
-        <v>2898.5</v>
+        <v>12474.43</v>
       </c>
       <c r="G66" t="n">
-        <v>7813.460000644001</v>
+        <v>465949.9999861</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Guinea-Bissau</t>
+          <t>Niger</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="C67" t="n">
-        <v>55207.3</v>
+        <v>658234.11</v>
       </c>
       <c r="D67" t="n">
-        <v>1577</v>
+        <v>151</v>
       </c>
       <c r="E67" t="n">
-        <v>1788919</v>
+        <v>24333639</v>
       </c>
       <c r="F67" t="n">
-        <v>2513.5</v>
+        <v>6099.53</v>
       </c>
       <c r="G67" t="n">
-        <v>7897.899999232</v>
+        <v>465949.9999861</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Guinea-Bissau</t>
+          <t>Rwanda</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C68" t="n">
-        <v>40809.95</v>
+        <v>900227</v>
       </c>
       <c r="D68" t="n">
-        <v>1577</v>
+        <v>1212</v>
       </c>
       <c r="E68" t="n">
-        <v>1834552</v>
+        <v>11368451</v>
       </c>
       <c r="F68" t="n">
-        <v>3542</v>
+        <v>6936.82</v>
       </c>
       <c r="G68" t="n">
-        <v>7982.299999932001</v>
+        <v>20060.000001068</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Guinea-Bissau</t>
+          <t>Rwanda</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C69" t="n">
-        <v>49403.07</v>
+        <v>924651</v>
       </c>
       <c r="D69" t="n">
-        <v>1577</v>
+        <v>1212</v>
       </c>
       <c r="E69" t="n">
-        <v>1879826</v>
+        <v>11642959</v>
       </c>
       <c r="F69" t="n">
-        <v>4449.5</v>
+        <v>9365.83</v>
       </c>
       <c r="G69" t="n">
-        <v>8066.700000632</v>
+        <v>20070.00000037</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Guinea-Bissau</t>
+          <t>Rwanda</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C70" t="n">
-        <v>51764.61</v>
+        <v>930220</v>
       </c>
       <c r="D70" t="n">
-        <v>1577</v>
+        <v>1212</v>
       </c>
       <c r="E70" t="n">
-        <v>1924955</v>
+        <v>11930899</v>
       </c>
       <c r="F70" t="n">
-        <v>4548.5</v>
+        <v>3460.41</v>
       </c>
       <c r="G70" t="n">
-        <v>8151.100001332001</v>
+        <v>20049.999999299</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Guinea-Bissau</t>
+          <t>Rwanda</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C71" t="n">
-        <v>52877</v>
+        <v>1041986.2</v>
       </c>
       <c r="D71" t="n">
-        <v>1577</v>
+        <v>1212</v>
       </c>
       <c r="E71" t="n">
-        <v>1970457</v>
+        <v>12230339</v>
       </c>
       <c r="F71" t="n">
-        <v>4554</v>
+        <v>8562.74</v>
       </c>
       <c r="G71" t="n">
-        <v>8151.100001332001</v>
+        <v>20049.999999299</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Guinea-Bissau</t>
+          <t>Rwanda</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C72" t="n">
-        <v>53771</v>
+        <v>1127199.78</v>
       </c>
       <c r="D72" t="n">
-        <v>1577</v>
+        <v>1212</v>
       </c>
       <c r="E72" t="n">
-        <v>2015828</v>
+        <v>12531808</v>
       </c>
       <c r="F72" t="n">
-        <v>4532</v>
+        <v>7561.21</v>
       </c>
       <c r="G72" t="n">
-        <v>8151.100001332001</v>
+        <v>19489.999998915</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Guinea-Bissau</t>
+          <t>Rwanda</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C73" t="n">
-        <v>49274</v>
+        <v>1181825.24</v>
       </c>
       <c r="D73" t="n">
-        <v>1577</v>
+        <v>1212</v>
       </c>
       <c r="E73" t="n">
-        <v>2060721</v>
+        <v>12835028</v>
       </c>
       <c r="F73" t="n">
-        <v>4251.5</v>
+        <v>10628.36</v>
       </c>
       <c r="G73" t="n">
-        <v>8151.100001332001</v>
+        <v>19040.000000721</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Equatorial Guinea</t>
+          <t>Rwanda</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="C74" t="n">
-        <v>71979.03999999999</v>
+        <v>1279581.83</v>
       </c>
       <c r="D74" t="n">
-        <v>2156</v>
+        <v>1212</v>
       </c>
       <c r="E74" t="n">
-        <v>1295183</v>
+        <v>13146362</v>
       </c>
       <c r="F74" t="n">
-        <v>445.87</v>
+        <v>12529.64</v>
       </c>
       <c r="G74" t="n">
-        <v>1041.500000079</v>
+        <v>19586.000000602</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Equatorial Guinea</t>
+          <t>Rwanda</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="C75" t="n">
-        <v>72839.67999999999</v>
+        <v>1319875</v>
       </c>
       <c r="D75" t="n">
-        <v>2156</v>
+        <v>1212</v>
       </c>
       <c r="E75" t="n">
-        <v>1346973</v>
+        <v>13461888</v>
       </c>
       <c r="F75" t="n">
-        <v>570.61</v>
+        <v>10571.99</v>
       </c>
       <c r="G75" t="n">
-        <v>1042.8000000495</v>
+        <v>20044.600000268</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Equatorial Guinea</t>
+          <t>Sierra Leone</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C76" t="n">
-        <v>73514.06</v>
+        <v>3641924</v>
       </c>
       <c r="D76" t="n">
-        <v>2156</v>
+        <v>2526</v>
       </c>
       <c r="E76" t="n">
-        <v>1398927</v>
+        <v>7140688</v>
       </c>
       <c r="F76" t="n">
-        <v>468.18</v>
+        <v>9217.23</v>
       </c>
       <c r="G76" t="n">
-        <v>1044.10000002</v>
+        <v>39490.000002198</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Equatorial Guinea</t>
+          <t>Sierra Leone</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C77" t="n">
-        <v>74224.35000000001</v>
+        <v>3247811.33</v>
       </c>
       <c r="D77" t="n">
-        <v>2156</v>
+        <v>2526</v>
       </c>
       <c r="E77" t="n">
-        <v>1450694</v>
+        <v>7314773</v>
       </c>
       <c r="F77" t="n">
-        <v>586.6799999999999</v>
+        <v>7992.93</v>
       </c>
       <c r="G77" t="n">
-        <v>1045.3999999905</v>
+        <v>39490.000002198</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Equatorial Guinea</t>
+          <t>Sierra Leone</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C78" t="n">
-        <v>74938.49000000001</v>
+        <v>2967981.65</v>
       </c>
       <c r="D78" t="n">
-        <v>2156</v>
+        <v>2526</v>
       </c>
       <c r="E78" t="n">
-        <v>1502091</v>
+        <v>7493913</v>
       </c>
       <c r="F78" t="n">
-        <v>505.17</v>
+        <v>11263.56</v>
       </c>
       <c r="G78" t="n">
-        <v>1046.699999961</v>
+        <v>39490.000002198</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Equatorial Guinea</t>
+          <t>Sierra Leone</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C79" t="n">
-        <v>74225.63</v>
+        <v>1941190.43</v>
       </c>
       <c r="D79" t="n">
-        <v>2156</v>
+        <v>2526</v>
       </c>
       <c r="E79" t="n">
-        <v>1553031</v>
+        <v>7677565</v>
       </c>
       <c r="F79" t="n">
-        <v>264</v>
+        <v>14149.41</v>
       </c>
       <c r="G79" t="n">
-        <v>1047.9999999315</v>
+        <v>39490.000002198</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Equatorial Guinea</t>
+          <t>Sierra Leone</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C80" t="n">
-        <v>74462.83</v>
+        <v>2145782</v>
       </c>
       <c r="D80" t="n">
-        <v>2156</v>
+        <v>2526</v>
       </c>
       <c r="E80" t="n">
-        <v>1596049</v>
+        <v>7861281</v>
       </c>
       <c r="F80" t="n">
-        <v>268</v>
+        <v>14464.23</v>
       </c>
       <c r="G80" t="n">
-        <v>1049.199999969</v>
+        <v>39490.000002198</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Equatorial Guinea</t>
+          <t>Sierra Leone</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C81" t="n">
-        <v>74542.32000000001</v>
+        <v>881222</v>
       </c>
       <c r="D81" t="n">
-        <v>2156</v>
+        <v>2526</v>
       </c>
       <c r="E81" t="n">
-        <v>1634466</v>
+        <v>8046828</v>
       </c>
       <c r="F81" t="n">
-        <v>250</v>
+        <v>2478.46</v>
       </c>
       <c r="G81" t="n">
-        <v>1049.199999969</v>
+        <v>39490.000002198</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Mali</t>
+          <t>Sierra Leone</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="C82" t="n">
-        <v>52152</v>
+        <v>1690168</v>
       </c>
       <c r="D82" t="n">
-        <v>282</v>
+        <v>2526</v>
       </c>
       <c r="E82" t="n">
-        <v>17551814</v>
+        <v>8233970</v>
       </c>
       <c r="F82" t="n">
-        <v>89902.23</v>
+        <v>2478.46</v>
       </c>
       <c r="G82" t="n">
-        <v>418069.999961901</v>
+        <v>39490.000002198</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Mali</t>
+          <t>Sierra Leone</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="C83" t="n">
-        <v>42345</v>
+        <v>3047589.7</v>
       </c>
       <c r="D83" t="n">
-        <v>282</v>
+        <v>2526</v>
       </c>
       <c r="E83" t="n">
-        <v>18112907</v>
+        <v>8420641</v>
       </c>
       <c r="F83" t="n">
-        <v>105261.27</v>
+        <v>2478.46</v>
       </c>
       <c r="G83" t="n">
-        <v>419959.99996233</v>
+        <v>39490.000002198</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Mali</t>
+          <t>Togo</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C84" t="n">
-        <v>118863</v>
+        <v>1153109</v>
       </c>
       <c r="D84" t="n">
-        <v>282</v>
+        <v>1168</v>
       </c>
       <c r="E84" t="n">
-        <v>18700106</v>
+        <v>7288383</v>
       </c>
       <c r="F84" t="n">
-        <v>120620.31</v>
+        <v>1734.4</v>
       </c>
       <c r="G84" t="n">
-        <v>421860.000029904</v>
+        <v>38199.99999732</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Mali</t>
+          <t>Togo</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C85" t="n">
-        <v>101447</v>
+        <v>1039135</v>
       </c>
       <c r="D85" t="n">
-        <v>282</v>
+        <v>1168</v>
       </c>
       <c r="E85" t="n">
-        <v>19311355</v>
+        <v>7473229</v>
       </c>
       <c r="F85" t="n">
-        <v>102990.6</v>
+        <v>975.34</v>
       </c>
       <c r="G85" t="n">
-        <v>423750.0000303329</v>
+        <v>38199.99999732</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Mali</t>
+          <t>Togo</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C86" t="n">
-        <v>138023</v>
+        <v>1027476</v>
       </c>
       <c r="D86" t="n">
-        <v>282</v>
+        <v>1168</v>
       </c>
       <c r="E86" t="n">
-        <v>19934298</v>
+        <v>7661354</v>
       </c>
       <c r="F86" t="n">
-        <v>102990.6</v>
+        <v>12345.13</v>
       </c>
       <c r="G86" t="n">
-        <v>425640.0000307621</v>
+        <v>38199.99999732</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Mali</t>
+          <t>Togo</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C87" t="n">
-        <v>70312</v>
+        <v>1041682</v>
       </c>
       <c r="D87" t="n">
-        <v>282</v>
+        <v>1168</v>
       </c>
       <c r="E87" t="n">
-        <v>20567424</v>
+        <v>7852795</v>
       </c>
       <c r="F87" t="n">
-        <v>157227.16</v>
+        <v>4270.16</v>
       </c>
       <c r="G87" t="n">
-        <v>427530.000031191</v>
+        <v>38199.99999732</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Mali</t>
+          <t>Togo</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C88" t="n">
-        <v>164842.14</v>
+        <v>1089472</v>
       </c>
       <c r="D88" t="n">
-        <v>282</v>
+        <v>1168</v>
       </c>
       <c r="E88" t="n">
-        <v>21224040</v>
+        <v>8046679</v>
       </c>
       <c r="F88" t="n">
-        <v>102691.5</v>
+        <v>20706.03</v>
       </c>
       <c r="G88" t="n">
-        <v>429420.00003162</v>
+        <v>38199.99999732</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Mali</t>
+          <t>Togo</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C89" t="n">
-        <v>120716</v>
+        <v>1117880</v>
       </c>
       <c r="D89" t="n">
-        <v>282</v>
+        <v>1168</v>
       </c>
       <c r="E89" t="n">
-        <v>21904983</v>
+        <v>8243094</v>
       </c>
       <c r="F89" t="n">
-        <v>45684.42</v>
+        <v>3501.9</v>
       </c>
       <c r="G89" t="n">
-        <v>431310.000032049</v>
+        <v>38199.99999732</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Togo</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="C90" t="n">
-        <v>4136000</v>
+        <v>1158044</v>
       </c>
       <c r="D90" t="n">
-        <v>1032</v>
+        <v>1168</v>
       </c>
       <c r="E90" t="n">
-        <v>26038704</v>
+        <v>8442580</v>
       </c>
       <c r="F90" t="n">
-        <v>33555.73</v>
+        <v>3501.9</v>
       </c>
       <c r="G90" t="n">
-        <v>404915.719965162</v>
+        <v>38199.99999732</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Togo</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="C91" t="n">
-        <v>3579000</v>
+        <v>1204249</v>
       </c>
       <c r="D91" t="n">
-        <v>1032</v>
+        <v>1168</v>
       </c>
       <c r="E91" t="n">
-        <v>26843246</v>
+        <v>8644829</v>
       </c>
       <c r="F91" t="n">
-        <v>13711.1</v>
+        <v>1052.59</v>
       </c>
       <c r="G91" t="n">
-        <v>406980.000021294</v>
+        <v>38199.99999732</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Tanzania</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C92" t="n">
-        <v>3598000</v>
+        <v>4992759</v>
       </c>
       <c r="D92" t="n">
-        <v>1032</v>
+        <v>1071</v>
       </c>
       <c r="E92" t="n">
-        <v>27696493</v>
+        <v>50814552</v>
       </c>
       <c r="F92" t="n">
-        <v>19192.49</v>
+        <v>84009.94</v>
       </c>
       <c r="G92" t="n">
-        <v>410097.10001218</v>
+        <v>382481.99996826</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Tanzania</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C93" t="n">
-        <v>3867000</v>
+        <v>5886440</v>
       </c>
       <c r="D93" t="n">
-        <v>1032</v>
+        <v>1071</v>
       </c>
       <c r="E93" t="n">
-        <v>28569441</v>
+        <v>52542823</v>
       </c>
       <c r="F93" t="n">
-        <v>22609.49</v>
+        <v>76515.98</v>
       </c>
       <c r="G93" t="n">
-        <v>412313.99999097</v>
+        <v>384605.00001714</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Tanzania</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C94" t="n">
-        <v>6346023</v>
+        <v>5201451.35</v>
       </c>
       <c r="D94" t="n">
-        <v>1032</v>
+        <v>1071</v>
       </c>
       <c r="E94" t="n">
-        <v>29423878</v>
+        <v>54401802</v>
       </c>
       <c r="F94" t="n">
-        <v>26508.47</v>
+        <v>107567.09</v>
       </c>
       <c r="G94" t="n">
-        <v>414138.319964726</v>
+        <v>386727.99997744</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Tanzania</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C95" t="n">
-        <v>6019201</v>
+        <v>4025265</v>
       </c>
       <c r="D95" t="n">
-        <v>1032</v>
+        <v>1071</v>
       </c>
       <c r="E95" t="n">
-        <v>30285595</v>
+        <v>56267032</v>
       </c>
       <c r="F95" t="n">
-        <v>46221.11</v>
+        <v>106012.11</v>
       </c>
       <c r="G95" t="n">
-        <v>414138.319964726</v>
+        <v>388851.00002632</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Tanzania</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C96" t="n">
-        <v>6026000</v>
+        <v>8372217</v>
       </c>
       <c r="D96" t="n">
-        <v>1032</v>
+        <v>1071</v>
       </c>
       <c r="E96" t="n">
-        <v>31178239</v>
+        <v>58090443</v>
       </c>
       <c r="F96" t="n">
-        <v>47900.52</v>
+        <v>141509.48</v>
       </c>
       <c r="G96" t="n">
-        <v>414138.319964726</v>
+        <v>390973.9999866199</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Tanzania</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C97" t="n">
-        <v>6218141</v>
+        <v>8184093</v>
       </c>
       <c r="D97" t="n">
-        <v>1032</v>
+        <v>1071</v>
       </c>
       <c r="E97" t="n">
-        <v>32077072</v>
+        <v>59872579</v>
       </c>
       <c r="F97" t="n">
-        <v>56859.72</v>
+        <v>78207.35000000001</v>
       </c>
       <c r="G97" t="n">
-        <v>414138.319964726</v>
+        <v>393097.0000355</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Malawi</t>
+          <t>Tanzania</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="C98" t="n">
-        <v>5102692</v>
+        <v>7088393.74</v>
       </c>
       <c r="D98" t="n">
-        <v>1181</v>
+        <v>1071</v>
       </c>
       <c r="E98" t="n">
-        <v>16477966</v>
+        <v>61704518</v>
       </c>
       <c r="F98" t="n">
-        <v>118305.04</v>
+        <v>171354.77</v>
       </c>
       <c r="G98" t="n">
-        <v>56509.999999936</v>
+        <v>395211.99998168</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Malawi</t>
+          <t>Tanzania</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="C99" t="n">
-        <v>5012763</v>
+        <v>6150411.4</v>
       </c>
       <c r="D99" t="n">
-        <v>1181</v>
+        <v>1071</v>
       </c>
       <c r="E99" t="n">
-        <v>16938942</v>
+        <v>63588334</v>
       </c>
       <c r="F99" t="n">
-        <v>109426.62</v>
+        <v>88895.14</v>
       </c>
       <c r="G99" t="n">
-        <v>57060.000000868</v>
+        <v>395211.99998168</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Malawi</t>
+          <t>Uganda</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C100" t="n">
-        <v>4996843</v>
+        <v>2812721</v>
       </c>
       <c r="D100" t="n">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="E100" t="n">
-        <v>17405624</v>
+        <v>36336539</v>
       </c>
       <c r="F100" t="n">
-        <v>63280.19</v>
+        <v>6638.66</v>
       </c>
       <c r="G100" t="n">
-        <v>57619.99999856001</v>
+        <v>144149.999992992</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Malawi</t>
+          <t>Uganda</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C101" t="n">
-        <v>4960556</v>
+        <v>2727487</v>
       </c>
       <c r="D101" t="n">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="E101" t="n">
-        <v>17881167</v>
+        <v>37477356</v>
       </c>
       <c r="F101" t="n">
-        <v>86463.2</v>
+        <v>2079.39</v>
       </c>
       <c r="G101" t="n">
-        <v>58169.999999492</v>
+        <v>144149.999992992</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Malawi</t>
+          <t>Uganda</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C102" t="n">
-        <v>5410506</v>
+        <v>2728988</v>
       </c>
       <c r="D102" t="n">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="E102" t="n">
-        <v>18367883</v>
+        <v>38748299</v>
       </c>
       <c r="F102" t="n">
-        <v>96439.95</v>
+        <v>8538.459999999999</v>
       </c>
       <c r="G102" t="n">
-        <v>58729.999997184</v>
+        <v>144149.999992992</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Malawi</t>
+          <t>Uganda</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C103" t="n">
-        <v>5708032</v>
+        <v>2729260</v>
       </c>
       <c r="D103" t="n">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="E103" t="n">
-        <v>18867337</v>
+        <v>40127085</v>
       </c>
       <c r="F103" t="n">
-        <v>76293.73</v>
+        <v>7607.73</v>
       </c>
       <c r="G103" t="n">
-        <v>59279.999998116</v>
+        <v>144149.999992992</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Malawi</t>
+          <t>Uganda</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C104" t="n">
-        <v>5858745</v>
+        <v>4390231</v>
       </c>
       <c r="D104" t="n">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="E104" t="n">
-        <v>19377061</v>
+        <v>41515395</v>
       </c>
       <c r="F104" t="n">
-        <v>126914</v>
+        <v>11209</v>
       </c>
       <c r="G104" t="n">
-        <v>59839.99999580799</v>
+        <v>144149.999992992</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Malawi</t>
+          <t>Uganda</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C105" t="n">
-        <v>6101396</v>
+        <v>2660000</v>
       </c>
       <c r="D105" t="n">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="E105" t="n">
-        <v>19889742</v>
+        <v>42949080</v>
       </c>
       <c r="F105" t="n">
-        <v>103589.09</v>
+        <v>11952.8</v>
       </c>
       <c r="G105" t="n">
-        <v>60499.999998812</v>
+        <v>144149.999992992</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Uganda</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="C106" t="n">
-        <v>133099</v>
+        <v>2084000</v>
       </c>
       <c r="D106" t="n">
-        <v>151</v>
+        <v>1180</v>
       </c>
       <c r="E106" t="n">
-        <v>19372014</v>
+        <v>44404611</v>
       </c>
       <c r="F106" t="n">
-        <v>12602.88</v>
+        <v>7724.8</v>
       </c>
       <c r="G106" t="n">
-        <v>456820.0000626</v>
+        <v>144149.999992992</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Uganda</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="C107" t="n">
-        <v>184612</v>
+        <v>2257790</v>
       </c>
       <c r="D107" t="n">
-        <v>151</v>
+        <v>1180</v>
       </c>
       <c r="E107" t="n">
-        <v>20128124</v>
+        <v>45853778</v>
       </c>
       <c r="F107" t="n">
-        <v>6721.04</v>
+        <v>7724.8</v>
       </c>
       <c r="G107" t="n">
-        <v>456949.99996356</v>
+        <v>144149.999992992</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Zambia</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C108" t="n">
-        <v>146563</v>
+        <v>919497</v>
       </c>
       <c r="D108" t="n">
-        <v>151</v>
+        <v>1020</v>
       </c>
       <c r="E108" t="n">
-        <v>20921743</v>
+        <v>15737793</v>
       </c>
       <c r="F108" t="n">
-        <v>6440.36</v>
+        <v>137980.06</v>
       </c>
       <c r="G108" t="n">
-        <v>463950.00000924</v>
+        <v>237379.999979754</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Zambia</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C109" t="n">
-        <v>319653</v>
+        <v>952770</v>
       </c>
       <c r="D109" t="n">
-        <v>151</v>
+        <v>1020</v>
       </c>
       <c r="E109" t="n">
-        <v>21737922</v>
+        <v>16248230</v>
       </c>
       <c r="F109" t="n">
-        <v>6440.36</v>
+        <v>165494.81</v>
       </c>
       <c r="G109" t="n">
-        <v>465949.9999861</v>
+        <v>237389.999987695</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Zambia</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C110" t="n">
-        <v>372408.29</v>
+        <v>2222843.65</v>
       </c>
       <c r="D110" t="n">
-        <v>151</v>
+        <v>1020</v>
       </c>
       <c r="E110" t="n">
-        <v>22577058</v>
+        <v>16767761</v>
       </c>
       <c r="F110" t="n">
-        <v>11025.97</v>
+        <v>188107.38</v>
       </c>
       <c r="G110" t="n">
-        <v>465949.9999861</v>
+        <v>237389.999987695</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Zambia</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C111" t="n">
-        <v>513670.79</v>
+        <v>3695182</v>
       </c>
       <c r="D111" t="n">
-        <v>151</v>
+        <v>1020</v>
       </c>
       <c r="E111" t="n">
-        <v>23443393</v>
+        <v>17298054</v>
       </c>
       <c r="F111" t="n">
-        <v>12474.43</v>
+        <v>210689.85</v>
       </c>
       <c r="G111" t="n">
-        <v>465949.9999861</v>
+        <v>238389.999964066</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Zambia</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C112" t="n">
-        <v>658234.11</v>
+        <v>4102300</v>
       </c>
       <c r="D112" t="n">
-        <v>151</v>
+        <v>1020</v>
       </c>
       <c r="E112" t="n">
-        <v>24333639</v>
+        <v>17835893</v>
       </c>
       <c r="F112" t="n">
-        <v>6099.53</v>
+        <v>147994.86</v>
       </c>
       <c r="G112" t="n">
-        <v>465949.9999861</v>
+        <v>238389.999964066</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Zambia</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C113" t="n">
-        <v>374207.49</v>
+        <v>4036584</v>
       </c>
       <c r="D113" t="n">
-        <v>151</v>
+        <v>1020</v>
       </c>
       <c r="E113" t="n">
-        <v>25252722</v>
+        <v>18380477</v>
       </c>
       <c r="F113" t="n">
-        <v>6099.53</v>
+        <v>167640.43</v>
       </c>
       <c r="G113" t="n">
-        <v>465949.9999861</v>
+        <v>238389.999964066</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Rwanda</t>
+          <t>Zambia</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="C114" t="n">
-        <v>900227</v>
+        <v>3944895.75</v>
       </c>
       <c r="D114" t="n">
-        <v>1212</v>
+        <v>1020</v>
       </c>
       <c r="E114" t="n">
-        <v>11368451</v>
+        <v>18927715</v>
       </c>
       <c r="F114" t="n">
-        <v>6936.82</v>
+        <v>191734.02</v>
       </c>
       <c r="G114" t="n">
-        <v>20060.000001068</v>
+        <v>238389.999964066</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Rwanda</t>
+          <t>Zambia</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="C115" t="n">
-        <v>924651</v>
+        <v>3800152.73</v>
       </c>
       <c r="D115" t="n">
-        <v>1212</v>
+        <v>1020</v>
       </c>
       <c r="E115" t="n">
-        <v>11642959</v>
+        <v>19473125</v>
       </c>
       <c r="F115" t="n">
-        <v>9365.83</v>
+        <v>178634.75</v>
       </c>
       <c r="G115" t="n">
-        <v>20070.00000037</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Rwanda</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>2016</v>
-      </c>
-      <c r="C116" t="n">
-        <v>930220</v>
-      </c>
-      <c r="D116" t="n">
-        <v>1212</v>
-      </c>
-      <c r="E116" t="n">
-        <v>11930899</v>
-      </c>
-      <c r="F116" t="n">
-        <v>3460.41</v>
-      </c>
-      <c r="G116" t="n">
-        <v>20049.999999299</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Rwanda</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C117" t="n">
-        <v>1041986.2</v>
-      </c>
-      <c r="D117" t="n">
-        <v>1212</v>
-      </c>
-      <c r="E117" t="n">
-        <v>12230339</v>
-      </c>
-      <c r="F117" t="n">
-        <v>8562.74</v>
-      </c>
-      <c r="G117" t="n">
-        <v>20049.999999299</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Rwanda</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C118" t="n">
-        <v>1127199.78</v>
-      </c>
-      <c r="D118" t="n">
-        <v>1212</v>
-      </c>
-      <c r="E118" t="n">
-        <v>12531808</v>
-      </c>
-      <c r="F118" t="n">
-        <v>7561.21</v>
-      </c>
-      <c r="G118" t="n">
-        <v>19489.999998915</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Rwanda</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C119" t="n">
-        <v>1181825.24</v>
-      </c>
-      <c r="D119" t="n">
-        <v>1212</v>
-      </c>
-      <c r="E119" t="n">
-        <v>12835028</v>
-      </c>
-      <c r="F119" t="n">
-        <v>10628.36</v>
-      </c>
-      <c r="G119" t="n">
-        <v>19040.000000721</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Rwanda</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C120" t="n">
-        <v>1279581.83</v>
-      </c>
-      <c r="D120" t="n">
-        <v>1212</v>
-      </c>
-      <c r="E120" t="n">
-        <v>13146362</v>
-      </c>
-      <c r="F120" t="n">
-        <v>12529.64</v>
-      </c>
-      <c r="G120" t="n">
-        <v>19586.000000602</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Rwanda</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C121" t="n">
-        <v>1319875</v>
-      </c>
-      <c r="D121" t="n">
-        <v>1212</v>
-      </c>
-      <c r="E121" t="n">
-        <v>13461888</v>
-      </c>
-      <c r="F121" t="n">
-        <v>10571.99</v>
-      </c>
-      <c r="G121" t="n">
-        <v>20044.600000268</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>Sierra Leone</t>
-        </is>
-      </c>
-      <c r="B122" t="n">
-        <v>2014</v>
-      </c>
-      <c r="C122" t="n">
-        <v>3641924</v>
-      </c>
-      <c r="D122" t="n">
-        <v>2526</v>
-      </c>
-      <c r="E122" t="n">
-        <v>7140688</v>
-      </c>
-      <c r="F122" t="n">
-        <v>9217.23</v>
-      </c>
-      <c r="G122" t="n">
-        <v>39490.000002198</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>Sierra Leone</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>2015</v>
-      </c>
-      <c r="C123" t="n">
-        <v>3247811.33</v>
-      </c>
-      <c r="D123" t="n">
-        <v>2526</v>
-      </c>
-      <c r="E123" t="n">
-        <v>7314773</v>
-      </c>
-      <c r="F123" t="n">
-        <v>7992.93</v>
-      </c>
-      <c r="G123" t="n">
-        <v>39490.000002198</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>Sierra Leone</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
-        <v>2016</v>
-      </c>
-      <c r="C124" t="n">
-        <v>2967981.65</v>
-      </c>
-      <c r="D124" t="n">
-        <v>2526</v>
-      </c>
-      <c r="E124" t="n">
-        <v>7493913</v>
-      </c>
-      <c r="F124" t="n">
-        <v>11263.56</v>
-      </c>
-      <c r="G124" t="n">
-        <v>39490.000002198</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>Sierra Leone</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C125" t="n">
-        <v>1941190.43</v>
-      </c>
-      <c r="D125" t="n">
-        <v>2526</v>
-      </c>
-      <c r="E125" t="n">
-        <v>7677565</v>
-      </c>
-      <c r="F125" t="n">
-        <v>14149.41</v>
-      </c>
-      <c r="G125" t="n">
-        <v>39490.000002198</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Sierra Leone</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C126" t="n">
-        <v>2145782</v>
-      </c>
-      <c r="D126" t="n">
-        <v>2526</v>
-      </c>
-      <c r="E126" t="n">
-        <v>7861281</v>
-      </c>
-      <c r="F126" t="n">
-        <v>14464.23</v>
-      </c>
-      <c r="G126" t="n">
-        <v>39490.000002198</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Sierra Leone</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C127" t="n">
-        <v>881222</v>
-      </c>
-      <c r="D127" t="n">
-        <v>2526</v>
-      </c>
-      <c r="E127" t="n">
-        <v>8046828</v>
-      </c>
-      <c r="F127" t="n">
-        <v>2478.46</v>
-      </c>
-      <c r="G127" t="n">
-        <v>39490.000002198</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>Sierra Leone</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C128" t="n">
-        <v>1690168</v>
-      </c>
-      <c r="D128" t="n">
-        <v>2526</v>
-      </c>
-      <c r="E128" t="n">
-        <v>8233970</v>
-      </c>
-      <c r="F128" t="n">
-        <v>2478.46</v>
-      </c>
-      <c r="G128" t="n">
-        <v>39490.000002198</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>Sierra Leone</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C129" t="n">
-        <v>3047589.7</v>
-      </c>
-      <c r="D129" t="n">
-        <v>2526</v>
-      </c>
-      <c r="E129" t="n">
-        <v>8420641</v>
-      </c>
-      <c r="F129" t="n">
-        <v>2478.46</v>
-      </c>
-      <c r="G129" t="n">
-        <v>39490.000002198</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Togo</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>2014</v>
-      </c>
-      <c r="C130" t="n">
-        <v>1153109</v>
-      </c>
-      <c r="D130" t="n">
-        <v>1168</v>
-      </c>
-      <c r="E130" t="n">
-        <v>7288383</v>
-      </c>
-      <c r="F130" t="n">
-        <v>1734.4</v>
-      </c>
-      <c r="G130" t="n">
-        <v>38199.99999732</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>Togo</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>2015</v>
-      </c>
-      <c r="C131" t="n">
-        <v>1039135</v>
-      </c>
-      <c r="D131" t="n">
-        <v>1168</v>
-      </c>
-      <c r="E131" t="n">
-        <v>7473229</v>
-      </c>
-      <c r="F131" t="n">
-        <v>975.34</v>
-      </c>
-      <c r="G131" t="n">
-        <v>38199.99999732</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>Togo</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
-        <v>2016</v>
-      </c>
-      <c r="C132" t="n">
-        <v>1027476</v>
-      </c>
-      <c r="D132" t="n">
-        <v>1168</v>
-      </c>
-      <c r="E132" t="n">
-        <v>7661354</v>
-      </c>
-      <c r="F132" t="n">
-        <v>12345.13</v>
-      </c>
-      <c r="G132" t="n">
-        <v>38199.99999732</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Togo</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C133" t="n">
-        <v>1041682</v>
-      </c>
-      <c r="D133" t="n">
-        <v>1168</v>
-      </c>
-      <c r="E133" t="n">
-        <v>7852795</v>
-      </c>
-      <c r="F133" t="n">
-        <v>4270.16</v>
-      </c>
-      <c r="G133" t="n">
-        <v>38199.99999732</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Togo</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C134" t="n">
-        <v>1089472</v>
-      </c>
-      <c r="D134" t="n">
-        <v>1168</v>
-      </c>
-      <c r="E134" t="n">
-        <v>8046679</v>
-      </c>
-      <c r="F134" t="n">
-        <v>20706.03</v>
-      </c>
-      <c r="G134" t="n">
-        <v>38199.99999732</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Togo</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C135" t="n">
-        <v>1117880</v>
-      </c>
-      <c r="D135" t="n">
-        <v>1168</v>
-      </c>
-      <c r="E135" t="n">
-        <v>8243094</v>
-      </c>
-      <c r="F135" t="n">
-        <v>3501.9</v>
-      </c>
-      <c r="G135" t="n">
-        <v>38199.99999732</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Togo</t>
-        </is>
-      </c>
-      <c r="B136" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C136" t="n">
-        <v>1158044</v>
-      </c>
-      <c r="D136" t="n">
-        <v>1168</v>
-      </c>
-      <c r="E136" t="n">
-        <v>8442580</v>
-      </c>
-      <c r="F136" t="n">
-        <v>3501.9</v>
-      </c>
-      <c r="G136" t="n">
-        <v>38199.99999732</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>Togo</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C137" t="n">
-        <v>1204249</v>
-      </c>
-      <c r="D137" t="n">
-        <v>1168</v>
-      </c>
-      <c r="E137" t="n">
-        <v>8644829</v>
-      </c>
-      <c r="F137" t="n">
-        <v>1052.59</v>
-      </c>
-      <c r="G137" t="n">
-        <v>38199.99999732</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>Tanzania</t>
-        </is>
-      </c>
-      <c r="B138" t="n">
-        <v>2014</v>
-      </c>
-      <c r="C138" t="n">
-        <v>4992759</v>
-      </c>
-      <c r="D138" t="n">
-        <v>1071</v>
-      </c>
-      <c r="E138" t="n">
-        <v>50814552</v>
-      </c>
-      <c r="F138" t="n">
-        <v>84009.94</v>
-      </c>
-      <c r="G138" t="n">
-        <v>382481.99996826</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>Tanzania</t>
-        </is>
-      </c>
-      <c r="B139" t="n">
-        <v>2015</v>
-      </c>
-      <c r="C139" t="n">
-        <v>5886440</v>
-      </c>
-      <c r="D139" t="n">
-        <v>1071</v>
-      </c>
-      <c r="E139" t="n">
-        <v>52542823</v>
-      </c>
-      <c r="F139" t="n">
-        <v>76515.98</v>
-      </c>
-      <c r="G139" t="n">
-        <v>384605.00001714</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>Tanzania</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
-        <v>2016</v>
-      </c>
-      <c r="C140" t="n">
-        <v>5201451.35</v>
-      </c>
-      <c r="D140" t="n">
-        <v>1071</v>
-      </c>
-      <c r="E140" t="n">
-        <v>54401802</v>
-      </c>
-      <c r="F140" t="n">
-        <v>107567.09</v>
-      </c>
-      <c r="G140" t="n">
-        <v>386727.99997744</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>Tanzania</t>
-        </is>
-      </c>
-      <c r="B141" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C141" t="n">
-        <v>4025265</v>
-      </c>
-      <c r="D141" t="n">
-        <v>1071</v>
-      </c>
-      <c r="E141" t="n">
-        <v>56267032</v>
-      </c>
-      <c r="F141" t="n">
-        <v>106012.11</v>
-      </c>
-      <c r="G141" t="n">
-        <v>388851.00002632</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>Tanzania</t>
-        </is>
-      </c>
-      <c r="B142" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C142" t="n">
-        <v>8372217</v>
-      </c>
-      <c r="D142" t="n">
-        <v>1071</v>
-      </c>
-      <c r="E142" t="n">
-        <v>58090443</v>
-      </c>
-      <c r="F142" t="n">
-        <v>141509.48</v>
-      </c>
-      <c r="G142" t="n">
-        <v>390973.9999866199</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>Tanzania</t>
-        </is>
-      </c>
-      <c r="B143" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C143" t="n">
-        <v>8184093</v>
-      </c>
-      <c r="D143" t="n">
-        <v>1071</v>
-      </c>
-      <c r="E143" t="n">
-        <v>59872579</v>
-      </c>
-      <c r="F143" t="n">
-        <v>78207.35000000001</v>
-      </c>
-      <c r="G143" t="n">
-        <v>393097.0000355</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>Tanzania</t>
-        </is>
-      </c>
-      <c r="B144" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C144" t="n">
-        <v>7088393.74</v>
-      </c>
-      <c r="D144" t="n">
-        <v>1071</v>
-      </c>
-      <c r="E144" t="n">
-        <v>61704518</v>
-      </c>
-      <c r="F144" t="n">
-        <v>171354.77</v>
-      </c>
-      <c r="G144" t="n">
-        <v>395211.99998168</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>Tanzania</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C145" t="n">
-        <v>6150411.4</v>
-      </c>
-      <c r="D145" t="n">
-        <v>1071</v>
-      </c>
-      <c r="E145" t="n">
-        <v>63588334</v>
-      </c>
-      <c r="F145" t="n">
-        <v>88895.14</v>
-      </c>
-      <c r="G145" t="n">
-        <v>395211.99998168</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>Uganda</t>
-        </is>
-      </c>
-      <c r="B146" t="n">
-        <v>2014</v>
-      </c>
-      <c r="C146" t="n">
-        <v>2812721</v>
-      </c>
-      <c r="D146" t="n">
-        <v>1180</v>
-      </c>
-      <c r="E146" t="n">
-        <v>36336539</v>
-      </c>
-      <c r="F146" t="n">
-        <v>6638.66</v>
-      </c>
-      <c r="G146" t="n">
-        <v>144149.999992992</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>Uganda</t>
-        </is>
-      </c>
-      <c r="B147" t="n">
-        <v>2015</v>
-      </c>
-      <c r="C147" t="n">
-        <v>2727487</v>
-      </c>
-      <c r="D147" t="n">
-        <v>1180</v>
-      </c>
-      <c r="E147" t="n">
-        <v>37477356</v>
-      </c>
-      <c r="F147" t="n">
-        <v>2079.39</v>
-      </c>
-      <c r="G147" t="n">
-        <v>144149.999992992</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>Uganda</t>
-        </is>
-      </c>
-      <c r="B148" t="n">
-        <v>2016</v>
-      </c>
-      <c r="C148" t="n">
-        <v>2728988</v>
-      </c>
-      <c r="D148" t="n">
-        <v>1180</v>
-      </c>
-      <c r="E148" t="n">
-        <v>38748299</v>
-      </c>
-      <c r="F148" t="n">
-        <v>8538.459999999999</v>
-      </c>
-      <c r="G148" t="n">
-        <v>144149.999992992</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>Uganda</t>
-        </is>
-      </c>
-      <c r="B149" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C149" t="n">
-        <v>2729260</v>
-      </c>
-      <c r="D149" t="n">
-        <v>1180</v>
-      </c>
-      <c r="E149" t="n">
-        <v>40127085</v>
-      </c>
-      <c r="F149" t="n">
-        <v>7607.73</v>
-      </c>
-      <c r="G149" t="n">
-        <v>144149.999992992</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>Uganda</t>
-        </is>
-      </c>
-      <c r="B150" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C150" t="n">
-        <v>4390231</v>
-      </c>
-      <c r="D150" t="n">
-        <v>1180</v>
-      </c>
-      <c r="E150" t="n">
-        <v>41515395</v>
-      </c>
-      <c r="F150" t="n">
-        <v>11209</v>
-      </c>
-      <c r="G150" t="n">
-        <v>144149.999992992</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>Uganda</t>
-        </is>
-      </c>
-      <c r="B151" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C151" t="n">
-        <v>2660000</v>
-      </c>
-      <c r="D151" t="n">
-        <v>1180</v>
-      </c>
-      <c r="E151" t="n">
-        <v>42949080</v>
-      </c>
-      <c r="F151" t="n">
-        <v>11952.8</v>
-      </c>
-      <c r="G151" t="n">
-        <v>144149.999992992</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>Uganda</t>
-        </is>
-      </c>
-      <c r="B152" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C152" t="n">
-        <v>2084000</v>
-      </c>
-      <c r="D152" t="n">
-        <v>1180</v>
-      </c>
-      <c r="E152" t="n">
-        <v>44404611</v>
-      </c>
-      <c r="F152" t="n">
-        <v>7724.8</v>
-      </c>
-      <c r="G152" t="n">
-        <v>144149.999992992</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>Uganda</t>
-        </is>
-      </c>
-      <c r="B153" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C153" t="n">
-        <v>2257790</v>
-      </c>
-      <c r="D153" t="n">
-        <v>1180</v>
-      </c>
-      <c r="E153" t="n">
-        <v>45853778</v>
-      </c>
-      <c r="F153" t="n">
-        <v>7724.8</v>
-      </c>
-      <c r="G153" t="n">
-        <v>144149.999992992</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>Zambia</t>
-        </is>
-      </c>
-      <c r="B154" t="n">
-        <v>2014</v>
-      </c>
-      <c r="C154" t="n">
-        <v>919497</v>
-      </c>
-      <c r="D154" t="n">
-        <v>1020</v>
-      </c>
-      <c r="E154" t="n">
-        <v>15737793</v>
-      </c>
-      <c r="F154" t="n">
-        <v>137980.06</v>
-      </c>
-      <c r="G154" t="n">
-        <v>237379.999979754</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>Zambia</t>
-        </is>
-      </c>
-      <c r="B155" t="n">
-        <v>2015</v>
-      </c>
-      <c r="C155" t="n">
-        <v>952770</v>
-      </c>
-      <c r="D155" t="n">
-        <v>1020</v>
-      </c>
-      <c r="E155" t="n">
-        <v>16248230</v>
-      </c>
-      <c r="F155" t="n">
-        <v>165494.81</v>
-      </c>
-      <c r="G155" t="n">
-        <v>237389.999987695</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>Zambia</t>
-        </is>
-      </c>
-      <c r="B156" t="n">
-        <v>2016</v>
-      </c>
-      <c r="C156" t="n">
-        <v>2222843.65</v>
-      </c>
-      <c r="D156" t="n">
-        <v>1020</v>
-      </c>
-      <c r="E156" t="n">
-        <v>16767761</v>
-      </c>
-      <c r="F156" t="n">
-        <v>188107.38</v>
-      </c>
-      <c r="G156" t="n">
-        <v>237389.999987695</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>Zambia</t>
-        </is>
-      </c>
-      <c r="B157" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C157" t="n">
-        <v>3695182</v>
-      </c>
-      <c r="D157" t="n">
-        <v>1020</v>
-      </c>
-      <c r="E157" t="n">
-        <v>17298054</v>
-      </c>
-      <c r="F157" t="n">
-        <v>210689.85</v>
-      </c>
-      <c r="G157" t="n">
-        <v>238389.999964066</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>Zambia</t>
-        </is>
-      </c>
-      <c r="B158" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C158" t="n">
-        <v>4102300</v>
-      </c>
-      <c r="D158" t="n">
-        <v>1020</v>
-      </c>
-      <c r="E158" t="n">
-        <v>17835893</v>
-      </c>
-      <c r="F158" t="n">
-        <v>147994.86</v>
-      </c>
-      <c r="G158" t="n">
-        <v>238389.999964066</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>Zambia</t>
-        </is>
-      </c>
-      <c r="B159" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C159" t="n">
-        <v>4036584</v>
-      </c>
-      <c r="D159" t="n">
-        <v>1020</v>
-      </c>
-      <c r="E159" t="n">
-        <v>18380477</v>
-      </c>
-      <c r="F159" t="n">
-        <v>167640.43</v>
-      </c>
-      <c r="G159" t="n">
-        <v>238389.999964066</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>Zambia</t>
-        </is>
-      </c>
-      <c r="B160" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C160" t="n">
-        <v>3944895.75</v>
-      </c>
-      <c r="D160" t="n">
-        <v>1020</v>
-      </c>
-      <c r="E160" t="n">
-        <v>18927715</v>
-      </c>
-      <c r="F160" t="n">
-        <v>191734.02</v>
-      </c>
-      <c r="G160" t="n">
-        <v>238389.999964066</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>Zambia</t>
-        </is>
-      </c>
-      <c r="B161" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C161" t="n">
-        <v>3800152.73</v>
-      </c>
-      <c r="D161" t="n">
-        <v>1020</v>
-      </c>
-      <c r="E161" t="n">
-        <v>19473125</v>
-      </c>
-      <c r="F161" t="n">
-        <v>178634.75</v>
-      </c>
-      <c r="G161" t="n">
         <v>238389.999964066</v>
       </c>
     </row>
